--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB733349-9A55-4F58-9146-76FE9F34CADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D35A675-BEE3-4728-889D-68BB43963453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$BA$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$BA$67</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="602">
   <si>
     <t>SearchID</t>
   </si>
@@ -3980,30 +3980,9 @@
     <t>Amount of fishing scars/ gears</t>
   </si>
   <si>
-    <t>EVHOE surveys + commercial fishing trawlers</t>
-  </si>
-  <si>
-    <t>Stable isotope analysis</t>
-  </si>
-  <si>
-    <t>Kruskal-Wallis test</t>
-  </si>
-  <si>
-    <t>Chesson's selectivity index; Pianka index for calculation of diatary overlap between dolphins and sea bass</t>
-  </si>
-  <si>
-    <t>Delphinus delphis</t>
-  </si>
-  <si>
-    <t>Sea bass fisheries</t>
-  </si>
-  <si>
     <t>Trawl surveys</t>
   </si>
   <si>
-    <t xml:space="preserve">Extended linear model; GAMM; Kolmogorov-Smirnoff test </t>
-  </si>
-  <si>
     <t>Deep-water fisheries</t>
   </si>
   <si>
@@ -4082,9 +4061,6 @@
     <t>Raja asterias</t>
   </si>
   <si>
-    <t>Not an impact of fisheries (impact of dredging)</t>
-  </si>
-  <si>
     <t>CEFAS fisheries</t>
   </si>
   <si>
@@ -4121,21 +4097,6 @@
     <t>Among the four TEDs tested, both the semi-rigid TED (TED3) and the Supershooter (TED4) performed in accordance with the design objectives: total discards were reduced, and commercial catches were not significantly reduced. As only one loggerhead turtle was captured and successfully excluded by the Supershooter (TED4), it should perhaps not be used to draw general conclusions on comparative TED performance.</t>
   </si>
   <si>
-    <t>Mainly focussing on drivers of fisheries in the Black Sea (not on impact on ecosystems)</t>
-  </si>
-  <si>
-    <t>Spatial association index; overlap index (Morisita-Horn index)</t>
-  </si>
-  <si>
-    <t>Aerial surveys, combined with fisheries data (VMS/ surveillance reports) and fish assemblage data</t>
-  </si>
-  <si>
-    <t>Phocoena phocoena</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
     <t>Mass-balance model (Ecopath with Ecosim)</t>
   </si>
   <si>
@@ -4173,9 +4134,6 @@
   </si>
   <si>
     <t>Vendace</t>
-  </si>
-  <si>
-    <t>Only a suggestion of negative impact of sea bass fisheries on common dolphin, based on dietary overlap between dolphins and sea bass --&gt; exclude</t>
   </si>
   <si>
     <t>Deep-sea trawl surveys</t>
@@ -4247,12 +4205,6 @@
     <t>Total capture</t>
   </si>
   <si>
-    <t>nets_demersal trawls</t>
-  </si>
-  <si>
-    <t>Mainly handling interaction between fisheries and harbour porpoises, rather than effects of fisheries on porpoises.Overlap between large beam trawl fisheries and harbour porpoise distribution significant in summer and autumn; not significant in spring</t>
-  </si>
-  <si>
     <t>litter items</t>
   </si>
   <si>
@@ -4295,6 +4247,9 @@
   </si>
   <si>
     <t>Catch rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended linear model _ GAMM _Kolmogorov-Smirnoff test </t>
   </si>
 </sst>
 </file>
@@ -4814,13 +4769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:BA91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5141,10 +5096,10 @@
         <v>216</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="AB3" s="15">
         <v>2</v>
@@ -5180,7 +5135,7 @@
         <v>239</v>
       </c>
       <c r="AU3" s="15" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="AV3" s="15" t="s">
         <v>492</v>
@@ -5192,7 +5147,7 @@
         <v>208</v>
       </c>
       <c r="AY3" s="15" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="AZ3" s="15" t="s">
         <v>473</v>
@@ -5668,7 +5623,7 @@
         <v>162</v>
       </c>
       <c r="AP7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="AR7" t="s">
         <v>164</v>
@@ -5801,7 +5756,7 @@
         <v>162</v>
       </c>
       <c r="AP8" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="AR8" t="s">
         <v>164</v>
@@ -6977,7 +6932,7 @@
         <v>121</v>
       </c>
       <c r="AM17" s="21" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="AN17" s="21" t="s">
         <v>233</v>
@@ -6995,13 +6950,13 @@
         <v>529</v>
       </c>
       <c r="AW17" s="21" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="AX17" s="21" t="s">
         <v>208</v>
       </c>
       <c r="AY17" s="23" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="AZ17" s="21" t="s">
         <v>473</v>
@@ -7099,13 +7054,13 @@
         <v>121</v>
       </c>
       <c r="AM18" s="21" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="AN18" s="21" t="s">
         <v>231</v>
       </c>
       <c r="AP18" s="21" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AR18" s="21" t="s">
         <v>164</v>
@@ -7114,7 +7069,7 @@
         <v>239</v>
       </c>
       <c r="AV18" s="21" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="AW18" s="21" t="s">
         <v>199</v>
@@ -7123,7 +7078,7 @@
         <v>208</v>
       </c>
       <c r="AY18" s="23" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="AZ18" s="21" t="s">
         <v>473</v>
@@ -8352,7 +8307,7 @@
         <v>69</v>
       </c>
       <c r="AA28" s="15" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="AB28" s="15">
         <v>2</v>
@@ -8394,7 +8349,7 @@
         <v>239</v>
       </c>
       <c r="AU28" s="15" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="AV28" s="15" t="s">
         <v>512</v>
@@ -8514,7 +8469,7 @@
         <v>160</v>
       </c>
       <c r="AP29" s="15" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="AR29" s="15" t="s">
         <v>164</v>
@@ -8643,7 +8598,7 @@
         <v>160</v>
       </c>
       <c r="AP30" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="AR30" t="s">
         <v>164</v>
@@ -8775,7 +8730,7 @@
         <v>160</v>
       </c>
       <c r="AP31" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="AR31" t="s">
         <v>165</v>
@@ -8988,214 +8943,144 @@
       <c r="S33" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="T33" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U33" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V33" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="W33" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y33" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z33" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="AA33" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="AB33" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="15">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="15">
-        <v>3</v>
-      </c>
-      <c r="AG33" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH33" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI33" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ33" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK33" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM33" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="AN33" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO33" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP33" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="AR33" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS33" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU33" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="AY33" s="15" t="s">
-        <v>595</v>
-      </c>
+      <c r="AG33" s="16"/>
+      <c r="AM33" s="17"/>
       <c r="AZ33" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="C34" s="16" t="s">
+    <row r="34" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="F34" s="16">
+      <c r="D34" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F34" s="11">
         <v>2013</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="M34" s="16" t="s">
+      <c r="G34" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="M34" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N34" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="O34" s="16" t="s">
+      <c r="N34" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="O34" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Q34" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="R34" s="16" t="s">
+      <c r="Q34" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="R34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S34" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T34" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U34" s="15" t="s">
+      <c r="T34" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" t="s">
         <v>46</v>
       </c>
-      <c r="V34" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="W34" s="15" t="s">
+      <c r="V34" t="s">
+        <v>58</v>
+      </c>
+      <c r="W34" t="s">
         <v>46</v>
       </c>
-      <c r="X34" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z34" s="15" t="s">
+      <c r="X34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>3</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>491</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU34" t="s">
         <v>531</v>
       </c>
-      <c r="AA34" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB34" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC34" s="15">
-        <v>2</v>
-      </c>
-      <c r="AD34" s="15">
-        <v>3</v>
-      </c>
-      <c r="AG34" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH34" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI34" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ34" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK34" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM34" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="AN34" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO34" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP34" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="AR34" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS34" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU34" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="AY34" s="15" t="s">
-        <v>595</v>
+      <c r="AV34" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>589</v>
       </c>
       <c r="AZ34" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>365</v>
       </c>
@@ -9266,10 +9151,10 @@
         <v>215</v>
       </c>
       <c r="Z35" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AA35" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="AB35">
         <v>2</v>
@@ -9296,7 +9181,7 @@
         <v>232</v>
       </c>
       <c r="AO35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP35" t="s">
         <v>491</v>
@@ -9308,25 +9193,25 @@
         <v>239</v>
       </c>
       <c r="AU35" t="s">
-        <v>538</v>
-      </c>
-      <c r="AV35" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AV35" t="s">
         <v>492</v>
       </c>
       <c r="AW35" t="s">
         <v>199</v>
       </c>
       <c r="AX35" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>603</v>
+        <v>209</v>
+      </c>
+      <c r="AY35" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="AZ35" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="2:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>365</v>
       </c>
@@ -9397,10 +9282,10 @@
         <v>215</v>
       </c>
       <c r="Z36" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AA36" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="AB36">
         <v>2</v>
@@ -9427,7 +9312,7 @@
         <v>232</v>
       </c>
       <c r="AO36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP36" t="s">
         <v>491</v>
@@ -9439,19 +9324,19 @@
         <v>239</v>
       </c>
       <c r="AU36" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AV36" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="AW36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AX36" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY36" s="4" t="s">
-        <v>543</v>
+        <v>210</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>537</v>
       </c>
       <c r="AZ36" s="15" t="s">
         <v>473</v>
@@ -9528,10 +9413,10 @@
         <v>215</v>
       </c>
       <c r="Z37" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AA37" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="AB37">
         <v>2</v>
@@ -9558,7 +9443,7 @@
         <v>232</v>
       </c>
       <c r="AO37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP37" t="s">
         <v>491</v>
@@ -9570,19 +9455,19 @@
         <v>239</v>
       </c>
       <c r="AU37" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AV37" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AW37" t="s">
         <v>200</v>
       </c>
       <c r="AX37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY37" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AZ37" s="15" t="s">
         <v>473</v>
@@ -9590,43 +9475,43 @@
     </row>
     <row r="38" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F38" s="11">
         <v>2013</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>274</v>
+        <v>377</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>244</v>
@@ -9635,7 +9520,7 @@
         <v>245</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="R38" s="11" t="s">
         <v>21</v>
@@ -9647,22 +9532,22 @@
         <v>46</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W38" t="s">
         <v>46</v>
       </c>
       <c r="X38" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="Y38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z38" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="AA38" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AB38">
         <v>2</v>
@@ -9674,7 +9559,7 @@
         <v>3</v>
       </c>
       <c r="AG38" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH38" t="s">
         <v>110</v>
@@ -9685,11 +9570,14 @@
       <c r="AJ38" t="s">
         <v>138</v>
       </c>
+      <c r="AM38" s="14" t="s">
+        <v>542</v>
+      </c>
       <c r="AN38" t="s">
         <v>232</v>
       </c>
       <c r="AO38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP38" t="s">
         <v>491</v>
@@ -9701,241 +9589,232 @@
         <v>239</v>
       </c>
       <c r="AU38" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AV38" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AW38" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AX38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AY38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AZ38" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="39" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C39" s="11" t="s">
+    <row r="39" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="F39" s="11">
+      <c r="D39" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="F39" s="16">
         <v>2013</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="M39" s="11" t="s">
+      <c r="J39" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="M39" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="O39" s="11" t="s">
+      <c r="N39" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O39" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="R39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T39" t="s">
-        <v>30</v>
-      </c>
-      <c r="U39" t="s">
+      <c r="T39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="V39" t="s">
+      <c r="V39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W39" t="s">
+      <c r="W39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X39" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>550</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>546</v>
-      </c>
-      <c r="AB39">
+      <c r="X39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y39" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA39" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB39" s="15">
         <v>2</v>
       </c>
-      <c r="AC39">
+      <c r="AC39" s="15">
         <v>2</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="15">
         <v>3</v>
       </c>
-      <c r="AG39" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH39" t="s">
+      <c r="AG39" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH39" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AI39" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AJ39" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM39" s="14" t="s">
+      <c r="AN39" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO39" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP39" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="AR39" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS39" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV39" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="AW39" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX39" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY39" s="15" t="s">
         <v>549</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>491</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>538</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>547</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY39" t="s">
-        <v>548</v>
       </c>
       <c r="AZ39" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16" t="s">
+    <row r="40" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="11">
         <v>2013</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="M40" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N40" s="16" t="s">
+      <c r="N40" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="O40" s="16" t="s">
+      <c r="O40" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="P40" s="16" t="s">
+      <c r="P40" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Q40" s="16" t="s">
+      <c r="Q40" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="R40" s="16" t="s">
+      <c r="R40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T40" s="15" t="s">
+      <c r="T40" t="s">
         <v>26</v>
       </c>
-      <c r="U40" s="15" t="s">
+      <c r="U40" t="s">
         <v>46</v>
       </c>
-      <c r="V40" s="15" t="s">
+      <c r="V40" t="s">
         <v>57</v>
       </c>
-      <c r="W40" s="15" t="s">
+      <c r="W40" t="s">
         <v>46</v>
       </c>
-      <c r="X40" s="15" t="s">
+      <c r="X40" t="s">
         <v>55</v>
       </c>
-      <c r="Y40" s="15" t="s">
+      <c r="Y40" t="s">
         <v>215</v>
       </c>
-      <c r="Z40" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA40" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="AB40" s="15">
+      <c r="Z40" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB40">
         <v>2</v>
       </c>
-      <c r="AC40" s="15">
+      <c r="AC40">
         <v>2</v>
       </c>
-      <c r="AD40" s="15">
+      <c r="AD40">
         <v>3</v>
       </c>
       <c r="AG40" s="16" t="s">
@@ -9944,35 +9823,35 @@
       <c r="AH40" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI40" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN40" s="15" t="s">
+      <c r="AI40" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN40" t="s">
         <v>232</v>
       </c>
-      <c r="AO40" s="15" t="s">
+      <c r="AO40" t="s">
         <v>161</v>
       </c>
-      <c r="AP40" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="AR40" s="15" t="s">
+      <c r="AP40" t="s">
+        <v>591</v>
+      </c>
+      <c r="AR40" t="s">
         <v>164</v>
       </c>
-      <c r="AS40" s="15" t="s">
+      <c r="AS40" t="s">
         <v>239</v>
       </c>
-      <c r="AV40" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="AW40" s="15" t="s">
+      <c r="AV40" t="s">
+        <v>547</v>
+      </c>
+      <c r="AW40" t="s">
         <v>199</v>
       </c>
-      <c r="AX40" s="15" t="s">
+      <c r="AX40" t="s">
         <v>208</v>
       </c>
-      <c r="AY40" s="15" t="s">
-        <v>556</v>
+      <c r="AY40" t="s">
+        <v>549</v>
       </c>
       <c r="AZ40" s="15" t="s">
         <v>473</v>
@@ -10049,10 +9928,10 @@
         <v>215</v>
       </c>
       <c r="Z41" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA41" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB41">
         <v>2</v>
@@ -10070,7 +9949,10 @@
         <v>110</v>
       </c>
       <c r="AI41" t="s">
-        <v>220</v>
+        <v>120</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>140</v>
       </c>
       <c r="AN41" t="s">
         <v>232</v>
@@ -10079,7 +9961,7 @@
         <v>161</v>
       </c>
       <c r="AP41" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR41" t="s">
         <v>164</v>
@@ -10088,16 +9970,16 @@
         <v>239</v>
       </c>
       <c r="AV41" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW41" t="s">
         <v>199</v>
       </c>
       <c r="AX41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY41" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AZ41" s="15" t="s">
         <v>473</v>
@@ -10174,10 +10056,10 @@
         <v>215</v>
       </c>
       <c r="Z42" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA42" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB42">
         <v>2</v>
@@ -10195,10 +10077,7 @@
         <v>110</v>
       </c>
       <c r="AI42" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AN42" t="s">
         <v>232</v>
@@ -10207,7 +10086,7 @@
         <v>161</v>
       </c>
       <c r="AP42" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR42" t="s">
         <v>164</v>
@@ -10216,16 +10095,16 @@
         <v>239</v>
       </c>
       <c r="AV42" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW42" t="s">
         <v>199</v>
       </c>
       <c r="AX42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY42" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AZ42" s="15" t="s">
         <v>473</v>
@@ -10302,10 +10181,10 @@
         <v>215</v>
       </c>
       <c r="Z43" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA43" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB43">
         <v>2</v>
@@ -10323,7 +10202,7 @@
         <v>110</v>
       </c>
       <c r="AI43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AN43" t="s">
         <v>232</v>
@@ -10332,16 +10211,19 @@
         <v>161</v>
       </c>
       <c r="AP43" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR43" t="s">
         <v>164</v>
       </c>
       <c r="AS43" t="s">
-        <v>239</v>
+        <v>170</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>546</v>
       </c>
       <c r="AV43" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW43" t="s">
         <v>199</v>
@@ -10350,7 +10232,7 @@
         <v>208</v>
       </c>
       <c r="AY43" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AZ43" s="15" t="s">
         <v>473</v>
@@ -10427,10 +10309,10 @@
         <v>215</v>
       </c>
       <c r="Z44" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA44" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB44">
         <v>2</v>
@@ -10448,7 +10330,7 @@
         <v>110</v>
       </c>
       <c r="AI44" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AN44" t="s">
         <v>232</v>
@@ -10457,7 +10339,7 @@
         <v>161</v>
       </c>
       <c r="AP44" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR44" t="s">
         <v>164</v>
@@ -10466,10 +10348,10 @@
         <v>170</v>
       </c>
       <c r="AU44" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AV44" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW44" t="s">
         <v>199</v>
@@ -10478,7 +10360,7 @@
         <v>208</v>
       </c>
       <c r="AY44" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AZ44" s="15" t="s">
         <v>473</v>
@@ -10555,10 +10437,10 @@
         <v>215</v>
       </c>
       <c r="Z45" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA45" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB45">
         <v>2</v>
@@ -10576,7 +10458,10 @@
         <v>110</v>
       </c>
       <c r="AI45" t="s">
-        <v>220</v>
+        <v>120</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>140</v>
       </c>
       <c r="AN45" t="s">
         <v>232</v>
@@ -10585,7 +10470,7 @@
         <v>161</v>
       </c>
       <c r="AP45" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR45" t="s">
         <v>164</v>
@@ -10594,19 +10479,19 @@
         <v>170</v>
       </c>
       <c r="AU45" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AV45" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW45" t="s">
         <v>199</v>
       </c>
       <c r="AX45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY45" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AZ45" s="15" t="s">
         <v>473</v>
@@ -10683,10 +10568,10 @@
         <v>215</v>
       </c>
       <c r="Z46" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA46" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB46">
         <v>2</v>
@@ -10704,10 +10589,7 @@
         <v>110</v>
       </c>
       <c r="AI46" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AN46" t="s">
         <v>232</v>
@@ -10716,7 +10598,7 @@
         <v>161</v>
       </c>
       <c r="AP46" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR46" t="s">
         <v>164</v>
@@ -10725,19 +10607,19 @@
         <v>170</v>
       </c>
       <c r="AU46" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AV46" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW46" t="s">
         <v>199</v>
       </c>
       <c r="AX46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY46" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="AZ46" s="15" t="s">
         <v>473</v>
@@ -10814,10 +10696,10 @@
         <v>215</v>
       </c>
       <c r="Z47" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA47" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB47">
         <v>2</v>
@@ -10835,7 +10717,7 @@
         <v>110</v>
       </c>
       <c r="AI47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AN47" t="s">
         <v>232</v>
@@ -10844,19 +10726,19 @@
         <v>161</v>
       </c>
       <c r="AP47" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR47" t="s">
         <v>164</v>
       </c>
       <c r="AS47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU47" t="s">
-        <v>553</v>
+        <v>197</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>192</v>
       </c>
       <c r="AV47" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW47" t="s">
         <v>199</v>
@@ -10865,7 +10747,7 @@
         <v>208</v>
       </c>
       <c r="AY47" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AZ47" s="15" t="s">
         <v>473</v>
@@ -10942,10 +10824,10 @@
         <v>215</v>
       </c>
       <c r="Z48" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA48" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB48">
         <v>2</v>
@@ -10963,7 +10845,7 @@
         <v>110</v>
       </c>
       <c r="AI48" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AN48" t="s">
         <v>232</v>
@@ -10972,7 +10854,7 @@
         <v>161</v>
       </c>
       <c r="AP48" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR48" t="s">
         <v>164</v>
@@ -10984,7 +10866,7 @@
         <v>192</v>
       </c>
       <c r="AV48" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW48" t="s">
         <v>199</v>
@@ -10993,7 +10875,7 @@
         <v>208</v>
       </c>
       <c r="AY48" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AZ48" s="15" t="s">
         <v>473</v>
@@ -11070,10 +10952,10 @@
         <v>215</v>
       </c>
       <c r="Z49" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA49" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB49">
         <v>2</v>
@@ -11091,7 +10973,10 @@
         <v>110</v>
       </c>
       <c r="AI49" t="s">
-        <v>220</v>
+        <v>120</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>140</v>
       </c>
       <c r="AN49" t="s">
         <v>232</v>
@@ -11100,7 +10985,7 @@
         <v>161</v>
       </c>
       <c r="AP49" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR49" t="s">
         <v>164</v>
@@ -11112,16 +10997,16 @@
         <v>192</v>
       </c>
       <c r="AV49" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW49" t="s">
         <v>199</v>
       </c>
       <c r="AX49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY49" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AZ49" s="15" t="s">
         <v>473</v>
@@ -11198,10 +11083,10 @@
         <v>215</v>
       </c>
       <c r="Z50" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AA50" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AB50">
         <v>2</v>
@@ -11219,10 +11104,7 @@
         <v>110</v>
       </c>
       <c r="AI50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AN50" t="s">
         <v>232</v>
@@ -11231,7 +11113,7 @@
         <v>161</v>
       </c>
       <c r="AP50" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="AR50" t="s">
         <v>164</v>
@@ -11243,16 +11125,16 @@
         <v>192</v>
       </c>
       <c r="AV50" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AW50" t="s">
         <v>199</v>
       </c>
       <c r="AX50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY50" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AZ50" s="15" t="s">
         <v>473</v>
@@ -11260,43 +11142,43 @@
     </row>
     <row r="51" spans="2:53" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F51" s="11">
         <v>2013</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>244</v>
@@ -11305,34 +11187,34 @@
         <v>245</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="R51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T51" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="Y51" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z51" t="s">
         <v>551</v>
       </c>
       <c r="AA51" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="AB51">
         <v>2</v>
@@ -11343,44 +11225,47 @@
       <c r="AD51">
         <v>3</v>
       </c>
-      <c r="AG51" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH51" s="15" t="s">
-        <v>110</v>
+      <c r="AG51" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>111</v>
       </c>
       <c r="AI51" t="s">
-        <v>118</v>
+        <v>220</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM51" s="14" t="s">
+        <v>556</v>
       </c>
       <c r="AN51" t="s">
         <v>232</v>
       </c>
       <c r="AO51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP51" t="s">
-        <v>605</v>
+        <v>553</v>
       </c>
       <c r="AR51" t="s">
         <v>164</v>
       </c>
       <c r="AS51" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT51" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AV51" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="AW51" t="s">
         <v>199</v>
       </c>
       <c r="AX51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY51" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AZ51" s="15" t="s">
         <v>473</v>
@@ -11445,19 +11330,19 @@
         <v>45</v>
       </c>
       <c r="V52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W52" t="s">
         <v>45</v>
       </c>
       <c r="X52" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="Y52" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z52" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AA52" t="s">
         <v>514</v>
@@ -11484,7 +11369,7 @@
         <v>131</v>
       </c>
       <c r="AM52" s="14" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AN52" t="s">
         <v>232</v>
@@ -11493,7 +11378,7 @@
         <v>160</v>
       </c>
       <c r="AP52" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AR52" t="s">
         <v>164</v>
@@ -11511,144 +11396,150 @@
         <v>207</v>
       </c>
       <c r="AY52" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AZ52" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="2:53" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C53" s="11" t="s">
+    <row r="53" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="F53" s="11">
-        <v>2013</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="I53" s="11" t="s">
+      <c r="D53" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="F53" s="16">
+        <v>2012</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="M53" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="M53" s="11" t="s">
+      <c r="N53" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O53" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q53" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="N53" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="O53" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P53" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U53" t="s">
-        <v>45</v>
-      </c>
-      <c r="V53" t="s">
-        <v>56</v>
-      </c>
-      <c r="W53" t="s">
-        <v>45</v>
-      </c>
-      <c r="X53" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>514</v>
-      </c>
-      <c r="AB53">
+      <c r="U53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V53" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="X53" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y53" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z53" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="AA53" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB53" s="15">
         <v>2</v>
       </c>
-      <c r="AC53">
+      <c r="AC53" s="15">
         <v>2</v>
       </c>
-      <c r="AD53">
+      <c r="AD53" s="15">
         <v>3</v>
       </c>
-      <c r="AG53" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM53" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="AN53" t="s">
+      <c r="AF53" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG53" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH53" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI53" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ53" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM53" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="AN53" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AO53" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP53" t="s">
-        <v>560</v>
-      </c>
-      <c r="AR53" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS53" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV53" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW53" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX53" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY53" t="s">
-        <v>562</v>
+      <c r="AO53" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP53" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="AR53" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS53" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT53" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV53" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="AW53" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX53" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY53" s="15" t="s">
+        <v>590</v>
       </c>
       <c r="AZ53" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:53" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>394</v>
       </c>
@@ -11709,7 +11600,7 @@
       <c r="V54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="15" t="s">
+      <c r="W54" s="18" t="s">
         <v>46</v>
       </c>
       <c r="X54" s="15" t="s">
@@ -11719,10 +11610,10 @@
         <v>113</v>
       </c>
       <c r="Z54" s="15" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AA54" s="15" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AB54" s="15">
         <v>2</v>
@@ -11733,6 +11624,7 @@
       <c r="AD54" s="15">
         <v>3</v>
       </c>
+      <c r="AE54" s="15"/>
       <c r="AF54" s="15" t="s">
         <v>504</v>
       </c>
@@ -11748,82 +11640,84 @@
       <c r="AJ54" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AM54" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN54" s="15" t="s">
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="AN54" t="s">
         <v>232</v>
       </c>
-      <c r="AO54" s="15" t="s">
+      <c r="AO54" t="s">
         <v>162</v>
       </c>
-      <c r="AP54" s="15" t="s">
+      <c r="AP54" t="s">
         <v>491</v>
       </c>
-      <c r="AR54" s="15" t="s">
+      <c r="AR54" t="s">
         <v>165</v>
       </c>
-      <c r="AS54" s="15" t="s">
+      <c r="AS54" t="s">
         <v>170</v>
       </c>
-      <c r="AT54" s="15" t="s">
-        <v>188</v>
+      <c r="AT54" t="s">
+        <v>189</v>
       </c>
       <c r="AV54" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="AW54" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="AW54" t="s">
         <v>238</v>
       </c>
-      <c r="AX54" s="15" t="s">
+      <c r="AX54" t="s">
         <v>208</v>
       </c>
-      <c r="AY54" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="AZ54" s="15" t="s">
+      <c r="AY54" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="AZ54" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="2:53" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F55" s="16">
         <v>2012</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M55" s="16" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="O55" s="16" t="s">
         <v>244</v>
@@ -11837,231 +11731,220 @@
       <c r="R55" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T55" s="15" t="s">
+      <c r="S55" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG55" s="16"/>
+    </row>
+    <row r="56" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2011</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T56" t="s">
+        <v>24</v>
+      </c>
+      <c r="U56" t="s">
+        <v>46</v>
+      </c>
+      <c r="V56" t="s">
+        <v>57</v>
+      </c>
+      <c r="W56" t="s">
+        <v>46</v>
+      </c>
+      <c r="X56" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z56" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA56" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB56" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD56" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM56" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>491</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>561</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>562</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="F57" s="16">
+        <v>2011</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P57" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="R57" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T57" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U55" s="15" t="s">
+      <c r="U57" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="V55" s="15" t="s">
+      <c r="V57" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="18" t="s">
+      <c r="W57" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X55" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y55" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z55" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA55" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="AB55" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC55" s="15">
-        <v>2</v>
-      </c>
-      <c r="AD55" s="15">
-        <v>3</v>
-      </c>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG55" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH55" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI55" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ55" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK55" s="15"/>
-      <c r="AL55" s="15"/>
-      <c r="AM55" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO55" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP55" t="s">
-        <v>491</v>
-      </c>
-      <c r="AR55" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT55" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV55" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="AW55" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX55" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY55" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="AZ55" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="56" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="F56" s="16">
-        <v>2012</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="M56" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="O56" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="P56" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q56" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R56" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S56" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA56" s="15" t="s">
+      <c r="X57" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y57" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z57" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA57" s="15" t="s">
         <v>564</v>
-      </c>
-      <c r="AG56" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="2:53" x14ac:dyDescent="0.3">
-      <c r="B57" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F57" s="11">
-        <v>2011</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P57" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q57" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T57" t="s">
-        <v>24</v>
-      </c>
-      <c r="U57" t="s">
-        <v>46</v>
-      </c>
-      <c r="V57" t="s">
-        <v>57</v>
-      </c>
-      <c r="W57" t="s">
-        <v>46</v>
-      </c>
-      <c r="X57" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z57" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA57" s="15" t="s">
-        <v>566</v>
       </c>
       <c r="AB57" s="15">
         <v>2</v>
@@ -12073,51 +11956,42 @@
         <v>3</v>
       </c>
       <c r="AG57" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM57" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="AN57" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH57" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI57" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN57" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AO57" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP57" t="s">
+      <c r="AO57" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP57" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="AR57" t="s">
+      <c r="AR57" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AS57" t="s">
+      <c r="AS57" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AU57" t="s">
-        <v>568</v>
-      </c>
-      <c r="AV57" t="s">
-        <v>569</v>
-      </c>
-      <c r="AW57" t="s">
-        <v>202</v>
-      </c>
-      <c r="AX57" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY57" t="s">
-        <v>570</v>
-      </c>
-      <c r="AZ57" t="s">
+      <c r="AV57" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="AW57" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX57" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY57" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="AZ57" s="15" t="s">
         <v>473</v>
       </c>
     </row>
@@ -12192,10 +12066,10 @@
         <v>215</v>
       </c>
       <c r="Z58" s="15" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="AA58" s="15" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AB58" s="15">
         <v>2</v>
@@ -12206,14 +12080,14 @@
       <c r="AD58" s="15">
         <v>3</v>
       </c>
-      <c r="AG58" s="15" t="s">
-        <v>31</v>
+      <c r="AG58" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="AH58" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AI58" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN58" s="15" t="s">
         <v>232</v>
@@ -12240,304 +12114,236 @@
         <v>207</v>
       </c>
       <c r="AY58" s="15" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AZ58" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="C59" s="16" t="s">
+    <row r="59" spans="2:53" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="F59" s="16">
+      <c r="D59" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="F59" s="19">
         <v>2011</v>
       </c>
-      <c r="G59" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="M59" s="16" t="s">
+      <c r="G59" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="M59" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="N59" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="O59" s="16" t="s">
+      <c r="N59" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="P59" s="16" t="s">
+      <c r="P59" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="Q59" s="16" t="s">
+      <c r="Q59" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="R59" s="16" t="s">
+      <c r="R59" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="T59" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U59" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V59" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W59" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X59" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y59" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z59" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="AA59" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="AB59" s="15">
+      <c r="T59" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U59" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V59" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W59" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X59" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y59" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z59" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA59" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB59" s="18">
         <v>2</v>
       </c>
-      <c r="AC59" s="15">
+      <c r="AC59" s="18">
         <v>2</v>
       </c>
-      <c r="AD59" s="15">
+      <c r="AD59" s="18">
         <v>3</v>
       </c>
-      <c r="AG59" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH59" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI59" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN59" s="15" t="s">
+      <c r="AG59" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH59" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI59" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ59" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN59" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AO59" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP59" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="AR59" s="15" t="s">
+      <c r="AO59" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP59" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="AR59" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="AS59" s="15" t="s">
+      <c r="AS59" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="AV59" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="AW59" s="15" t="s">
+      <c r="AV59" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="AW59" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="AX59" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY59" s="15" t="s">
-        <v>573</v>
+      <c r="AX59" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY59" s="18" t="s">
+        <v>568</v>
       </c>
       <c r="AZ59" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="60" spans="2:53" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C60" s="19" t="s">
+    <row r="60" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="F60" s="19">
-        <v>2011</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="L60" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="M60" s="19" t="s">
+      <c r="D60" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F60" s="16">
+        <v>2010</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="M60" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="N60" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="O60" s="19" t="s">
+      <c r="N60" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="O60" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P60" s="19" t="s">
+      <c r="P60" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="Q60" s="19" t="s">
+      <c r="Q60" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="R60" s="19" t="s">
+      <c r="R60" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T60" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="U60" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V60" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="W60" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X60" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y60" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z60" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="AA60" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="AB60" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC60" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD60" s="18">
-        <v>3</v>
-      </c>
-      <c r="AG60" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH60" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI60" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ60" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN60" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO60" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP60" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="AR60" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS60" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV60" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="AW60" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX60" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY60" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AZ60" s="15" t="s">
-        <v>473</v>
-      </c>
+      <c r="S60" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG60" s="16"/>
     </row>
     <row r="61" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="16" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="F61" s="16">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>437</v>
+        <v>265</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M61" s="16" t="s">
         <v>243</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="O61" s="16" t="s">
         <v>244</v>
@@ -12554,106 +12360,96 @@
       <c r="S61" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="T61" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="U61" s="15" t="s">
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AG61" s="16"/>
+      <c r="AM61" s="17"/>
+      <c r="AP61" s="20"/>
+      <c r="AV61" s="20"/>
+      <c r="AY61" s="20"/>
+      <c r="AZ61" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="BA61" s="20"/>
+    </row>
+    <row r="62" spans="2:53" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F62" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="R62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" t="s">
+        <v>31</v>
+      </c>
+      <c r="U62" t="s">
         <v>45</v>
       </c>
-      <c r="V61" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W61" s="15" t="s">
+      <c r="V62" t="s">
+        <v>59</v>
+      </c>
+      <c r="W62" t="s">
         <v>45</v>
       </c>
-      <c r="X61" s="15" t="s">
+      <c r="X62" t="s">
         <v>214</v>
       </c>
-      <c r="AA61" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="AG61" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="F62" s="16">
-        <v>2009</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="M62" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N62" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="O62" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="P62" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q62" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R62" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S62" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T62" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U62" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V62" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W62" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X62" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y62" s="15" t="s">
-        <v>215</v>
+      <c r="Y62" t="s">
+        <v>69</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="AA62" s="20" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AB62" s="20">
         <v>2</v>
@@ -12664,58 +12460,45 @@
       <c r="AD62" s="20">
         <v>3</v>
       </c>
-      <c r="AG62" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH62" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI62" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ62" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK62" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM62" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="AN62" s="15" t="s">
+      <c r="AG62" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN62" t="s">
         <v>232</v>
       </c>
-      <c r="AO62" s="15" t="s">
-        <v>162</v>
+      <c r="AO62" t="s">
+        <v>160</v>
       </c>
       <c r="AP62" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="AR62" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="AR62" t="s">
         <v>164</v>
       </c>
-      <c r="AT62" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU62" s="15" t="s">
-        <v>607</v>
+      <c r="AS62" t="s">
+        <v>239</v>
       </c>
       <c r="AV62" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="AW62" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX62" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX62" t="s">
         <v>209</v>
       </c>
-      <c r="AY62" s="20" t="s">
-        <v>608</v>
+      <c r="AY62" s="15" t="s">
+        <v>572</v>
       </c>
       <c r="AZ62" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="BA62" s="20"/>
     </row>
     <row r="63" spans="2:53" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
@@ -12773,13 +12556,13 @@
         <v>31</v>
       </c>
       <c r="U63" t="s">
-        <v>45</v>
+        <v>575</v>
       </c>
       <c r="V63" t="s">
         <v>59</v>
       </c>
       <c r="W63" t="s">
-        <v>45</v>
+        <v>575</v>
       </c>
       <c r="X63" t="s">
         <v>214</v>
@@ -12788,10 +12571,10 @@
         <v>69</v>
       </c>
       <c r="Z63" s="20" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="AA63" s="20" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="AB63" s="20">
         <v>2</v>
@@ -12803,7 +12586,7 @@
         <v>3</v>
       </c>
       <c r="AG63" s="11" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AH63" t="s">
         <v>111</v>
@@ -12818,13 +12601,16 @@
         <v>160</v>
       </c>
       <c r="AP63" s="20" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="AR63" t="s">
         <v>164</v>
       </c>
       <c r="AS63" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>181</v>
       </c>
       <c r="AV63" s="20" t="s">
         <v>492</v>
@@ -12836,7 +12622,7 @@
         <v>209</v>
       </c>
       <c r="AY63" s="15" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="AZ63" s="20" t="s">
         <v>473</v>
@@ -12898,13 +12684,13 @@
         <v>31</v>
       </c>
       <c r="U64" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="V64" t="s">
         <v>59</v>
       </c>
       <c r="W64" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="X64" t="s">
         <v>214</v>
@@ -12913,10 +12699,10 @@
         <v>69</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="AA64" s="20" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="AB64" s="20">
         <v>2</v>
@@ -12928,7 +12714,7 @@
         <v>3</v>
       </c>
       <c r="AG64" s="11" t="s">
-        <v>256</v>
+        <v>573</v>
       </c>
       <c r="AH64" t="s">
         <v>111</v>
@@ -12943,16 +12729,16 @@
         <v>160</v>
       </c>
       <c r="AP64" s="20" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="AR64" t="s">
         <v>164</v>
       </c>
       <c r="AS64" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AT64" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AV64" s="20" t="s">
         <v>492</v>
@@ -12964,7 +12750,7 @@
         <v>209</v>
       </c>
       <c r="AY64" s="15" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="AZ64" s="20" t="s">
         <v>473</v>
@@ -13026,13 +12812,13 @@
         <v>31</v>
       </c>
       <c r="U65" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="V65" t="s">
         <v>59</v>
       </c>
       <c r="W65" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="X65" t="s">
         <v>214</v>
@@ -13041,10 +12827,10 @@
         <v>69</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="AA65" s="20" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="AB65" s="20">
         <v>2</v>
@@ -13056,7 +12842,7 @@
         <v>3</v>
       </c>
       <c r="AG65" s="11" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="AH65" t="s">
         <v>111</v>
@@ -13071,7 +12857,7 @@
         <v>160</v>
       </c>
       <c r="AP65" s="20" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="AR65" t="s">
         <v>164</v>
@@ -13080,7 +12866,7 @@
         <v>197</v>
       </c>
       <c r="AT65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AV65" s="20" t="s">
         <v>492</v>
@@ -13092,87 +12878,87 @@
         <v>209</v>
       </c>
       <c r="AY65" s="15" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="AZ65" s="20" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B66" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C66" s="11" t="s">
+    <row r="66" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F66" s="11">
+      <c r="D66" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="F66" s="16">
         <v>2009</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="M66" s="11" t="s">
+      <c r="G66" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="M66" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="N66" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="O66" s="11" t="s">
+      <c r="N66" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="O66" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P66" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q66" s="11" t="s">
+      <c r="P66" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q66" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="R66" s="11" t="s">
+      <c r="R66" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T66" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66" t="s">
-        <v>590</v>
-      </c>
-      <c r="V66" t="s">
+      <c r="T66" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U66" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V66" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W66" t="s">
-        <v>590</v>
-      </c>
-      <c r="X66" t="s">
+      <c r="W66" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="X66" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Y66" s="15" t="s">
         <v>69</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AA66" s="20" t="s">
-        <v>582</v>
+        <v>112</v>
       </c>
       <c r="AB66" s="20">
         <v>2</v>
@@ -13183,121 +12969,119 @@
       <c r="AD66" s="20">
         <v>3</v>
       </c>
-      <c r="AG66" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN66" t="s">
+      <c r="AG66" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH66" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI66" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN66" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AO66" t="s">
-        <v>160</v>
+      <c r="AO66" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="AP66" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT66" t="s">
-        <v>194</v>
+        <v>491</v>
+      </c>
+      <c r="AR66" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS66" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT66" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="AV66" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX66" t="s">
-        <v>209</v>
+        <v>579</v>
+      </c>
+      <c r="AW66" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX66" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="AY66" s="15" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AZ66" s="20" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="16" t="s">
+    <row r="67" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="11">
         <v>2009</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="I67" s="16" t="s">
+      <c r="I67" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="L67" s="16" t="s">
+      <c r="L67" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="M67" s="16" t="s">
+      <c r="M67" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="N67" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="O67" s="16" t="s">
+      <c r="O67" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="P67" s="16" t="s">
+      <c r="P67" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="Q67" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R67" s="16" t="s">
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T67" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U67" s="15" t="s">
+      <c r="T67" t="s">
+        <v>23</v>
+      </c>
+      <c r="U67" t="s">
         <v>46</v>
       </c>
-      <c r="V67" s="15" t="s">
+      <c r="V67" t="s">
         <v>59</v>
       </c>
-      <c r="W67" s="15" t="s">
+      <c r="W67" t="s">
         <v>46</v>
       </c>
-      <c r="X67" s="15" t="s">
+      <c r="X67" t="s">
         <v>214</v>
       </c>
-      <c r="Y67" s="15" t="s">
+      <c r="Y67" t="s">
         <v>69</v>
       </c>
       <c r="Z67" s="20" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="AA67" s="20" t="s">
         <v>112</v>
@@ -13317,168 +13101,62 @@
       <c r="AH67" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AI67" s="15" t="s">
+      <c r="AI67" t="s">
         <v>116</v>
       </c>
-      <c r="AN67" s="15" t="s">
+      <c r="AN67" t="s">
         <v>232</v>
       </c>
-      <c r="AO67" s="15" t="s">
+      <c r="AO67" t="s">
         <v>162</v>
       </c>
       <c r="AP67" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="AR67" s="15" t="s">
+      <c r="AR67" t="s">
         <v>165</v>
       </c>
-      <c r="AS67" s="15" t="s">
+      <c r="AS67" t="s">
         <v>170</v>
       </c>
-      <c r="AT67" s="15" t="s">
+      <c r="AT67" t="s">
         <v>188</v>
       </c>
       <c r="AV67" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="AW67" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="AW67" t="s">
         <v>238</v>
       </c>
-      <c r="AX67" s="15" t="s">
+      <c r="AX67" t="s">
         <v>208</v>
       </c>
       <c r="AY67" s="15" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="AZ67" s="20" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="68" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B68" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F68" s="11">
-        <v>2009</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P68" s="11" t="s">
-        <v>248</v>
-      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
-      <c r="R68" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T68" t="s">
-        <v>23</v>
-      </c>
-      <c r="U68" t="s">
-        <v>46</v>
-      </c>
-      <c r="V68" t="s">
-        <v>59</v>
-      </c>
-      <c r="W68" t="s">
-        <v>46</v>
-      </c>
-      <c r="X68" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z68" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="AA68" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB68" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC68" s="20">
-        <v>2</v>
-      </c>
-      <c r="AD68" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG68" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH68" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN68" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO68" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP68" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="AR68" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS68" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT68" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV68" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="AW68" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX68" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY68" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="AZ68" s="20" t="s">
-        <v>473</v>
-      </c>
+      <c r="R68" s="11"/>
+      <c r="AG68" s="11"/>
     </row>
     <row r="69" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B69" s="11"/>
@@ -13498,7 +13176,6 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
-      <c r="AG69" s="11"/>
     </row>
     <row r="70" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
@@ -13518,7 +13195,6 @@
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
-      <c r="AG70" s="11"/>
     </row>
     <row r="71" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
@@ -13540,53 +13216,53 @@
       <c r="R71" s="11"/>
       <c r="AG71" s="11"/>
     </row>
-    <row r="72" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="AG72" s="11"/>
-    </row>
-    <row r="73" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="Z73" s="20"/>
-      <c r="AA73" s="20"/>
-      <c r="AB73" s="20"/>
-      <c r="AC73" s="20"/>
-      <c r="AD73" s="20"/>
-      <c r="AG73" s="16"/>
-      <c r="AP73" s="20"/>
-      <c r="AV73" s="20"/>
-      <c r="AZ73" s="20"/>
+    <row r="72" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="20"/>
+      <c r="AG72" s="16"/>
+      <c r="AP72" s="20"/>
+      <c r="AV72" s="20"/>
+      <c r="AZ72" s="20"/>
+    </row>
+    <row r="73" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="AG73" s="11"/>
     </row>
     <row r="74" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
@@ -13947,26 +13623,6 @@
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
       <c r="AG91" s="11"/>
-    </row>
-    <row r="92" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="AG92" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14006,7 +13662,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S93:S1048576 AG60:AG92 AG3:AG57</xm:sqref>
+          <xm:sqref>S92:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -14018,7 +13674,7 @@
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
-          <xm:sqref>AG58:AG59 T3:T1048576</xm:sqref>
+          <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
@@ -14102,7 +13758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -16090,9 +15746,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16210,25 +15869,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16250,9 +15899,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14EFDAE-4C76-41BB-AA3F-670724011A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF41FA-9D6D-4162-99AA-705D9C61C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="603">
   <si>
     <t>SearchID</t>
   </si>
@@ -4231,9 +4231,6 @@
     </r>
   </si>
   <si>
-    <t>Megafauna of submarine canyons</t>
-  </si>
-  <si>
     <t>Turtle excluder device</t>
   </si>
   <si>
@@ -4256,6 +4253,9 @@
 all their interactions with study area and gender (Table 3). This model indicated that the distance of foraging locations from the colony was positively related to the index of distance to other colonies of Scopoli’s Shearwaters and negatively correlated to the index of distance to fishing
 harbours. The negative effects of the quadratic effect of distance to fishing harbours indicate a non-linear relationship between the distance of
 foraging locations from the colony and distance to fishing harbours. At least for Linosa birds, the distance to fishing harbours seemed to decrease markedly only when the foraging location was more than 200 km from the colony; the effect seems negligible for shorter distances.</t>
+  </si>
+  <si>
+    <t>Lophelia pertusa _ Madrepora oculata _ Funiculina quadrangularis _ Isidella elongate</t>
   </si>
 </sst>
 </file>
@@ -4779,10 +4779,10 @@
   <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX69" sqref="AX69"/>
+      <selection pane="bottomRight" activeCell="AL71" sqref="AL71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5380,13 +5380,13 @@
         <v>159</v>
       </c>
       <c r="AP5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AR5" t="s">
         <v>164</v>
       </c>
       <c r="AV5" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AW5" t="s">
         <v>212</v>
@@ -5499,13 +5499,13 @@
         <v>159</v>
       </c>
       <c r="AP6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AR6" t="s">
         <v>164</v>
       </c>
       <c r="AV6" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AW6" t="s">
         <v>212</v>
@@ -5618,13 +5618,13 @@
         <v>159</v>
       </c>
       <c r="AP7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AR7" t="s">
         <v>164</v>
       </c>
       <c r="AV7" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AW7" t="s">
         <v>212</v>
@@ -5633,7 +5633,7 @@
         <v>209</v>
       </c>
       <c r="AY7" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AZ7" t="s">
         <v>473</v>
@@ -5737,13 +5737,13 @@
         <v>159</v>
       </c>
       <c r="AP8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AR8" t="s">
         <v>164</v>
       </c>
       <c r="AV8" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AW8" t="s">
         <v>212</v>
@@ -5752,7 +5752,7 @@
         <v>209</v>
       </c>
       <c r="AY8" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AZ8" t="s">
         <v>473</v>
@@ -7174,10 +7174,16 @@
         <v>110</v>
       </c>
       <c r="AI19" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="AJ19" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK19" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="AM19" s="21" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="AN19" s="21" t="s">
         <v>233</v>
@@ -7296,10 +7302,16 @@
         <v>110</v>
       </c>
       <c r="AI20" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="AJ20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK20" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="AM20" s="21" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="AN20" s="21" t="s">
         <v>231</v>
@@ -9268,7 +9280,7 @@
         <v>529</v>
       </c>
       <c r="AA36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AB36">
         <v>2</v>
@@ -9399,7 +9411,7 @@
         <v>529</v>
       </c>
       <c r="AA37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AB37">
         <v>2</v>
@@ -9530,7 +9542,7 @@
         <v>529</v>
       </c>
       <c r="AA38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AB38">
         <v>2</v>
@@ -9661,7 +9673,7 @@
         <v>529</v>
       </c>
       <c r="AA39" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AB39">
         <v>2</v>
@@ -12469,7 +12481,7 @@
         <v>162</v>
       </c>
       <c r="AP61" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AR61" s="18" t="s">
         <v>164</v>
@@ -12478,7 +12490,7 @@
         <v>239</v>
       </c>
       <c r="AV61" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AW61" s="18" t="s">
         <v>199</v>
@@ -15995,6 +16007,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -16108,32 +16135,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -16148,16 +16159,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF41FA-9D6D-4162-99AA-705D9C61C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC766F39-DD54-4519-BB6B-9B19EDEFD83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$BA$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$BA$74</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="613">
   <si>
     <t>SearchID</t>
   </si>
@@ -3972,9 +3972,6 @@
   </si>
   <si>
     <t>Abundance</t>
-  </si>
-  <si>
-    <t>Amount of fishing scars/ gears</t>
   </si>
   <si>
     <t>Trawl surveys</t>
@@ -4196,41 +4193,6 @@
     <t>Total capture</t>
   </si>
   <si>
-    <t>litter items</t>
-  </si>
-  <si>
-    <t>counts</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>They consisted of lost nets, lead weights and ropes, damaging structure-forming fauna and breaking cnidarian colonies.</t>
-  </si>
-  <si>
-    <r>
-      <t>We observed some large</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>areas of sediment completely impacted (alternatively smoothed and ploughed) by repeated trawling in five canyons: Pruvost, Bourcart, Sète, Montpellier and Couronne.</t>
-    </r>
-  </si>
-  <si>
     <t>Turtle excluder device</t>
   </si>
   <si>
@@ -4256,13 +4218,66 @@
   </si>
   <si>
     <t>Lophelia pertusa _ Madrepora oculata _ Funiculina quadrangularis _ Isidella elongate</t>
+  </si>
+  <si>
+    <t>Plesionika</t>
+  </si>
+  <si>
+    <t>Presence of trawling scars</t>
+  </si>
+  <si>
+    <t>Other shrimp, such as the bentho-pelagic species Plesionika spp., were recorded in the video films during the MEDSEACAN cruise. They were often located in high abundance in trawling
+scars where no other benthic species could be seen. This is explained by the fact that these opportunistic shrimp move into the trawling lane as a result of the temporary increase in food
+occurring due to the increased mortality of organisms following the passage of trawls (Dimech et al., 2012; Ramsay et al., 1998)</t>
+  </si>
+  <si>
+    <t>Observation of colonies</t>
+  </si>
+  <si>
+    <t>Trawling scars were always seen at shallower depths than those of I. elongata colonies. We never observed any overlap between the two vertical distributions. This led us to assume that
+I. elongata has been swept away by repeated trawling in the shallowest part of its natural distribution. This gorgonian species has practically disappeared from the Mediterranean Sea as it
+grows in areas targeted by trawling (Cartes et al., 2009; Maynou and Cartes, 2012)</t>
+  </si>
+  <si>
+    <t>Isidella elongate</t>
+  </si>
+  <si>
+    <t>Callogorgia verticillata</t>
+  </si>
+  <si>
+    <t>Entangled colonies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The high density of C. verticillata in the Bourcart canyon is unusual in the Mediterranean Sea and has never been reported before. Many colonies of C. verticillata were entangled in bottom
+lines and fishing nets. </t>
+  </si>
+  <si>
+    <t>Detached and broken colonies</t>
+  </si>
+  <si>
+    <t>Long lines and ropes entangling colonies were evidence of this fishing pressure</t>
+  </si>
+  <si>
+    <t>Lost nets, lead weights and ropes, damaging structure-forming fauna and breaking cnidarian colonies. However, the detached colonies may either be the result of the fishing pressure or due to their natural growth process.</t>
+  </si>
+  <si>
+    <t>Observations of lost fishing gears</t>
+  </si>
+  <si>
+    <t>Obervation of occurrence</t>
+  </si>
+  <si>
+    <t>Long lines were often entangled around rocky obstacles and under tension. They formed an artificial substrate which was preferentially colonised by sabellid and serpulid polychaetes, and occasionally by Neopycnodonte cochlear and scleractinian corals.</t>
+  </si>
+  <si>
+    <t>Sabellidae _ Serpulidae _ Neopycnodonte cochlear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4346,12 +4361,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4431,7 +4440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4490,6 +4499,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4776,13 +4786,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA93"/>
+  <dimension ref="A1:BA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL71" sqref="AL71"/>
+      <selection pane="bottomRight" activeCell="AP24" sqref="AP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5103,10 +5113,10 @@
         <v>216</v>
       </c>
       <c r="Z3" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA3" s="15" t="s">
         <v>579</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>580</v>
       </c>
       <c r="AB3" s="15">
         <v>2</v>
@@ -5142,7 +5152,7 @@
         <v>239</v>
       </c>
       <c r="AU3" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AV3" s="15" t="s">
         <v>491</v>
@@ -5154,7 +5164,7 @@
         <v>208</v>
       </c>
       <c r="AY3" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AZ3" s="15" t="s">
         <v>473</v>
@@ -5380,13 +5390,13 @@
         <v>159</v>
       </c>
       <c r="AP5" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AR5" t="s">
         <v>164</v>
       </c>
       <c r="AV5" s="15" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AW5" t="s">
         <v>212</v>
@@ -5499,13 +5509,13 @@
         <v>159</v>
       </c>
       <c r="AP6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AR6" t="s">
         <v>164</v>
       </c>
       <c r="AV6" s="15" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AW6" t="s">
         <v>212</v>
@@ -5618,13 +5628,13 @@
         <v>159</v>
       </c>
       <c r="AP7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AR7" t="s">
         <v>164</v>
       </c>
       <c r="AV7" s="15" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AW7" t="s">
         <v>212</v>
@@ -5633,7 +5643,7 @@
         <v>209</v>
       </c>
       <c r="AY7" s="24" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AZ7" t="s">
         <v>473</v>
@@ -5737,13 +5747,13 @@
         <v>159</v>
       </c>
       <c r="AP8" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AR8" t="s">
         <v>164</v>
       </c>
       <c r="AV8" s="15" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AW8" t="s">
         <v>212</v>
@@ -5752,7 +5762,7 @@
         <v>209</v>
       </c>
       <c r="AY8" s="24" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AZ8" t="s">
         <v>473</v>
@@ -5868,7 +5878,7 @@
         <v>162</v>
       </c>
       <c r="AP9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AR9" t="s">
         <v>164</v>
@@ -6001,7 +6011,7 @@
         <v>162</v>
       </c>
       <c r="AP10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AR10" t="s">
         <v>164</v>
@@ -7085,7 +7095,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="2:52" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
         <v>319</v>
       </c>
@@ -7189,7 +7199,7 @@
         <v>233</v>
       </c>
       <c r="AP19" s="21" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="AR19" s="21" t="s">
         <v>164</v>
@@ -7198,16 +7208,16 @@
         <v>239</v>
       </c>
       <c r="AV19" s="21" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="AW19" s="21" t="s">
-        <v>592</v>
+        <v>199</v>
       </c>
       <c r="AX19" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="AY19" s="23" t="s">
-        <v>594</v>
+      <c r="AY19" s="32" t="s">
+        <v>601</v>
       </c>
       <c r="AZ19" s="21" t="s">
         <v>473</v>
@@ -7311,13 +7321,13 @@
         <v>154</v>
       </c>
       <c r="AM20" s="21" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="AN20" s="21" t="s">
         <v>231</v>
       </c>
       <c r="AP20" s="21" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="AR20" s="21" t="s">
         <v>164</v>
@@ -7326,652 +7336,655 @@
         <v>239</v>
       </c>
       <c r="AV20" s="21" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="AW20" s="21" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AX20" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY20" s="23" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="AZ20" s="21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="D21" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" s="22">
         <v>2014</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="M21" s="11" t="s">
+      <c r="G21" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I21" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="O21" s="11" t="s">
+      <c r="J21" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="O21" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="Q21" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="R21" s="11" t="s">
+      <c r="Q21" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="R21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T21" t="s">
-        <v>34</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="T21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="V21" t="s">
-        <v>58</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="V21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH21" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI21" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ21" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK21" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM21" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="AN21" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP21" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AR21" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS21" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV21" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AW21" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="Z21" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB21">
+      <c r="AX21" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY21" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="AZ21" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2014</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB22" s="21">
         <v>2</v>
       </c>
-      <c r="AC21">
+      <c r="AC22" s="21">
         <v>2</v>
       </c>
-      <c r="AD21">
+      <c r="AD22" s="21">
         <v>3</v>
       </c>
-      <c r="AG21" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR21" t="s">
+      <c r="AG22" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH22" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI22" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ22" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK22" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM22" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="AN22" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP22" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AR22" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AS22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AV21" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX21" t="s">
+      <c r="AV22" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AW22" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX22" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY22" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="AZ22" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2014</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X23" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA23" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH23" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI23" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ23" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM23" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN23" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP23" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AR23" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS23" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV23" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="AW23" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX23" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="AY21" t="s">
-        <v>508</v>
-      </c>
-      <c r="AZ21" t="s">
+      <c r="AY23" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="AZ23" s="21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="22" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B22" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="11" t="s">
+    <row r="24" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F22" s="11">
-        <v>2015</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="M22" s="11" t="s">
+      <c r="D24" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="22">
+        <v>2014</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="O22" s="11" t="s">
+      <c r="J24" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="O24" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P24" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="Q22" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="R22" s="11" t="s">
+      <c r="Q24" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="R24" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T22" t="s">
-        <v>34</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="T24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="V22" t="s">
-        <v>58</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="V24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X24" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA24" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI24" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ24" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK24" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="Z22" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB22">
+      <c r="AM24" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="AN24" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP24" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AR24" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS24" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV24" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW24" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX24" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY24" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="AZ24" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2014</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X25" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB25" s="21">
         <v>2</v>
       </c>
-      <c r="AC22">
+      <c r="AC25" s="21">
         <v>2</v>
       </c>
-      <c r="AD22">
+      <c r="AD25" s="21">
         <v>3</v>
       </c>
-      <c r="AG22" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR22" t="s">
+      <c r="AG25" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH25" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ25" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK25" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN25" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP25" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AR25" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AS25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AV22" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX22" t="s">
+      <c r="AV25" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW25" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX25" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="AY22" t="s">
-        <v>508</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="23" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B23" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" s="11">
-        <v>2016</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T23" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" t="s">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s">
-        <v>58</v>
-      </c>
-      <c r="W23" t="s">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB23">
-        <v>2</v>
-      </c>
-      <c r="AC23">
-        <v>2</v>
-      </c>
-      <c r="AD23">
-        <v>3</v>
-      </c>
-      <c r="AG23" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV23" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>508</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="24" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B24" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F24" s="11">
-        <v>2017</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" t="s">
-        <v>34</v>
-      </c>
-      <c r="U24" t="s">
-        <v>46</v>
-      </c>
-      <c r="V24" t="s">
-        <v>58</v>
-      </c>
-      <c r="W24" t="s">
-        <v>46</v>
-      </c>
-      <c r="X24" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB24">
-        <v>2</v>
-      </c>
-      <c r="AC24">
-        <v>2</v>
-      </c>
-      <c r="AD24">
-        <v>3</v>
-      </c>
-      <c r="AG24" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV24" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>508</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F25" s="11">
-        <v>2018</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" t="s">
-        <v>58</v>
-      </c>
-      <c r="W25" t="s">
-        <v>46</v>
-      </c>
-      <c r="X25" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB25">
-        <v>2</v>
-      </c>
-      <c r="AC25">
-        <v>2</v>
-      </c>
-      <c r="AD25">
-        <v>3</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV25" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>508</v>
-      </c>
-      <c r="AZ25" t="s">
+      <c r="AY25" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="AZ25" s="21" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7989,7 +8002,7 @@
         <v>327</v>
       </c>
       <c r="F26" s="11">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>328</v>
@@ -8067,10 +8080,7 @@
         <v>112</v>
       </c>
       <c r="AI26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="AN26" t="s">
         <v>232</v>
@@ -8085,10 +8095,7 @@
         <v>164</v>
       </c>
       <c r="AS26" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="AV26" s="15" t="s">
         <v>507</v>
@@ -8120,7 +8127,7 @@
         <v>327</v>
       </c>
       <c r="F27" s="11">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>328</v>
@@ -8198,7 +8205,7 @@
         <v>112</v>
       </c>
       <c r="AI27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AN27" t="s">
         <v>232</v>
@@ -8213,10 +8220,7 @@
         <v>164</v>
       </c>
       <c r="AS27" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AV27" s="15" t="s">
         <v>507</v>
@@ -8248,7 +8252,7 @@
         <v>327</v>
       </c>
       <c r="F28" s="11">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>328</v>
@@ -8326,7 +8330,10 @@
         <v>112</v>
       </c>
       <c r="AI28" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>132</v>
       </c>
       <c r="AN28" t="s">
         <v>232</v>
@@ -8341,10 +8348,7 @@
         <v>164</v>
       </c>
       <c r="AS28" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AV28" s="15" t="s">
         <v>507</v>
@@ -8362,7 +8366,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="2:52" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B29" s="11" t="s">
         <v>325</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>327</v>
       </c>
       <c r="F29" s="11">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>328</v>
@@ -8454,10 +8458,7 @@
         <v>112</v>
       </c>
       <c r="AI29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="AN29" t="s">
         <v>232</v>
@@ -8472,10 +8473,10 @@
         <v>164</v>
       </c>
       <c r="AS29" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AT29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AV29" s="15" t="s">
         <v>507</v>
@@ -8493,305 +8494,304 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="16" t="s">
+    <row r="30" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B30" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F30" s="16">
-        <v>2013</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I30" s="16" t="s">
+      <c r="D30" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2018</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="J30" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="M30" s="16" t="s">
+      <c r="N30" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" t="s">
+        <v>46</v>
+      </c>
+      <c r="V30" t="s">
+        <v>58</v>
+      </c>
+      <c r="W30" t="s">
+        <v>46</v>
+      </c>
+      <c r="X30" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV30" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>508</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B31" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2019</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N30" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O30" s="16" t="s">
+      <c r="N31" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="O31" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="P31" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Q30" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R30" s="16" t="s">
+      <c r="Q31" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V30" s="15" t="s">
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" t="s">
         <v>58</v>
       </c>
-      <c r="W30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y30" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA30" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="AB30" s="15">
+      <c r="W31" t="s">
+        <v>46</v>
+      </c>
+      <c r="X31" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB31">
         <v>2</v>
       </c>
-      <c r="AC30" s="15">
+      <c r="AC31">
         <v>2</v>
       </c>
-      <c r="AD30" s="15">
+      <c r="AD31">
         <v>3</v>
       </c>
-      <c r="AG30" s="16" t="s">
+      <c r="AG31" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="AH30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI30" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ30" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM30" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="AN30" s="15" t="s">
+      <c r="AH31" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN31" t="s">
         <v>232</v>
       </c>
-      <c r="AO30" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP30" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="AR30" s="15" t="s">
+      <c r="AO31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR31" t="s">
         <v>164</v>
       </c>
-      <c r="AS30" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU30" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="AV30" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="AW30" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX30" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY30" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="AZ30" s="15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="31" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="F31" s="16">
-        <v>2013</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q31" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="W31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z31" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA31" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="AB31" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="15">
-        <v>2</v>
-      </c>
-      <c r="AD31" s="15">
-        <v>3</v>
-      </c>
-      <c r="AG31" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH31" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM31" s="17"/>
-      <c r="AN31" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO31" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP31" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="AR31" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS31" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU31" s="15" t="s">
-        <v>516</v>
+      <c r="AS31" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>188</v>
       </c>
       <c r="AV31" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="AW31" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="AX31" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY31" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="AZ31" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>508</v>
+      </c>
+      <c r="AZ31" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F32" s="11">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="O32" s="11" t="s">
         <v>244</v>
@@ -8800,19 +8800,19 @@
         <v>245</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="R32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="15" t="s">
-        <v>29</v>
+      <c r="T32" t="s">
+        <v>34</v>
       </c>
       <c r="U32" t="s">
         <v>46</v>
       </c>
       <c r="V32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W32" t="s">
         <v>46</v>
@@ -8821,13 +8821,13 @@
         <v>214</v>
       </c>
       <c r="Y32" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="Z32" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AA32" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AB32">
         <v>2</v>
@@ -8838,92 +8838,88 @@
       <c r="AD32">
         <v>3</v>
       </c>
-      <c r="AG32" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH32" s="15" t="s">
-        <v>111</v>
+      <c r="AG32" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>112</v>
       </c>
       <c r="AI32" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM32" s="14"/>
+        <v>116</v>
+      </c>
       <c r="AN32" t="s">
         <v>232</v>
       </c>
       <c r="AO32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP32" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="AR32" t="s">
         <v>164</v>
       </c>
       <c r="AS32" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AT32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>517</v>
+        <v>192</v>
       </c>
       <c r="AV32" s="15" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="AW32" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="AX32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AY32" t="s">
-        <v>520</v>
-      </c>
-      <c r="AZ32" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="AZ32" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="33" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B33" s="11" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F33" s="11">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="M33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="O33" s="11" t="s">
         <v>244</v>
@@ -8932,19 +8928,19 @@
         <v>245</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="R33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T33" s="15" t="s">
-        <v>29</v>
+      <c r="T33" t="s">
+        <v>34</v>
       </c>
       <c r="U33" t="s">
         <v>46</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W33" t="s">
         <v>46</v>
@@ -8953,13 +8949,13 @@
         <v>214</v>
       </c>
       <c r="Y33" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="Z33" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AA33" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AB33">
         <v>2</v>
@@ -8970,89 +8966,88 @@
       <c r="AD33">
         <v>3</v>
       </c>
-      <c r="AG33" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH33" s="15" t="s">
-        <v>111</v>
+      <c r="AG33" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>112</v>
       </c>
       <c r="AI33" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM33" s="14"/>
+        <v>115</v>
+      </c>
       <c r="AN33" t="s">
         <v>232</v>
       </c>
       <c r="AO33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP33" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="AR33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS33" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>515</v>
+        <v>197</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>192</v>
       </c>
       <c r="AV33" s="15" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="AW33" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="AX33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AY33" t="s">
-        <v>521</v>
-      </c>
-      <c r="AZ33" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="AZ33" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:52" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="F34" s="11">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="O34" s="11" t="s">
         <v>244</v>
@@ -9067,28 +9062,28 @@
         <v>21</v>
       </c>
       <c r="T34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V34" t="s">
         <v>58</v>
       </c>
       <c r="W34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X34" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="Y34" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="Z34" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="AA34" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="AB34">
         <v>2</v>
@@ -9100,25 +9095,22 @@
         <v>3</v>
       </c>
       <c r="AG34" s="11" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AH34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AI34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AJ34" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM34" s="14" t="s">
-        <v>524</v>
+        <v>132</v>
       </c>
       <c r="AN34" t="s">
         <v>232</v>
       </c>
       <c r="AO34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP34" t="s">
         <v>490</v>
@@ -9127,63 +9119,66 @@
         <v>164</v>
       </c>
       <c r="AS34" t="s">
-        <v>239</v>
+        <v>197</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>192</v>
       </c>
       <c r="AV34" s="15" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="AW34" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AX34" t="s">
         <v>207</v>
       </c>
       <c r="AY34" t="s">
-        <v>526</v>
-      </c>
-      <c r="AZ34" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="AZ34" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="35" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="F35" s="16">
         <v>2013</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="H35" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>362</v>
-      </c>
       <c r="L35" s="16" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>243</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>244</v>
@@ -9192,190 +9187,258 @@
         <v>245</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S35" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG35" s="16"/>
-      <c r="AM35" s="17"/>
+      <c r="T35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA35" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB35" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI35" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ35" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM35" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="AN35" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP35" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="AR35" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS35" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU35" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="AV35" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="AW35" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX35" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY35" s="15" t="s">
+        <v>512</v>
+      </c>
       <c r="AZ35" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B36" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C36" s="11" t="s">
+    <row r="36" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="D36" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="16">
         <v>2013</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="M36" s="11" t="s">
+      <c r="G36" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I36" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="N36" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="O36" s="11" t="s">
+      <c r="J36" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="O36" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="Q36" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="R36" s="11" t="s">
+      <c r="Q36" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="R36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T36" t="s">
-        <v>30</v>
-      </c>
-      <c r="U36" t="s">
+      <c r="T36" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="V36" t="s">
-        <v>58</v>
-      </c>
-      <c r="W36" t="s">
+      <c r="V36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>597</v>
-      </c>
-      <c r="AB36">
+      <c r="X36" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB36" s="15">
         <v>2</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" s="15">
         <v>2</v>
       </c>
-      <c r="AD36">
+      <c r="AD36" s="15">
         <v>3</v>
       </c>
-      <c r="AG36" s="11" t="s">
+      <c r="AG36" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="AH36" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN36" t="s">
+      <c r="AH36" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI36" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AO36" t="s">
+      <c r="AO36" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="AP36" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR36" t="s">
+      <c r="AP36" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="AR36" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AS36" t="s">
+      <c r="AS36" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AU36" t="s">
-        <v>530</v>
+      <c r="AU36" s="15" t="s">
+        <v>516</v>
       </c>
       <c r="AV36" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX36" t="s">
+        <v>518</v>
+      </c>
+      <c r="AW36" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX36" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="AY36" t="s">
-        <v>586</v>
+      <c r="AY36" s="15" t="s">
+        <v>519</v>
       </c>
       <c r="AZ36" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="2:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B37" s="11" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="F37" s="11">
         <v>2013</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="M37" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>244</v>
@@ -9384,34 +9447,34 @@
         <v>245</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T37" t="s">
-        <v>30</v>
+      <c r="T37" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="U37" t="s">
         <v>46</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W37" t="s">
         <v>46</v>
       </c>
       <c r="X37" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="Y37" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z37" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="AA37" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
       <c r="AB37">
         <v>2</v>
@@ -9422,47 +9485,48 @@
       <c r="AD37">
         <v>3</v>
       </c>
-      <c r="AG37" s="11" t="s">
+      <c r="AG37" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="AH37" t="s">
-        <v>110</v>
+      <c r="AH37" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="AI37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>138</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AM37" s="14"/>
       <c r="AN37" t="s">
         <v>232</v>
       </c>
       <c r="AO37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP37" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="AR37" t="s">
         <v>164</v>
       </c>
       <c r="AS37" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>181</v>
       </c>
       <c r="AU37" t="s">
-        <v>530</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>491</v>
+        <v>517</v>
+      </c>
+      <c r="AV37" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="AW37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AX37" t="s">
         <v>209</v>
       </c>
-      <c r="AY37" s="4" t="s">
-        <v>535</v>
+      <c r="AY37" t="s">
+        <v>520</v>
       </c>
       <c r="AZ37" s="15" t="s">
         <v>473</v>
@@ -9470,43 +9534,43 @@
     </row>
     <row r="38" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B38" s="11" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="F38" s="11">
         <v>2013</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="M38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>244</v>
@@ -9515,34 +9579,34 @@
         <v>245</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="R38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T38" t="s">
-        <v>30</v>
+      <c r="T38" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="U38" t="s">
         <v>46</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W38" t="s">
         <v>46</v>
       </c>
       <c r="X38" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="Y38" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z38" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="AA38" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
       <c r="AB38">
         <v>2</v>
@@ -9553,18 +9617,16 @@
       <c r="AD38">
         <v>3</v>
       </c>
-      <c r="AG38" s="11" t="s">
+      <c r="AG38" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="AH38" t="s">
-        <v>110</v>
+      <c r="AH38" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="AI38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>138</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AM38" s="14"/>
       <c r="AN38" t="s">
         <v>232</v>
       </c>
@@ -9572,28 +9634,28 @@
         <v>160</v>
       </c>
       <c r="AP38" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="AR38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AS38" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="AU38" t="s">
-        <v>530</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>531</v>
+        <v>515</v>
+      </c>
+      <c r="AV38" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="AW38" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AX38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY38" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AZ38" s="15" t="s">
         <v>473</v>
@@ -9601,43 +9663,43 @@
     </row>
     <row r="39" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B39" s="11" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F39" s="11">
         <v>2013</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>368</v>
+        <v>258</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="M39" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>244</v>
@@ -9646,34 +9708,34 @@
         <v>245</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="R39" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s">
         <v>58</v>
       </c>
       <c r="W39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y39" t="s">
         <v>215</v>
       </c>
       <c r="Z39" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AA39" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="AB39">
         <v>2</v>
@@ -9685,7 +9747,7 @@
         <v>3</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH39" t="s">
         <v>110</v>
@@ -9696,11 +9758,14 @@
       <c r="AJ39" t="s">
         <v>138</v>
       </c>
+      <c r="AM39" s="14" t="s">
+        <v>524</v>
+      </c>
       <c r="AN39" t="s">
         <v>232</v>
       </c>
       <c r="AO39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP39" t="s">
         <v>490</v>
@@ -9711,323 +9776,253 @@
       <c r="AS39" t="s">
         <v>239</v>
       </c>
-      <c r="AU39" t="s">
-        <v>530</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>531</v>
+      <c r="AV39" s="15" t="s">
+        <v>525</v>
       </c>
       <c r="AW39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AY39" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="AZ39" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B40" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C40" s="11" t="s">
+    <row r="40" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="F40" s="11">
+      <c r="D40" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="F40" s="16">
         <v>2013</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="M40" s="11" t="s">
+      <c r="G40" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="M40" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="N40" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="O40" s="11" t="s">
+      <c r="N40" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="O40" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="P40" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="Q40" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="R40" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T40" t="s">
-        <v>30</v>
-      </c>
-      <c r="U40" t="s">
-        <v>46</v>
-      </c>
-      <c r="V40" t="s">
-        <v>57</v>
-      </c>
-      <c r="W40" t="s">
-        <v>46</v>
-      </c>
-      <c r="X40" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>538</v>
-      </c>
-      <c r="AB40">
-        <v>2</v>
-      </c>
-      <c r="AC40">
-        <v>2</v>
-      </c>
-      <c r="AD40">
-        <v>3</v>
-      </c>
-      <c r="AG40" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM40" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU40" t="s">
-        <v>530</v>
-      </c>
-      <c r="AV40" t="s">
-        <v>539</v>
-      </c>
-      <c r="AW40" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX40" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY40" t="s">
-        <v>540</v>
-      </c>
+      <c r="S40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG40" s="16"/>
+      <c r="AM40" s="17"/>
       <c r="AZ40" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C41" s="16" t="s">
+    <row r="41" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B41" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="F41" s="16">
+      <c r="D41" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F41" s="11">
         <v>2013</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="M41" s="16" t="s">
+      <c r="G41" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="M41" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N41" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="O41" s="16" t="s">
+      <c r="N41" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="O41" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="P41" s="16" t="s">
+      <c r="P41" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Q41" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="R41" s="16" t="s">
+      <c r="Q41" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="R41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T41" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="U41" s="15" t="s">
+      <c r="T41" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" t="s">
         <v>46</v>
       </c>
-      <c r="V41" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W41" s="15" t="s">
+      <c r="V41" t="s">
+        <v>58</v>
+      </c>
+      <c r="W41" t="s">
         <v>46</v>
       </c>
-      <c r="X41" s="15" t="s">
+      <c r="X41" t="s">
         <v>55</v>
       </c>
-      <c r="Y41" s="15" t="s">
+      <c r="Y41" t="s">
         <v>215</v>
       </c>
-      <c r="Z41" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA41" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="AB41" s="15">
+      <c r="Z41" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB41">
         <v>2</v>
       </c>
-      <c r="AC41" s="15">
+      <c r="AC41">
         <v>2</v>
       </c>
-      <c r="AD41" s="15">
+      <c r="AD41">
         <v>3</v>
       </c>
-      <c r="AG41" s="16" t="s">
+      <c r="AG41" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AH41" s="15" t="s">
+      <c r="AH41" t="s">
         <v>110</v>
       </c>
-      <c r="AI41" s="15" t="s">
+      <c r="AI41" t="s">
         <v>117</v>
       </c>
-      <c r="AN41" s="15" t="s">
+      <c r="AJ41" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN41" t="s">
         <v>232</v>
       </c>
-      <c r="AO41" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP41" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="AR41" s="15" t="s">
+      <c r="AO41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR41" t="s">
         <v>164</v>
       </c>
-      <c r="AS41" s="15" t="s">
+      <c r="AS41" t="s">
         <v>239</v>
       </c>
+      <c r="AU41" t="s">
+        <v>529</v>
+      </c>
       <c r="AV41" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="AW41" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="AW41" t="s">
         <v>199</v>
       </c>
-      <c r="AX41" s="15" t="s">
+      <c r="AX41" t="s">
         <v>208</v>
       </c>
-      <c r="AY41" s="15" t="s">
-        <v>548</v>
+      <c r="AY41" t="s">
+        <v>585</v>
       </c>
       <c r="AZ41" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="42" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="11" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F42" s="11">
         <v>2013</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>244</v>
@@ -10036,19 +10031,19 @@
         <v>245</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U42" t="s">
         <v>46</v>
       </c>
       <c r="V42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W42" t="s">
         <v>46</v>
@@ -10060,10 +10055,10 @@
         <v>215</v>
       </c>
       <c r="Z42" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="AA42" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="AB42">
         <v>2</v>
@@ -10074,14 +10069,17 @@
       <c r="AD42">
         <v>3</v>
       </c>
-      <c r="AG42" s="16" t="s">
+      <c r="AG42" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AH42" s="15" t="s">
+      <c r="AH42" t="s">
         <v>110</v>
       </c>
       <c r="AI42" t="s">
-        <v>220</v>
+        <v>117</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>138</v>
       </c>
       <c r="AN42" t="s">
         <v>232</v>
@@ -10090,7 +10088,7 @@
         <v>161</v>
       </c>
       <c r="AP42" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="AR42" t="s">
         <v>164</v>
@@ -10098,17 +10096,20 @@
       <c r="AS42" t="s">
         <v>239</v>
       </c>
+      <c r="AU42" t="s">
+        <v>529</v>
+      </c>
       <c r="AV42" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="AW42" t="s">
         <v>199</v>
       </c>
       <c r="AX42" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY42" t="s">
-        <v>548</v>
+        <v>209</v>
+      </c>
+      <c r="AY42" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="AZ42" s="15" t="s">
         <v>473</v>
@@ -10116,43 +10117,43 @@
     </row>
     <row r="43" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B43" s="11" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F43" s="11">
         <v>2013</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="M43" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>244</v>
@@ -10161,19 +10162,19 @@
         <v>245</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T43" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U43" t="s">
         <v>46</v>
       </c>
       <c r="V43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W43" t="s">
         <v>46</v>
@@ -10185,10 +10186,10 @@
         <v>215</v>
       </c>
       <c r="Z43" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="AA43" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="AB43">
         <v>2</v>
@@ -10199,26 +10200,26 @@
       <c r="AD43">
         <v>3</v>
       </c>
-      <c r="AG43" s="16" t="s">
+      <c r="AG43" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AH43" s="15" t="s">
+      <c r="AH43" t="s">
         <v>110</v>
       </c>
       <c r="AI43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AJ43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AN43" t="s">
         <v>232</v>
       </c>
       <c r="AO43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP43" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="AR43" t="s">
         <v>164</v>
@@ -10226,17 +10227,20 @@
       <c r="AS43" t="s">
         <v>239</v>
       </c>
+      <c r="AU43" t="s">
+        <v>529</v>
+      </c>
       <c r="AV43" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AW43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AX43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AY43" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="AZ43" s="15" t="s">
         <v>473</v>
@@ -10244,43 +10248,43 @@
     </row>
     <row r="44" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F44" s="11">
         <v>2013</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="M44" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>244</v>
@@ -10289,19 +10293,19 @@
         <v>245</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="R44" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T44" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U44" t="s">
         <v>46</v>
       </c>
       <c r="V44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W44" t="s">
         <v>46</v>
@@ -10313,10 +10317,10 @@
         <v>215</v>
       </c>
       <c r="Z44" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="AA44" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="AB44">
         <v>2</v>
@@ -10327,14 +10331,17 @@
       <c r="AD44">
         <v>3</v>
       </c>
-      <c r="AG44" s="16" t="s">
+      <c r="AG44" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AH44" s="15" t="s">
+      <c r="AH44" t="s">
         <v>110</v>
       </c>
       <c r="AI44" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>138</v>
       </c>
       <c r="AN44" t="s">
         <v>232</v>
@@ -10343,7 +10350,7 @@
         <v>161</v>
       </c>
       <c r="AP44" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="AR44" t="s">
         <v>164</v>
@@ -10351,17 +10358,20 @@
       <c r="AS44" t="s">
         <v>239</v>
       </c>
+      <c r="AU44" t="s">
+        <v>529</v>
+      </c>
       <c r="AV44" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AW44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AX44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY44" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="AZ44" s="15" t="s">
         <v>473</v>
@@ -10369,16 +10379,16 @@
     </row>
     <row r="45" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F45" s="11">
         <v>2013</v>
@@ -10393,19 +10403,19 @@
         <v>266</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M45" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>244</v>
@@ -10420,7 +10430,7 @@
         <v>21</v>
       </c>
       <c r="T45" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U45" t="s">
         <v>46</v>
@@ -10432,16 +10442,16 @@
         <v>46</v>
       </c>
       <c r="X45" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="Y45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z45" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AA45" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AB45">
         <v>2</v>
@@ -10452,132 +10462,138 @@
       <c r="AD45">
         <v>3</v>
       </c>
-      <c r="AG45" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH45" s="15" t="s">
+      <c r="AG45" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH45" t="s">
         <v>110</v>
       </c>
       <c r="AI45" t="s">
         <v>117</v>
       </c>
+      <c r="AJ45" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM45" s="14" t="s">
+        <v>540</v>
+      </c>
       <c r="AN45" t="s">
         <v>232</v>
       </c>
       <c r="AO45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP45" t="s">
-        <v>588</v>
+        <v>490</v>
       </c>
       <c r="AR45" t="s">
         <v>164</v>
       </c>
       <c r="AS45" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AU45" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="AV45" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="AW45" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AX45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY45" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="AZ45" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B46" s="11" t="s">
+    <row r="46" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="16">
         <v>2013</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="O46" s="11" t="s">
+      <c r="O46" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="P46" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="Q46" s="11" t="s">
+      <c r="Q46" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="R46" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T46" t="s">
+      <c r="T46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U46" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="V46" t="s">
+      <c r="V46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W46" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X46" t="s">
+      <c r="X46" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Y46" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Z46" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA46" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="AA46" t="s">
-        <v>544</v>
-      </c>
-      <c r="AB46">
+      <c r="AB46" s="15">
         <v>2</v>
       </c>
-      <c r="AC46">
+      <c r="AC46" s="15">
         <v>2</v>
       </c>
-      <c r="AD46">
+      <c r="AD46" s="15">
         <v>3</v>
       </c>
       <c r="AG46" s="16" t="s">
@@ -10586,38 +10602,35 @@
       <c r="AH46" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI46" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN46" t="s">
+      <c r="AI46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN46" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AO46" t="s">
+      <c r="AO46" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="AP46" t="s">
-        <v>588</v>
-      </c>
-      <c r="AR46" t="s">
+      <c r="AP46" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="AR46" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AS46" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU46" t="s">
+      <c r="AS46" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV46" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="AV46" t="s">
-        <v>546</v>
-      </c>
-      <c r="AW46" t="s">
+      <c r="AW46" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="AX46" t="s">
+      <c r="AX46" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="AY46" t="s">
-        <v>548</v>
+      <c r="AY46" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="AZ46" s="15" t="s">
         <v>473</v>
@@ -10694,10 +10707,10 @@
         <v>215</v>
       </c>
       <c r="Z47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA47" t="s">
         <v>543</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>544</v>
       </c>
       <c r="AB47">
         <v>2</v>
@@ -10715,10 +10728,7 @@
         <v>110</v>
       </c>
       <c r="AI47" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AN47" t="s">
         <v>232</v>
@@ -10727,28 +10737,25 @@
         <v>161</v>
       </c>
       <c r="AP47" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AR47" t="s">
         <v>164</v>
       </c>
       <c r="AS47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU47" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV47" t="s">
         <v>545</v>
-      </c>
-      <c r="AV47" t="s">
-        <v>546</v>
       </c>
       <c r="AW47" t="s">
         <v>199</v>
       </c>
       <c r="AX47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY47" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AZ47" s="15" t="s">
         <v>473</v>
@@ -10825,10 +10832,10 @@
         <v>215</v>
       </c>
       <c r="Z48" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA48" t="s">
         <v>543</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>544</v>
       </c>
       <c r="AB48">
         <v>2</v>
@@ -10846,7 +10853,10 @@
         <v>110</v>
       </c>
       <c r="AI48" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>140</v>
       </c>
       <c r="AN48" t="s">
         <v>232</v>
@@ -10855,34 +10865,31 @@
         <v>161</v>
       </c>
       <c r="AP48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AR48" t="s">
         <v>164</v>
       </c>
       <c r="AS48" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU48" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV48" t="s">
         <v>545</v>
-      </c>
-      <c r="AV48" t="s">
-        <v>546</v>
       </c>
       <c r="AW48" t="s">
         <v>199</v>
       </c>
       <c r="AX48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY48" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AZ48" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B49" s="11" t="s">
         <v>380</v>
       </c>
@@ -10953,10 +10960,10 @@
         <v>215</v>
       </c>
       <c r="Z49" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA49" t="s">
         <v>543</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>544</v>
       </c>
       <c r="AB49">
         <v>2</v>
@@ -10974,7 +10981,7 @@
         <v>110</v>
       </c>
       <c r="AI49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN49" t="s">
         <v>232</v>
@@ -10983,19 +10990,16 @@
         <v>161</v>
       </c>
       <c r="AP49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AR49" t="s">
         <v>164</v>
       </c>
       <c r="AS49" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT49" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AV49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AW49" t="s">
         <v>199</v>
@@ -11004,13 +11008,13 @@
         <v>208</v>
       </c>
       <c r="AY49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AZ49" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B50" s="11" t="s">
         <v>380</v>
       </c>
@@ -11081,10 +11085,10 @@
         <v>215</v>
       </c>
       <c r="Z50" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA50" t="s">
         <v>543</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>544</v>
       </c>
       <c r="AB50">
         <v>2</v>
@@ -11102,7 +11106,7 @@
         <v>110</v>
       </c>
       <c r="AI50" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AN50" t="s">
         <v>232</v>
@@ -11111,19 +11115,19 @@
         <v>161</v>
       </c>
       <c r="AP50" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AR50" t="s">
         <v>164</v>
       </c>
       <c r="AS50" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>544</v>
       </c>
       <c r="AV50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AW50" t="s">
         <v>199</v>
@@ -11132,13 +11136,13 @@
         <v>208</v>
       </c>
       <c r="AY50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AZ50" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B51" s="11" t="s">
         <v>380</v>
       </c>
@@ -11209,10 +11213,10 @@
         <v>215</v>
       </c>
       <c r="Z51" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA51" t="s">
         <v>543</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>544</v>
       </c>
       <c r="AB51">
         <v>2</v>
@@ -11230,10 +11234,7 @@
         <v>110</v>
       </c>
       <c r="AI51" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AN51" t="s">
         <v>232</v>
@@ -11242,34 +11243,34 @@
         <v>161</v>
       </c>
       <c r="AP51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AR51" t="s">
         <v>164</v>
       </c>
       <c r="AS51" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT51" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>544</v>
       </c>
       <c r="AV51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AW51" t="s">
         <v>199</v>
       </c>
       <c r="AX51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY51" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AZ51" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B52" s="11" t="s">
         <v>380</v>
       </c>
@@ -11340,10 +11341,10 @@
         <v>215</v>
       </c>
       <c r="Z52" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA52" t="s">
         <v>543</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>544</v>
       </c>
       <c r="AB52">
         <v>2</v>
@@ -11361,7 +11362,10 @@
         <v>110</v>
       </c>
       <c r="AI52" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>140</v>
       </c>
       <c r="AN52" t="s">
         <v>232</v>
@@ -11370,25 +11374,25 @@
         <v>161</v>
       </c>
       <c r="AP52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AR52" t="s">
         <v>164</v>
       </c>
       <c r="AS52" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT52" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>544</v>
       </c>
       <c r="AV52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AW52" t="s">
         <v>199</v>
       </c>
       <c r="AX52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY52" t="s">
         <v>548</v>
@@ -11397,45 +11401,45 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B53" s="11" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F53" s="11">
         <v>2013</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M53" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>244</v>
@@ -11444,34 +11448,34 @@
         <v>245</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="R53" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T53" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="U53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X53" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="Y53" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z53" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="AA53" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="AB53">
         <v>2</v>
@@ -11482,91 +11486,88 @@
       <c r="AD53">
         <v>3</v>
       </c>
-      <c r="AG53" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>111</v>
+      <c r="AG53" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH53" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="AI53" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM53" s="14" t="s">
-        <v>555</v>
+        <v>118</v>
       </c>
       <c r="AN53" t="s">
         <v>232</v>
       </c>
       <c r="AO53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP53" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="AR53" t="s">
         <v>164</v>
       </c>
       <c r="AS53" t="s">
-        <v>239</v>
+        <v>170</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>544</v>
       </c>
       <c r="AV53" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="AW53" t="s">
         <v>199</v>
       </c>
       <c r="AX53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AY53" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AZ53" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B54" s="11" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F54" s="11">
         <v>2013</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M54" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>244</v>
@@ -11575,34 +11576,34 @@
         <v>245</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="R54" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T54" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="U54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y54" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z54" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="AA54" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="AB54">
         <v>2</v>
@@ -11613,449 +11614,499 @@
       <c r="AD54">
         <v>3</v>
       </c>
-      <c r="AG54" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>111</v>
+      <c r="AG54" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH54" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="AI54" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM54" s="14" t="s">
-        <v>555</v>
+        <v>117</v>
       </c>
       <c r="AN54" t="s">
         <v>232</v>
       </c>
       <c r="AO54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP54" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="AR54" t="s">
         <v>164</v>
       </c>
       <c r="AS54" t="s">
-        <v>239</v>
+        <v>197</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>192</v>
       </c>
       <c r="AV54" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="AW54" t="s">
         <v>199</v>
       </c>
       <c r="AX54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AY54" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AZ54" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C55" s="16" t="s">
+    <row r="55" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B55" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="F55" s="16">
-        <v>2012</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="M55" s="16" t="s">
+      <c r="D55" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" s="11">
+        <v>2013</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N55" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="O55" s="16" t="s">
+      <c r="N55" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="P55" s="16" t="s">
+      <c r="P55" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Q55" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R55" s="16" t="s">
+      <c r="Q55" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R55" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T55" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="15" t="s">
+      <c r="T55" t="s">
+        <v>26</v>
+      </c>
+      <c r="U55" t="s">
         <v>46</v>
       </c>
-      <c r="V55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W55" s="15" t="s">
+      <c r="V55" t="s">
+        <v>57</v>
+      </c>
+      <c r="W55" t="s">
         <v>46</v>
       </c>
-      <c r="X55" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y55" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z55" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA55" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="AB55" s="15">
+      <c r="X55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB55">
         <v>2</v>
       </c>
-      <c r="AC55" s="15">
+      <c r="AC55">
         <v>2</v>
       </c>
-      <c r="AD55" s="15">
+      <c r="AD55">
         <v>3</v>
       </c>
-      <c r="AF55" s="15" t="s">
-        <v>503</v>
-      </c>
       <c r="AG55" s="16" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AH55" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI55" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ55" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM55" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="AN55" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN55" t="s">
         <v>232</v>
       </c>
-      <c r="AO55" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP55" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR55" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS55" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT55" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV55" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="AW55" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX55" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY55" s="15" t="s">
+      <c r="AO55" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP55" t="s">
         <v>587</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>545</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>547</v>
       </c>
       <c r="AZ55" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B56" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C56" s="16" t="s">
+    <row r="56" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B56" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="F56" s="16">
-        <v>2012</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="M56" s="16" t="s">
+      <c r="D56" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2013</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="M56" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N56" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="O56" s="16" t="s">
+      <c r="N56" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O56" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="P56" s="16" t="s">
+      <c r="P56" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Q56" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R56" s="16" t="s">
+      <c r="Q56" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R56" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T56" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U56" s="15" t="s">
+      <c r="T56" t="s">
+        <v>26</v>
+      </c>
+      <c r="U56" t="s">
         <v>46</v>
       </c>
-      <c r="V56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W56" s="18" t="s">
+      <c r="V56" t="s">
+        <v>57</v>
+      </c>
+      <c r="W56" t="s">
         <v>46</v>
       </c>
-      <c r="X56" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y56" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z56" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA56" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="AB56" s="15">
+      <c r="X56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB56">
         <v>2</v>
       </c>
-      <c r="AC56" s="15">
+      <c r="AC56">
         <v>2</v>
       </c>
-      <c r="AD56" s="15">
+      <c r="AD56">
         <v>3</v>
       </c>
-      <c r="AE56" s="15"/>
-      <c r="AF56" s="15" t="s">
-        <v>503</v>
-      </c>
       <c r="AG56" s="16" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AH56" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI56" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ56" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK56" s="15"/>
-      <c r="AL56" s="15"/>
-      <c r="AM56" s="14" t="s">
-        <v>534</v>
+        <v>110</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>140</v>
       </c>
       <c r="AN56" t="s">
         <v>232</v>
       </c>
       <c r="AO56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AP56" t="s">
-        <v>490</v>
+        <v>587</v>
       </c>
       <c r="AR56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS56" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AT56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV56" s="15" t="s">
-        <v>589</v>
+        <v>192</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>545</v>
       </c>
       <c r="AW56" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AX56" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY56" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>548</v>
+      </c>
+      <c r="AZ56" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B57" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F57" s="11">
+        <v>2013</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T57" t="s">
+        <v>26</v>
+      </c>
+      <c r="U57" t="s">
+        <v>46</v>
+      </c>
+      <c r="V57" t="s">
+        <v>57</v>
+      </c>
+      <c r="W57" t="s">
+        <v>46</v>
+      </c>
+      <c r="X57" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57">
+        <v>2</v>
+      </c>
+      <c r="AD57">
+        <v>3</v>
+      </c>
+      <c r="AG57" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH57" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP57" t="s">
         <v>587</v>
       </c>
-      <c r="AZ56" t="s">
+      <c r="AR57" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>545</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>547</v>
+      </c>
+      <c r="AZ57" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="57" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="F57" s="16">
-        <v>2012</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="M57" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N57" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="O57" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="P57" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q57" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R57" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S57" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG57" s="16"/>
-    </row>
-    <row r="58" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B58" s="11" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="F58" s="11">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>411</v>
+        <v>261</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>412</v>
+        <v>294</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="M58" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="O58" s="11" t="s">
         <v>244</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>417</v>
+        <v>245</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="R58" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T58" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="U58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s">
         <v>214</v>
@@ -12063,23 +12114,23 @@
       <c r="Y58" t="s">
         <v>69</v>
       </c>
-      <c r="Z58" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA58" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="AB58" s="15">
+      <c r="Z58" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB58">
         <v>2</v>
       </c>
-      <c r="AC58" s="15">
+      <c r="AC58">
         <v>2</v>
       </c>
-      <c r="AD58" s="15">
+      <c r="AD58">
         <v>3</v>
       </c>
       <c r="AG58" s="11" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AH58" t="s">
         <v>111</v>
@@ -12091,16 +12142,16 @@
         <v>131</v>
       </c>
       <c r="AM58" s="14" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AN58" t="s">
         <v>232</v>
       </c>
       <c r="AO58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AP58" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="AR58" t="s">
         <v>164</v>
@@ -12108,189 +12159,192 @@
       <c r="AS58" t="s">
         <v>239</v>
       </c>
-      <c r="AU58" t="s">
-        <v>559</v>
-      </c>
       <c r="AV58" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="AW58" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AX58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AY58" t="s">
-        <v>561</v>
-      </c>
-      <c r="AZ58" t="s">
+        <v>552</v>
+      </c>
+      <c r="AZ58" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="C59" s="16" t="s">
+    <row r="59" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B59" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="F59" s="16">
-        <v>2011</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="M59" s="16" t="s">
+      <c r="D59" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" s="11">
+        <v>2013</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I59" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N59" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="O59" s="16" t="s">
+      <c r="J59" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="O59" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="P59" s="16" t="s">
+      <c r="P59" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Q59" s="16" t="s">
+      <c r="Q59" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="R59" s="16" t="s">
+      <c r="R59" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T59" s="15" t="s">
+      <c r="T59" t="s">
         <v>31</v>
       </c>
-      <c r="U59" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V59" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W59" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X59" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y59" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z59" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="AA59" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="AB59" s="15">
+      <c r="U59" t="s">
+        <v>45</v>
+      </c>
+      <c r="V59" t="s">
+        <v>56</v>
+      </c>
+      <c r="W59" t="s">
+        <v>45</v>
+      </c>
+      <c r="X59" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB59">
         <v>2</v>
       </c>
-      <c r="AC59" s="15">
+      <c r="AC59">
         <v>2</v>
       </c>
-      <c r="AD59" s="15">
+      <c r="AD59">
         <v>3</v>
       </c>
       <c r="AG59" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="AH59" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI59" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN59" s="15" t="s">
+      <c r="AH59" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM59" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="AN59" t="s">
         <v>232</v>
       </c>
-      <c r="AO59" s="15" t="s">
+      <c r="AO59" t="s">
         <v>160</v>
       </c>
-      <c r="AP59" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR59" s="15" t="s">
+      <c r="AP59" t="s">
+        <v>551</v>
+      </c>
+      <c r="AR59" t="s">
         <v>164</v>
       </c>
-      <c r="AS59" s="15" t="s">
+      <c r="AS59" t="s">
         <v>239</v>
       </c>
-      <c r="AV59" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="AW59" s="15" t="s">
+      <c r="AV59" t="s">
+        <v>491</v>
+      </c>
+      <c r="AW59" t="s">
         <v>199</v>
       </c>
-      <c r="AX59" s="15" t="s">
+      <c r="AX59" t="s">
         <v>207</v>
       </c>
-      <c r="AY59" s="15" t="s">
-        <v>564</v>
+      <c r="AY59" t="s">
+        <v>553</v>
       </c>
       <c r="AZ59" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="60" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="16" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="F60" s="16">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>421</v>
+        <v>273</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>422</v>
+        <v>270</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>243</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="O60" s="16" t="s">
         <v>244</v>
@@ -12317,16 +12371,16 @@
         <v>46</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="Y60" s="15" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="Z60" s="15" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="AA60" s="15" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="AB60" s="15">
         <v>2</v>
@@ -12337,213 +12391,237 @@
       <c r="AD60" s="15">
         <v>3</v>
       </c>
-      <c r="AG60" s="11" t="s">
-        <v>250</v>
+      <c r="AF60" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG60" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="AH60" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AI60" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AJ60" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM60" s="17" t="s">
+        <v>533</v>
       </c>
       <c r="AN60" s="15" t="s">
         <v>232</v>
       </c>
       <c r="AO60" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP60" s="15" t="s">
         <v>490</v>
       </c>
       <c r="AR60" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AS60" s="15" t="s">
-        <v>239</v>
+        <v>170</v>
+      </c>
+      <c r="AT60" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="AV60" s="15" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="AW60" s="15" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AX60" s="15" t="s">
         <v>207</v>
       </c>
       <c r="AY60" s="15" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="AZ60" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="2:53" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C61" s="19" t="s">
+    <row r="61" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B61" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="F61" s="19">
-        <v>2011</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="M61" s="19" t="s">
+      <c r="D61" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="F61" s="16">
+        <v>2012</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="M61" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="N61" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="O61" s="19" t="s">
+      <c r="N61" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O61" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P61" s="19" t="s">
+      <c r="P61" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="Q61" s="19" t="s">
+      <c r="Q61" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="R61" s="19" t="s">
+      <c r="R61" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T61" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="U61" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V61" s="18" t="s">
-        <v>49</v>
+      <c r="T61" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U61" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V61" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="W61" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X61" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="X61" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="Y61" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z61" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA61" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="AB61" s="18">
+      <c r="Y61" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z61" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA61" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB61" s="15">
         <v>2</v>
       </c>
-      <c r="AC61" s="18">
+      <c r="AC61" s="15">
         <v>2</v>
       </c>
-      <c r="AD61" s="18">
+      <c r="AD61" s="15">
         <v>3</v>
       </c>
-      <c r="AG61" s="19" t="s">
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG61" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="AH61" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI61" s="18" t="s">
+      <c r="AH61" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI61" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="AJ61" s="18" t="s">
+      <c r="AJ61" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AN61" s="18" t="s">
+      <c r="AK61" s="15"/>
+      <c r="AL61" s="15"/>
+      <c r="AM61" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="AN61" t="s">
         <v>232</v>
       </c>
-      <c r="AO61" s="18" t="s">
+      <c r="AO61" t="s">
         <v>162</v>
       </c>
-      <c r="AP61" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="AR61" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS61" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV61" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="AW61" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX61" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY61" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="AZ61" s="15" t="s">
+      <c r="AP61" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV61" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY61" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="AZ61" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="16" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="F62" s="16">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>437</v>
+        <v>271</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>438</v>
+        <v>295</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="M62" s="16" t="s">
         <v>243</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="O62" s="16" t="s">
         <v>244</v>
@@ -12562,597 +12640,587 @@
       </c>
       <c r="AG62" s="16"/>
     </row>
-    <row r="63" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="16" t="s">
+    <row r="63" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B63" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F63" s="11">
+        <v>2011</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q63" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" t="s">
+        <v>24</v>
+      </c>
+      <c r="U63" t="s">
+        <v>46</v>
+      </c>
+      <c r="V63" t="s">
+        <v>57</v>
+      </c>
+      <c r="W63" t="s">
+        <v>46</v>
+      </c>
+      <c r="X63" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z63" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA63" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB63" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC63" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD63" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG63" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM63" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>558</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>559</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>560</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64" s="16">
+        <v>2011</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P64" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U64" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V64" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W64" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="X64" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y64" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z64" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA64" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB64" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC64" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD64" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG64" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH64" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI64" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN64" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO64" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP64" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR64" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS64" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV64" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="AW64" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX64" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY64" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="AZ64" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="F65" s="16">
+        <v>2011</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="M65" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N65" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="O65" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P65" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q65" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="R65" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U65" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V65" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W65" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="X65" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y65" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z65" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA65" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB65" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC65" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD65" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG65" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH65" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI65" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN65" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO65" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP65" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR65" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS65" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV65" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="AW65" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX65" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY65" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="AZ65" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="2:53" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="F66" s="19">
+        <v>2011</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="N66" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="O66" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="P66" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q66" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="R66" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U66" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V66" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W66" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X66" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y66" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z66" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA66" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="AB66" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC66" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD66" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG66" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH66" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI66" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ66" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN66" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO66" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP66" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="AR66" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS66" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV66" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="AW66" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX66" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY66" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="AZ66" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F67" s="16">
+        <v>2010</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="O67" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="R67" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG67" s="16"/>
+    </row>
+    <row r="68" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="16" t="s">
         <v>443</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="F63" s="16">
-        <v>2009</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="L63" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="O63" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="P63" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="R63" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S63" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="20"/>
-      <c r="AC63" s="20"/>
-      <c r="AD63" s="20"/>
-      <c r="AG63" s="16"/>
-      <c r="AM63" s="17"/>
-      <c r="AP63" s="20"/>
-      <c r="AV63" s="20"/>
-      <c r="AY63" s="20"/>
-      <c r="AZ63" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="BA63" s="20"/>
-    </row>
-    <row r="64" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B64" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F64" s="11">
-        <v>2009</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N64" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="O64" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P64" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q64" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="R64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T64" t="s">
-        <v>31</v>
-      </c>
-      <c r="U64" t="s">
-        <v>45</v>
-      </c>
-      <c r="V64" t="s">
-        <v>59</v>
-      </c>
-      <c r="W64" t="s">
-        <v>45</v>
-      </c>
-      <c r="X64" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z64" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA64" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB64" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC64" s="20">
-        <v>2</v>
-      </c>
-      <c r="AD64" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG64" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN64" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO64" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP64" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV64" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="AW64" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY64" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="AZ64" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="65" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B65" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F65" s="11">
-        <v>2009</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="O65" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="R65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T65" t="s">
-        <v>31</v>
-      </c>
-      <c r="U65" t="s">
-        <v>572</v>
-      </c>
-      <c r="V65" t="s">
-        <v>59</v>
-      </c>
-      <c r="W65" t="s">
-        <v>572</v>
-      </c>
-      <c r="X65" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z65" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA65" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB65" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC65" s="20">
-        <v>2</v>
-      </c>
-      <c r="AD65" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG65" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN65" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO65" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP65" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="AR65" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS65" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT65" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV65" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="AW65" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX65" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY65" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="AZ65" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="66" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B66" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F66" s="11">
-        <v>2009</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="O66" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P66" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q66" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="R66" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T66" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66" t="s">
-        <v>573</v>
-      </c>
-      <c r="V66" t="s">
-        <v>59</v>
-      </c>
-      <c r="W66" t="s">
-        <v>573</v>
-      </c>
-      <c r="X66" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z66" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA66" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB66" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC66" s="20">
-        <v>2</v>
-      </c>
-      <c r="AD66" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG66" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN66" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO66" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP66" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS66" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT66" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV66" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX66" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY66" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="AZ66" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="67" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B67" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F67" s="11">
-        <v>2009</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P67" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q67" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="R67" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T67" t="s">
-        <v>31</v>
-      </c>
-      <c r="U67" t="s">
-        <v>574</v>
-      </c>
-      <c r="V67" t="s">
-        <v>59</v>
-      </c>
-      <c r="W67" t="s">
-        <v>574</v>
-      </c>
-      <c r="X67" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z67" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA67" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB67" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC67" s="20">
-        <v>2</v>
-      </c>
-      <c r="AD67" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG67" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN67" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO67" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP67" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="AR67" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS67" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT67" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV67" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="AW67" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX67" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY67" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="AZ67" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="68" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F68" s="16">
         <v>2009</v>
@@ -13164,28 +13232,28 @@
         <v>265</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>257</v>
+        <v>446</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>243</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="O68" s="16" t="s">
         <v>244</v>
       </c>
       <c r="P68" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q68" s="16" t="s">
         <v>243</v>
@@ -13193,143 +13261,87 @@
       <c r="R68" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T68" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U68" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V68" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="W68" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X68" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y68" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z68" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA68" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB68" s="20">
-        <v>2</v>
-      </c>
-      <c r="AC68" s="20">
-        <v>2</v>
-      </c>
-      <c r="AD68" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG68" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH68" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI68" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN68" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO68" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP68" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="AR68" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS68" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT68" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV68" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AW68" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX68" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY68" s="15" t="s">
-        <v>577</v>
-      </c>
+      <c r="S68" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AG68" s="16"/>
+      <c r="AM68" s="17"/>
+      <c r="AP68" s="20"/>
+      <c r="AV68" s="20"/>
+      <c r="AY68" s="20"/>
       <c r="AZ68" s="20" t="s">
         <v>473</v>
       </c>
+      <c r="BA68" s="20"/>
     </row>
-    <row r="69" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B69" s="11" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F69" s="11">
         <v>2009</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>265</v>
+        <v>454</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>243</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>244</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q69" s="11"/>
+        <v>245</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>243</v>
+      </c>
       <c r="R69" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T69" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="U69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V69" t="s">
         <v>59</v>
       </c>
       <c r="W69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X69" t="s">
         <v>214</v>
@@ -13338,10 +13350,10 @@
         <v>69</v>
       </c>
       <c r="Z69" s="20" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AA69" s="20" t="s">
-        <v>112</v>
+        <v>567</v>
       </c>
       <c r="AB69" s="20">
         <v>2</v>
@@ -13352,160 +13364,685 @@
       <c r="AD69" s="20">
         <v>3</v>
       </c>
-      <c r="AG69" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH69" s="15" t="s">
-        <v>112</v>
+      <c r="AG69" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>111</v>
       </c>
       <c r="AI69" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AN69" t="s">
         <v>232</v>
       </c>
       <c r="AO69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AP69" s="20" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="AR69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS69" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="AV69" s="20" t="s">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="AW69" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AX69" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AY69" s="15" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AZ69" s="20" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="AG70" s="11"/>
-      <c r="AY70" s="24"/>
+    <row r="70" spans="2:53" x14ac:dyDescent="0.35">
+      <c r="B70" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F70" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q70" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T70" t="s">
+        <v>31</v>
+      </c>
+      <c r="U70" t="s">
+        <v>571</v>
+      </c>
+      <c r="V70" t="s">
+        <v>59</v>
+      </c>
+      <c r="W70" t="s">
+        <v>571</v>
+      </c>
+      <c r="X70" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z70" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA70" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB70" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC70" s="20">
+        <v>2</v>
+      </c>
+      <c r="AD70" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG70" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP70" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV70" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY70" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="AZ70" s="20" t="s">
+        <v>473</v>
+      </c>
     </row>
-    <row r="71" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="AY71" s="24"/>
+    <row r="71" spans="2:53" x14ac:dyDescent="0.35">
+      <c r="B71" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F71" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T71" t="s">
+        <v>31</v>
+      </c>
+      <c r="U71" t="s">
+        <v>572</v>
+      </c>
+      <c r="V71" t="s">
+        <v>59</v>
+      </c>
+      <c r="W71" t="s">
+        <v>572</v>
+      </c>
+      <c r="X71" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z71" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA71" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB71" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC71" s="20">
+        <v>2</v>
+      </c>
+      <c r="AD71" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG71" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP71" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV71" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY71" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="AZ71" s="20" t="s">
+        <v>473</v>
+      </c>
     </row>
-    <row r="72" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="AY72" s="24"/>
+    <row r="72" spans="2:53" x14ac:dyDescent="0.35">
+      <c r="B72" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F72" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" t="s">
+        <v>31</v>
+      </c>
+      <c r="U72" t="s">
+        <v>573</v>
+      </c>
+      <c r="V72" t="s">
+        <v>59</v>
+      </c>
+      <c r="W72" t="s">
+        <v>573</v>
+      </c>
+      <c r="X72" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z72" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA72" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB72" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC72" s="20">
+        <v>2</v>
+      </c>
+      <c r="AD72" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG72" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP72" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV72" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY72" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="AZ72" s="20" t="s">
+        <v>473</v>
+      </c>
     </row>
-    <row r="73" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="AG73" s="11"/>
-      <c r="AY73" s="24"/>
+    <row r="73" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="F73" s="16">
+        <v>2009</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N73" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P73" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q73" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="R73" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U73" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V73" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W73" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="X73" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y73" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z73" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA73" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB73" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC73" s="20">
+        <v>2</v>
+      </c>
+      <c r="AD73" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG73" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH73" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI73" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN73" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO73" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP73" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR73" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS73" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT73" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV73" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="AW73" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX73" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY73" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="AZ73" s="20" t="s">
+        <v>473</v>
+      </c>
     </row>
-    <row r="74" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="Z74" s="20"/>
-      <c r="AA74" s="20"/>
-      <c r="AB74" s="20"/>
-      <c r="AC74" s="20"/>
-      <c r="AD74" s="20"/>
-      <c r="AG74" s="16"/>
-      <c r="AP74" s="20"/>
-      <c r="AV74" s="20"/>
-      <c r="AZ74" s="20"/>
+    <row r="74" spans="2:53" x14ac:dyDescent="0.35">
+      <c r="B74" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F74" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" t="s">
+        <v>23</v>
+      </c>
+      <c r="U74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V74" t="s">
+        <v>59</v>
+      </c>
+      <c r="W74" t="s">
+        <v>46</v>
+      </c>
+      <c r="X74" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z74" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA74" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB74" s="20">
+        <v>2</v>
+      </c>
+      <c r="AC74" s="20">
+        <v>2</v>
+      </c>
+      <c r="AD74" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG74" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH74" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP74" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV74" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY74" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="AZ74" s="20" t="s">
+        <v>473</v>
+      </c>
     </row>
-    <row r="75" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -13524,8 +14061,9 @@
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
       <c r="AG75" s="11"/>
+      <c r="AY75" s="23"/>
     </row>
-    <row r="76" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -13543,9 +14081,8 @@
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
-      <c r="AG76" s="11"/>
     </row>
-    <row r="77" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -13563,9 +14100,9 @@
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
-      <c r="AG77" s="11"/>
+      <c r="AY77" s="24"/>
     </row>
-    <row r="78" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -13584,28 +14121,37 @@
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
       <c r="AG78" s="11"/>
+      <c r="AY78" s="24"/>
     </row>
-    <row r="79" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="AG79" s="11"/>
+    <row r="79" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
+      <c r="AG79" s="16"/>
+      <c r="AP79" s="20"/>
+      <c r="AV79" s="20"/>
+      <c r="AZ79" s="20"/>
     </row>
-    <row r="80" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -13885,6 +14431,106 @@
       <c r="R93" s="11"/>
       <c r="AG93" s="11"/>
     </row>
+    <row r="94" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="AG94" s="11"/>
+    </row>
+    <row r="95" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="AG95" s="11"/>
+    </row>
+    <row r="96" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="AG96" s="11"/>
+    </row>
+    <row r="97" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="AG97" s="11"/>
+    </row>
+    <row r="98" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="AG98" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AR1:AU1"/>
@@ -13896,14 +14542,14 @@
     <mergeCell ref="AN1:AQ1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ34 AS3:AT3 AJ35:AK1048576 AS5:AT1048576 AO3:AO1048576 AJ3:AK33" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39 AS3:AT3 AJ40:AK1048576 AO3:AO1048576 AS5:AT1048576 AJ3:AK38" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT(AI3)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL34" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>INDIRECT(AJ34)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>INDIRECT(AJ39)</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -13923,13 +14569,13 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S94:S1048576</xm:sqref>
+          <xm:sqref>S99:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AL35:AL1048576 AL3:AL33</xm:sqref>
+          <xm:sqref>AL40:AL1048576 AL3:AL38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
@@ -16007,21 +16653,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -16135,16 +16766,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -16159,17 +16806,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC766F39-DD54-4519-BB6B-9B19EDEFD83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505AE939-7E4F-4B33-8B06-7AE296FBA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -4217,9 +4217,6 @@
 foraging locations from the colony and distance to fishing harbours. At least for Linosa birds, the distance to fishing harbours seemed to decrease markedly only when the foraging location was more than 200 km from the colony; the effect seems negligible for shorter distances.</t>
   </si>
   <si>
-    <t>Lophelia pertusa _ Madrepora oculata _ Funiculina quadrangularis _ Isidella elongate</t>
-  </si>
-  <si>
     <t>Plesionika</t>
   </si>
   <si>
@@ -4239,9 +4236,6 @@
 grows in areas targeted by trawling (Cartes et al., 2009; Maynou and Cartes, 2012)</t>
   </si>
   <si>
-    <t>Isidella elongate</t>
-  </si>
-  <si>
     <t>Callogorgia verticillata</t>
   </si>
   <si>
@@ -4271,6 +4265,12 @@
   </si>
   <si>
     <t>Sabellidae _ Serpulidae _ Neopycnodonte cochlear</t>
+  </si>
+  <si>
+    <t>Isidella elongata</t>
+  </si>
+  <si>
+    <t>Lophelia pertusa _ Madrepora oculata _ Funiculina quadrangularis _ Isidella elongata</t>
   </si>
 </sst>
 </file>
@@ -4478,6 +4478,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4499,7 +4500,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4789,10 +4789,10 @@
   <dimension ref="A1:BA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP24" sqref="AP24"/>
+      <selection pane="bottomRight" activeCell="AM19" sqref="AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4819,70 +4819,70 @@
       <c r="A1" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="30" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="28" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29" t="s">
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="31" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="25" t="s">
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="26" t="s">
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
       <c r="AZ1" t="s">
         <v>466</v>
       </c>
@@ -7193,13 +7193,13 @@
         <v>154</v>
       </c>
       <c r="AM19" s="21" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="AN19" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP19" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AR19" s="21" t="s">
         <v>164</v>
@@ -7208,7 +7208,7 @@
         <v>239</v>
       </c>
       <c r="AV19" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AW19" s="21" t="s">
         <v>199</v>
@@ -7216,8 +7216,8 @@
       <c r="AX19" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="AY19" s="32" t="s">
-        <v>601</v>
+      <c r="AY19" s="25" t="s">
+        <v>600</v>
       </c>
       <c r="AZ19" s="21" t="s">
         <v>473</v>
@@ -7321,13 +7321,13 @@
         <v>154</v>
       </c>
       <c r="AM20" s="21" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="AN20" s="21" t="s">
         <v>231</v>
       </c>
       <c r="AP20" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AR20" s="21" t="s">
         <v>164</v>
@@ -7336,7 +7336,7 @@
         <v>239</v>
       </c>
       <c r="AV20" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AW20" s="21" t="s">
         <v>113</v>
@@ -7345,7 +7345,7 @@
         <v>207</v>
       </c>
       <c r="AY20" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AZ20" s="21" t="s">
         <v>473</v>
@@ -7449,13 +7449,13 @@
         <v>154</v>
       </c>
       <c r="AM21" s="21" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="AN21" s="21" t="s">
         <v>231</v>
       </c>
       <c r="AP21" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AR21" s="21" t="s">
         <v>164</v>
@@ -7464,7 +7464,7 @@
         <v>239</v>
       </c>
       <c r="AV21" s="21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AW21" s="21" t="s">
         <v>113</v>
@@ -7473,7 +7473,7 @@
         <v>207</v>
       </c>
       <c r="AY21" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AZ21" s="21" t="s">
         <v>473</v>
@@ -7577,13 +7577,13 @@
         <v>157</v>
       </c>
       <c r="AM22" s="21" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AN22" s="21" t="s">
         <v>231</v>
       </c>
       <c r="AP22" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AR22" s="21" t="s">
         <v>164</v>
@@ -7592,7 +7592,7 @@
         <v>239</v>
       </c>
       <c r="AV22" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AW22" s="21" t="s">
         <v>113</v>
@@ -7600,8 +7600,8 @@
       <c r="AX22" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="AY22" s="32" t="s">
-        <v>605</v>
+      <c r="AY22" s="25" t="s">
+        <v>603</v>
       </c>
       <c r="AZ22" s="21" t="s">
         <v>473</v>
@@ -7705,13 +7705,13 @@
         <v>113</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN23" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AR23" s="21" t="s">
         <v>164</v>
@@ -7729,7 +7729,7 @@
         <v>207</v>
       </c>
       <c r="AY23" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AZ23" s="21" t="s">
         <v>473</v>
@@ -7833,13 +7833,13 @@
         <v>113</v>
       </c>
       <c r="AM24" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AN24" s="21" t="s">
         <v>231</v>
       </c>
       <c r="AP24" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AR24" s="21" t="s">
         <v>164</v>
@@ -7848,7 +7848,7 @@
         <v>239</v>
       </c>
       <c r="AV24" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AW24" s="21" t="s">
         <v>199</v>
@@ -7857,7 +7857,7 @@
         <v>207</v>
       </c>
       <c r="AY24" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AZ24" s="21" t="s">
         <v>473</v>
@@ -7964,7 +7964,7 @@
         <v>231</v>
       </c>
       <c r="AP25" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AR25" s="21" t="s">
         <v>164</v>
@@ -7973,7 +7973,7 @@
         <v>239</v>
       </c>
       <c r="AV25" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AW25" s="21" t="s">
         <v>199</v>
@@ -7982,7 +7982,7 @@
         <v>207</v>
       </c>
       <c r="AY25" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AZ25" s="21" t="s">
         <v>473</v>
@@ -14681,64 +14681,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="28" t="s">
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="29" t="s">
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AQ1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -15777,51 +15777,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="28" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="26" t="s">
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -16653,8 +16653,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -16782,7 +16782,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5211D1A-1591-4955-A1EA-0C57E8444393}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -16808,14 +16808,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Seghers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505AE939-7E4F-4B33-8B06-7AE296FBA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2035093F-D740-44B5-91B2-DB726B64A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -4440,7 +4440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4454,31 +4454,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4789,10 +4780,10 @@
   <dimension ref="A1:BA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM19" sqref="AM19"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4819,70 +4810,70 @@
       <c r="A1" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="31" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="29" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="32" t="s">
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="26" t="s">
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
       <c r="AZ1" t="s">
         <v>466</v>
       </c>
@@ -5042,184 +5033,184 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>2015</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" t="s">
         <v>214</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" t="s">
         <v>216</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" t="s">
         <v>578</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" t="s">
         <v>579</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3">
         <v>2</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3">
         <v>3</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AG3" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AH3" t="s">
         <v>111</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AI3" t="s">
         <v>124</v>
       </c>
-      <c r="AN3" s="15" t="s">
+      <c r="AN3" t="s">
         <v>232</v>
       </c>
-      <c r="AO3" s="15" t="s">
+      <c r="AO3" t="s">
         <v>161</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AP3" t="s">
         <v>490</v>
       </c>
-      <c r="AR3" s="15" t="s">
+      <c r="AR3" t="s">
         <v>164</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AS3" t="s">
         <v>239</v>
       </c>
-      <c r="AU3" s="15" t="s">
+      <c r="AU3" t="s">
         <v>580</v>
       </c>
-      <c r="AV3" s="15" t="s">
+      <c r="AV3" t="s">
         <v>491</v>
       </c>
-      <c r="AW3" s="15" t="s">
+      <c r="AW3" t="s">
         <v>199</v>
       </c>
-      <c r="AX3" s="15" t="s">
+      <c r="AX3" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="15" t="s">
+      <c r="AY3" t="s">
         <v>581</v>
       </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="AZ3" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>2015</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T4" t="s">
@@ -5234,7 +5225,7 @@
       <c r="W4" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" t="s">
         <v>214</v>
       </c>
       <c r="Y4" t="s">
@@ -5255,7 +5246,7 @@
       <c r="AD4">
         <v>3</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH4" t="s">
@@ -5264,7 +5255,7 @@
       <c r="AI4" t="s">
         <v>116</v>
       </c>
-      <c r="AM4" s="14" t="s">
+      <c r="AM4" s="13" t="s">
         <v>471</v>
       </c>
       <c r="AN4" t="s">
@@ -5293,55 +5284,55 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>2015</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T5" t="s">
@@ -5374,7 +5365,7 @@
       <c r="AD5">
         <v>3</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH5" t="s">
@@ -5383,7 +5374,7 @@
       <c r="AI5" t="s">
         <v>116</v>
       </c>
-      <c r="AM5" s="14" t="s">
+      <c r="AM5" s="13" t="s">
         <v>476</v>
       </c>
       <c r="AN5" t="s">
@@ -5395,7 +5386,7 @@
       <c r="AR5" t="s">
         <v>164</v>
       </c>
-      <c r="AV5" s="15" t="s">
+      <c r="AV5" t="s">
         <v>593</v>
       </c>
       <c r="AW5" t="s">
@@ -5412,55 +5403,55 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>2015</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T6" t="s">
@@ -5493,7 +5484,7 @@
       <c r="AD6">
         <v>3</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH6" t="s">
@@ -5502,7 +5493,7 @@
       <c r="AI6" t="s">
         <v>116</v>
       </c>
-      <c r="AM6" s="14" t="s">
+      <c r="AM6" s="13" t="s">
         <v>476</v>
       </c>
       <c r="AN6" t="s">
@@ -5514,7 +5505,7 @@
       <c r="AR6" t="s">
         <v>164</v>
       </c>
-      <c r="AV6" s="15" t="s">
+      <c r="AV6" t="s">
         <v>593</v>
       </c>
       <c r="AW6" t="s">
@@ -5531,55 +5522,55 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>2015</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T7" t="s">
@@ -5612,7 +5603,7 @@
       <c r="AD7">
         <v>3</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH7" t="s">
@@ -5621,7 +5612,7 @@
       <c r="AI7" t="s">
         <v>116</v>
       </c>
-      <c r="AM7" s="14" t="s">
+      <c r="AM7" s="13" t="s">
         <v>476</v>
       </c>
       <c r="AN7" t="s">
@@ -5633,7 +5624,7 @@
       <c r="AR7" t="s">
         <v>164</v>
       </c>
-      <c r="AV7" s="15" t="s">
+      <c r="AV7" t="s">
         <v>594</v>
       </c>
       <c r="AW7" t="s">
@@ -5642,7 +5633,7 @@
       <c r="AX7" t="s">
         <v>209</v>
       </c>
-      <c r="AY7" s="24" t="s">
+      <c r="AY7" t="s">
         <v>595</v>
       </c>
       <c r="AZ7" t="s">
@@ -5650,55 +5641,55 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>2015</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T8" t="s">
@@ -5731,7 +5722,7 @@
       <c r="AD8">
         <v>3</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AG8" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH8" t="s">
@@ -5740,7 +5731,7 @@
       <c r="AI8" t="s">
         <v>116</v>
       </c>
-      <c r="AM8" s="14" t="s">
+      <c r="AM8" s="13" t="s">
         <v>476</v>
       </c>
       <c r="AN8" t="s">
@@ -5752,7 +5743,7 @@
       <c r="AR8" t="s">
         <v>164</v>
       </c>
-      <c r="AV8" s="15" t="s">
+      <c r="AV8" t="s">
         <v>594</v>
       </c>
       <c r="AW8" t="s">
@@ -5761,7 +5752,7 @@
       <c r="AX8" t="s">
         <v>209</v>
       </c>
-      <c r="AY8" s="24" t="s">
+      <c r="AY8" t="s">
         <v>595</v>
       </c>
       <c r="AZ8" t="s">
@@ -5769,55 +5760,55 @@
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>2014</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T9" t="s">
@@ -5850,7 +5841,7 @@
       <c r="AD9">
         <v>3</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH9" t="s">
@@ -5868,7 +5859,7 @@
       <c r="AL9" t="s">
         <v>141</v>
       </c>
-      <c r="AM9" s="14" t="s">
+      <c r="AM9" s="13" t="s">
         <v>479</v>
       </c>
       <c r="AN9" t="s">
@@ -5889,7 +5880,7 @@
       <c r="AT9" t="s">
         <v>175</v>
       </c>
-      <c r="AV9" s="15" t="s">
+      <c r="AV9" t="s">
         <v>480</v>
       </c>
       <c r="AW9" t="s">
@@ -5906,51 +5897,51 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>2014</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>9</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>8</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T10" t="s">
@@ -5983,7 +5974,7 @@
       <c r="AD10">
         <v>3</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AG10" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH10" t="s">
@@ -6001,7 +5992,7 @@
       <c r="AL10" t="s">
         <v>141</v>
       </c>
-      <c r="AM10" s="14" t="s">
+      <c r="AM10" s="13" t="s">
         <v>479</v>
       </c>
       <c r="AN10" t="s">
@@ -6022,7 +6013,7 @@
       <c r="AT10" t="s">
         <v>175</v>
       </c>
-      <c r="AV10" s="15" t="s">
+      <c r="AV10" t="s">
         <v>480</v>
       </c>
       <c r="AW10" t="s">
@@ -6039,55 +6030,55 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>2014</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T11" t="s">
@@ -6102,7 +6093,7 @@
       <c r="W11" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="15" t="s">
+      <c r="X11" t="s">
         <v>55</v>
       </c>
       <c r="Y11" t="s">
@@ -6123,7 +6114,7 @@
       <c r="AD11">
         <v>3</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AG11" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH11" t="s">
@@ -6141,7 +6132,7 @@
       <c r="AL11" t="s">
         <v>150</v>
       </c>
-      <c r="AM11" s="14" t="s">
+      <c r="AM11" s="13" t="s">
         <v>486</v>
       </c>
       <c r="AN11" t="s">
@@ -6159,13 +6150,13 @@
       <c r="AS11" t="s">
         <v>239</v>
       </c>
-      <c r="AV11" s="15" t="s">
+      <c r="AV11" t="s">
         <v>491</v>
       </c>
       <c r="AW11" t="s">
         <v>199</v>
       </c>
-      <c r="AX11" s="15" t="s">
+      <c r="AX11" t="s">
         <v>209</v>
       </c>
       <c r="AY11" t="s">
@@ -6176,55 +6167,55 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>2014</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T12" t="s">
@@ -6239,7 +6230,7 @@
       <c r="W12" t="s">
         <v>46</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="X12" t="s">
         <v>55</v>
       </c>
       <c r="Y12" t="s">
@@ -6260,7 +6251,7 @@
       <c r="AD12">
         <v>3</v>
       </c>
-      <c r="AG12" s="11" t="s">
+      <c r="AG12" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH12" t="s">
@@ -6272,7 +6263,7 @@
       <c r="AJ12" t="s">
         <v>144</v>
       </c>
-      <c r="AM12" s="14" t="s">
+      <c r="AM12" s="13" t="s">
         <v>487</v>
       </c>
       <c r="AN12" t="s">
@@ -6290,13 +6281,13 @@
       <c r="AS12" t="s">
         <v>239</v>
       </c>
-      <c r="AV12" s="15" t="s">
+      <c r="AV12" t="s">
         <v>491</v>
       </c>
       <c r="AW12" t="s">
         <v>199</v>
       </c>
-      <c r="AX12" s="15" t="s">
+      <c r="AX12" t="s">
         <v>209</v>
       </c>
       <c r="AY12" t="s">
@@ -6307,55 +6298,55 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>2014</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T13" t="s">
@@ -6370,7 +6361,7 @@
       <c r="W13" t="s">
         <v>46</v>
       </c>
-      <c r="X13" s="15" t="s">
+      <c r="X13" t="s">
         <v>55</v>
       </c>
       <c r="Y13" t="s">
@@ -6391,7 +6382,7 @@
       <c r="AD13">
         <v>3</v>
       </c>
-      <c r="AG13" s="11" t="s">
+      <c r="AG13" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH13" t="s">
@@ -6403,7 +6394,7 @@
       <c r="AJ13" t="s">
         <v>144</v>
       </c>
-      <c r="AM13" s="14" t="s">
+      <c r="AM13" s="13" t="s">
         <v>488</v>
       </c>
       <c r="AN13" t="s">
@@ -6421,13 +6412,13 @@
       <c r="AS13" t="s">
         <v>239</v>
       </c>
-      <c r="AV13" s="15" t="s">
+      <c r="AV13" t="s">
         <v>491</v>
       </c>
       <c r="AW13" t="s">
         <v>199</v>
       </c>
-      <c r="AX13" s="15" t="s">
+      <c r="AX13" t="s">
         <v>209</v>
       </c>
       <c r="AY13" t="s">
@@ -6438,55 +6429,55 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>2014</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T14" t="s">
@@ -6501,7 +6492,7 @@
       <c r="W14" t="s">
         <v>46</v>
       </c>
-      <c r="X14" s="15" t="s">
+      <c r="X14" t="s">
         <v>55</v>
       </c>
       <c r="Y14" t="s">
@@ -6522,7 +6513,7 @@
       <c r="AD14">
         <v>3</v>
       </c>
-      <c r="AG14" s="11" t="s">
+      <c r="AG14" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH14" t="s">
@@ -6537,7 +6528,7 @@
       <c r="AL14" t="s">
         <v>150</v>
       </c>
-      <c r="AM14" s="14" t="s">
+      <c r="AM14" s="13" t="s">
         <v>486</v>
       </c>
       <c r="AN14" t="s">
@@ -6555,13 +6546,13 @@
       <c r="AS14" t="s">
         <v>239</v>
       </c>
-      <c r="AV14" s="15" t="s">
+      <c r="AV14" t="s">
         <v>491</v>
       </c>
       <c r="AW14" t="s">
         <v>199</v>
       </c>
-      <c r="AX14" s="15" t="s">
+      <c r="AX14" t="s">
         <v>209</v>
       </c>
       <c r="AY14" t="s">
@@ -6572,55 +6563,55 @@
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>2014</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T15" t="s">
@@ -6635,7 +6626,7 @@
       <c r="W15" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="15" t="s">
+      <c r="X15" t="s">
         <v>55</v>
       </c>
       <c r="Y15" t="s">
@@ -6656,7 +6647,7 @@
       <c r="AD15">
         <v>3</v>
       </c>
-      <c r="AG15" s="11" t="s">
+      <c r="AG15" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH15" t="s">
@@ -6668,7 +6659,7 @@
       <c r="AJ15" t="s">
         <v>144</v>
       </c>
-      <c r="AM15" s="14" t="s">
+      <c r="AM15" s="13" t="s">
         <v>487</v>
       </c>
       <c r="AN15" t="s">
@@ -6686,13 +6677,13 @@
       <c r="AS15" t="s">
         <v>239</v>
       </c>
-      <c r="AV15" s="15" t="s">
+      <c r="AV15" t="s">
         <v>491</v>
       </c>
       <c r="AW15" t="s">
         <v>199</v>
       </c>
-      <c r="AX15" s="15" t="s">
+      <c r="AX15" t="s">
         <v>209</v>
       </c>
       <c r="AY15" t="s">
@@ -6703,55 +6694,55 @@
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>2014</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T16" t="s">
@@ -6766,7 +6757,7 @@
       <c r="W16" t="s">
         <v>46</v>
       </c>
-      <c r="X16" s="15" t="s">
+      <c r="X16" t="s">
         <v>55</v>
       </c>
       <c r="Y16" t="s">
@@ -6787,7 +6778,7 @@
       <c r="AD16">
         <v>3</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AG16" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH16" t="s">
@@ -6799,7 +6790,7 @@
       <c r="AJ16" t="s">
         <v>144</v>
       </c>
-      <c r="AM16" s="14" t="s">
+      <c r="AM16" s="13" t="s">
         <v>488</v>
       </c>
       <c r="AN16" t="s">
@@ -6817,13 +6808,13 @@
       <c r="AS16" t="s">
         <v>239</v>
       </c>
-      <c r="AV16" s="15" t="s">
+      <c r="AV16" t="s">
         <v>491</v>
       </c>
       <c r="AW16" t="s">
         <v>199</v>
       </c>
-      <c r="AX16" s="15" t="s">
+      <c r="AX16" t="s">
         <v>209</v>
       </c>
       <c r="AY16" t="s">
@@ -6834,55 +6825,55 @@
       </c>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>2014</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T17" t="s">
@@ -6897,7 +6888,7 @@
       <c r="W17" t="s">
         <v>42</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="X17" t="s">
         <v>48</v>
       </c>
       <c r="Y17" t="s">
@@ -6921,7 +6912,7 @@
       <c r="AF17" t="s">
         <v>503</v>
       </c>
-      <c r="AG17" s="11" t="s">
+      <c r="AG17" s="10" t="s">
         <v>246</v>
       </c>
       <c r="AH17" t="s">
@@ -6948,7 +6939,7 @@
       <c r="AT17" t="s">
         <v>175</v>
       </c>
-      <c r="AV17" s="15" t="s">
+      <c r="AV17" t="s">
         <v>500</v>
       </c>
       <c r="AW17" t="s">
@@ -6965,55 +6956,55 @@
       </c>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>2014</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T18" t="s">
@@ -7052,7 +7043,7 @@
       <c r="AF18" t="s">
         <v>503</v>
       </c>
-      <c r="AG18" s="11" t="s">
+      <c r="AG18" s="10" t="s">
         <v>246</v>
       </c>
       <c r="AH18" t="s">
@@ -7079,7 +7070,7 @@
       <c r="AT18" t="s">
         <v>175</v>
       </c>
-      <c r="AV18" s="15" t="s">
+      <c r="AV18" t="s">
         <v>500</v>
       </c>
       <c r="AW18" t="s">
@@ -7095,949 +7086,949 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="10">
         <v>2014</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O19" s="22" t="s">
+      <c r="O19" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P19" s="22" t="s">
+      <c r="P19" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q19" s="22" t="s">
+      <c r="Q19" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="21" t="s">
+      <c r="U19" t="s">
         <v>46</v>
       </c>
-      <c r="V19" s="21" t="s">
+      <c r="V19" t="s">
         <v>56</v>
       </c>
-      <c r="W19" s="21" t="s">
+      <c r="W19" t="s">
         <v>46</v>
       </c>
-      <c r="X19" s="21" t="s">
+      <c r="X19" t="s">
         <v>214</v>
       </c>
-      <c r="Y19" s="21" t="s">
+      <c r="Y19" t="s">
         <v>72</v>
       </c>
-      <c r="AA19" s="21" t="s">
+      <c r="AA19" t="s">
         <v>504</v>
       </c>
-      <c r="AB19" s="21">
+      <c r="AB19">
         <v>2</v>
       </c>
-      <c r="AC19" s="21">
+      <c r="AC19">
         <v>2</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AD19">
         <v>3</v>
       </c>
-      <c r="AG19" s="22" t="s">
+      <c r="AG19" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="AH19" s="21" t="s">
+      <c r="AH19" t="s">
         <v>110</v>
       </c>
-      <c r="AI19" s="21" t="s">
+      <c r="AI19" t="s">
         <v>120</v>
       </c>
-      <c r="AJ19" s="21" t="s">
+      <c r="AJ19" t="s">
         <v>140</v>
       </c>
-      <c r="AK19" s="21" t="s">
+      <c r="AK19" t="s">
         <v>154</v>
       </c>
-      <c r="AM19" s="21" t="s">
+      <c r="AM19" t="s">
         <v>611</v>
       </c>
-      <c r="AN19" s="21" t="s">
+      <c r="AN19" t="s">
         <v>233</v>
       </c>
-      <c r="AP19" s="21" t="s">
+      <c r="AP19" t="s">
         <v>597</v>
       </c>
-      <c r="AR19" s="21" t="s">
+      <c r="AR19" t="s">
         <v>164</v>
       </c>
-      <c r="AS19" s="21" t="s">
+      <c r="AS19" t="s">
         <v>239</v>
       </c>
-      <c r="AV19" s="21" t="s">
+      <c r="AV19" t="s">
         <v>599</v>
       </c>
-      <c r="AW19" s="21" t="s">
+      <c r="AW19" t="s">
         <v>199</v>
       </c>
-      <c r="AX19" s="21" t="s">
+      <c r="AX19" t="s">
         <v>208</v>
       </c>
-      <c r="AY19" s="25" t="s">
+      <c r="AY19" t="s">
         <v>600</v>
       </c>
-      <c r="AZ19" s="21" t="s">
+      <c r="AZ19" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="10">
         <v>2014</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O20" s="22" t="s">
+      <c r="O20" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P20" s="22" t="s">
+      <c r="P20" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q20" s="22" t="s">
+      <c r="Q20" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R20" s="22" t="s">
+      <c r="R20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="21" t="s">
+      <c r="T20" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="21" t="s">
+      <c r="U20" t="s">
         <v>46</v>
       </c>
-      <c r="V20" s="21" t="s">
+      <c r="V20" t="s">
         <v>56</v>
       </c>
-      <c r="W20" s="21" t="s">
+      <c r="W20" t="s">
         <v>46</v>
       </c>
-      <c r="X20" s="21" t="s">
+      <c r="X20" t="s">
         <v>214</v>
       </c>
-      <c r="Y20" s="21" t="s">
+      <c r="Y20" t="s">
         <v>72</v>
       </c>
-      <c r="AA20" s="21" t="s">
+      <c r="AA20" t="s">
         <v>504</v>
       </c>
-      <c r="AB20" s="21">
+      <c r="AB20">
         <v>2</v>
       </c>
-      <c r="AC20" s="21">
+      <c r="AC20">
         <v>2</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AD20">
         <v>3</v>
       </c>
-      <c r="AG20" s="22" t="s">
+      <c r="AG20" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="AH20" s="21" t="s">
+      <c r="AH20" t="s">
         <v>110</v>
       </c>
-      <c r="AI20" s="21" t="s">
+      <c r="AI20" t="s">
         <v>120</v>
       </c>
-      <c r="AJ20" s="21" t="s">
+      <c r="AJ20" t="s">
         <v>140</v>
       </c>
-      <c r="AK20" s="21" t="s">
+      <c r="AK20" t="s">
         <v>154</v>
       </c>
-      <c r="AM20" s="21" t="s">
+      <c r="AM20" t="s">
         <v>612</v>
       </c>
-      <c r="AN20" s="21" t="s">
+      <c r="AN20" t="s">
         <v>231</v>
       </c>
-      <c r="AP20" s="21" t="s">
+      <c r="AP20" t="s">
         <v>607</v>
       </c>
-      <c r="AR20" s="21" t="s">
+      <c r="AR20" t="s">
         <v>164</v>
       </c>
-      <c r="AS20" s="21" t="s">
+      <c r="AS20" t="s">
         <v>239</v>
       </c>
-      <c r="AV20" s="21" t="s">
+      <c r="AV20" t="s">
         <v>602</v>
       </c>
-      <c r="AW20" s="21" t="s">
+      <c r="AW20" t="s">
         <v>113</v>
       </c>
-      <c r="AX20" s="21" t="s">
+      <c r="AX20" t="s">
         <v>207</v>
       </c>
-      <c r="AY20" s="23" t="s">
+      <c r="AY20" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="AZ20" s="21" t="s">
+      <c r="AZ20" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="10">
         <v>2014</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P21" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="Q21" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="R21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" t="s">
         <v>31</v>
       </c>
-      <c r="U21" s="21" t="s">
+      <c r="U21" t="s">
         <v>46</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="V21" t="s">
         <v>56</v>
       </c>
-      <c r="W21" s="21" t="s">
+      <c r="W21" t="s">
         <v>46</v>
       </c>
-      <c r="X21" s="21" t="s">
+      <c r="X21" t="s">
         <v>214</v>
       </c>
-      <c r="Y21" s="21" t="s">
+      <c r="Y21" t="s">
         <v>72</v>
       </c>
-      <c r="AA21" s="21" t="s">
+      <c r="AA21" t="s">
         <v>504</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC21">
         <v>2</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AD21">
         <v>3</v>
       </c>
-      <c r="AG21" s="22" t="s">
+      <c r="AG21" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="AH21" s="21" t="s">
+      <c r="AH21" t="s">
         <v>110</v>
       </c>
-      <c r="AI21" s="21" t="s">
+      <c r="AI21" t="s">
         <v>120</v>
       </c>
-      <c r="AJ21" s="21" t="s">
+      <c r="AJ21" t="s">
         <v>140</v>
       </c>
-      <c r="AK21" s="21" t="s">
+      <c r="AK21" t="s">
         <v>154</v>
       </c>
-      <c r="AM21" s="21" t="s">
+      <c r="AM21" t="s">
         <v>612</v>
       </c>
-      <c r="AN21" s="21" t="s">
+      <c r="AN21" t="s">
         <v>231</v>
       </c>
-      <c r="AP21" s="21" t="s">
+      <c r="AP21" t="s">
         <v>607</v>
       </c>
-      <c r="AR21" s="21" t="s">
+      <c r="AR21" t="s">
         <v>164</v>
       </c>
-      <c r="AS21" s="21" t="s">
+      <c r="AS21" t="s">
         <v>239</v>
       </c>
-      <c r="AV21" s="21" t="s">
+      <c r="AV21" t="s">
         <v>604</v>
       </c>
-      <c r="AW21" s="21" t="s">
+      <c r="AW21" t="s">
         <v>113</v>
       </c>
-      <c r="AX21" s="21" t="s">
+      <c r="AX21" t="s">
         <v>207</v>
       </c>
-      <c r="AY21" s="23" t="s">
+      <c r="AY21" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="AZ21" s="21" t="s">
+      <c r="AZ21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="22" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B22" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="10">
         <v>2014</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P22" s="22" t="s">
+      <c r="P22" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Q22" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U22" t="s">
         <v>46</v>
       </c>
-      <c r="V22" s="21" t="s">
+      <c r="V22" t="s">
         <v>56</v>
       </c>
-      <c r="W22" s="21" t="s">
+      <c r="W22" t="s">
         <v>46</v>
       </c>
-      <c r="X22" s="21" t="s">
+      <c r="X22" t="s">
         <v>214</v>
       </c>
-      <c r="Y22" s="21" t="s">
+      <c r="Y22" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="21" t="s">
+      <c r="AA22" t="s">
         <v>504</v>
       </c>
-      <c r="AB22" s="21">
+      <c r="AB22">
         <v>2</v>
       </c>
-      <c r="AC22" s="21">
+      <c r="AC22">
         <v>2</v>
       </c>
-      <c r="AD22" s="21">
+      <c r="AD22">
         <v>3</v>
       </c>
-      <c r="AG22" s="22" t="s">
+      <c r="AG22" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="AH22" s="21" t="s">
+      <c r="AH22" t="s">
         <v>110</v>
       </c>
-      <c r="AI22" s="21" t="s">
+      <c r="AI22" t="s">
         <v>120</v>
       </c>
-      <c r="AJ22" s="21" t="s">
+      <c r="AJ22" t="s">
         <v>140</v>
       </c>
-      <c r="AK22" s="21" t="s">
+      <c r="AK22" t="s">
         <v>157</v>
       </c>
-      <c r="AM22" s="21" t="s">
+      <c r="AM22" t="s">
         <v>601</v>
       </c>
-      <c r="AN22" s="21" t="s">
+      <c r="AN22" t="s">
         <v>231</v>
       </c>
-      <c r="AP22" s="21" t="s">
+      <c r="AP22" t="s">
         <v>607</v>
       </c>
-      <c r="AR22" s="21" t="s">
+      <c r="AR22" t="s">
         <v>164</v>
       </c>
-      <c r="AS22" s="21" t="s">
+      <c r="AS22" t="s">
         <v>239</v>
       </c>
-      <c r="AV22" s="21" t="s">
+      <c r="AV22" t="s">
         <v>602</v>
       </c>
-      <c r="AW22" s="21" t="s">
+      <c r="AW22" t="s">
         <v>113</v>
       </c>
-      <c r="AX22" s="21" t="s">
+      <c r="AX22" t="s">
         <v>208</v>
       </c>
-      <c r="AY22" s="25" t="s">
+      <c r="AY22" t="s">
         <v>603</v>
       </c>
-      <c r="AZ22" s="21" t="s">
+      <c r="AZ22" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="10">
         <v>2014</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q23" s="22" t="s">
+      <c r="Q23" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R23" s="22" t="s">
+      <c r="R23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T23" s="21" t="s">
+      <c r="T23" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="U23" t="s">
         <v>46</v>
       </c>
-      <c r="V23" s="21" t="s">
+      <c r="V23" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="21" t="s">
+      <c r="W23" t="s">
         <v>46</v>
       </c>
-      <c r="X23" s="21" t="s">
+      <c r="X23" t="s">
         <v>214</v>
       </c>
-      <c r="Y23" s="21" t="s">
+      <c r="Y23" t="s">
         <v>72</v>
       </c>
-      <c r="AA23" s="21" t="s">
+      <c r="AA23" t="s">
         <v>504</v>
       </c>
-      <c r="AB23" s="21">
+      <c r="AB23">
         <v>2</v>
       </c>
-      <c r="AC23" s="21">
+      <c r="AC23">
         <v>2</v>
       </c>
-      <c r="AD23" s="21">
+      <c r="AD23">
         <v>3</v>
       </c>
-      <c r="AG23" s="22" t="s">
+      <c r="AG23" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="AH23" s="21" t="s">
+      <c r="AH23" t="s">
         <v>110</v>
       </c>
-      <c r="AI23" s="21" t="s">
+      <c r="AI23" t="s">
         <v>120</v>
       </c>
-      <c r="AJ23" s="21" t="s">
+      <c r="AJ23" t="s">
         <v>140</v>
       </c>
-      <c r="AK23" s="21" t="s">
+      <c r="AK23" t="s">
         <v>113</v>
       </c>
-      <c r="AM23" s="21" t="s">
+      <c r="AM23" t="s">
         <v>596</v>
       </c>
-      <c r="AN23" s="21" t="s">
+      <c r="AN23" t="s">
         <v>233</v>
       </c>
-      <c r="AP23" s="21" t="s">
+      <c r="AP23" t="s">
         <v>597</v>
       </c>
-      <c r="AR23" s="21" t="s">
+      <c r="AR23" t="s">
         <v>164</v>
       </c>
-      <c r="AS23" s="21" t="s">
+      <c r="AS23" t="s">
         <v>239</v>
       </c>
-      <c r="AV23" s="21" t="s">
+      <c r="AV23" t="s">
         <v>527</v>
       </c>
-      <c r="AW23" s="21" t="s">
+      <c r="AW23" t="s">
         <v>199</v>
       </c>
-      <c r="AX23" s="21" t="s">
+      <c r="AX23" t="s">
         <v>207</v>
       </c>
-      <c r="AY23" s="23" t="s">
+      <c r="AY23" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="AZ23" s="21" t="s">
+      <c r="AZ23" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B24" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="10">
         <v>2014</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q24" s="22" t="s">
+      <c r="Q24" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R24" s="22" t="s">
+      <c r="R24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="T24" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="21" t="s">
+      <c r="U24" t="s">
         <v>46</v>
       </c>
-      <c r="V24" s="21" t="s">
+      <c r="V24" t="s">
         <v>56</v>
       </c>
-      <c r="W24" s="21" t="s">
+      <c r="W24" t="s">
         <v>46</v>
       </c>
-      <c r="X24" s="21" t="s">
+      <c r="X24" t="s">
         <v>214</v>
       </c>
-      <c r="Y24" s="21" t="s">
+      <c r="Y24" t="s">
         <v>72</v>
       </c>
-      <c r="AA24" s="21" t="s">
+      <c r="AA24" t="s">
         <v>504</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AB24">
         <v>2</v>
       </c>
-      <c r="AC24" s="21">
+      <c r="AC24">
         <v>2</v>
       </c>
-      <c r="AD24" s="21">
+      <c r="AD24">
         <v>3</v>
       </c>
-      <c r="AG24" s="22" t="s">
+      <c r="AG24" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="AH24" s="21" t="s">
+      <c r="AH24" t="s">
         <v>110</v>
       </c>
-      <c r="AI24" s="21" t="s">
+      <c r="AI24" t="s">
         <v>120</v>
       </c>
-      <c r="AJ24" s="21" t="s">
+      <c r="AJ24" t="s">
         <v>140</v>
       </c>
-      <c r="AK24" s="21" t="s">
+      <c r="AK24" t="s">
         <v>113</v>
       </c>
-      <c r="AM24" s="21" t="s">
+      <c r="AM24" t="s">
         <v>610</v>
       </c>
-      <c r="AN24" s="21" t="s">
+      <c r="AN24" t="s">
         <v>231</v>
       </c>
-      <c r="AP24" s="21" t="s">
+      <c r="AP24" t="s">
         <v>607</v>
       </c>
-      <c r="AR24" s="21" t="s">
+      <c r="AR24" t="s">
         <v>164</v>
       </c>
-      <c r="AS24" s="21" t="s">
+      <c r="AS24" t="s">
         <v>239</v>
       </c>
-      <c r="AV24" s="21" t="s">
+      <c r="AV24" t="s">
         <v>608</v>
       </c>
-      <c r="AW24" s="21" t="s">
+      <c r="AW24" t="s">
         <v>199</v>
       </c>
-      <c r="AX24" s="21" t="s">
+      <c r="AX24" t="s">
         <v>207</v>
       </c>
-      <c r="AY24" s="23" t="s">
+      <c r="AY24" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="AZ24" s="21" t="s">
+      <c r="AZ24" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="2:52" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="10">
         <v>2014</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="O25" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="P25" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q25" s="22" t="s">
+      <c r="Q25" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="R25" s="22" t="s">
+      <c r="R25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T25" s="21" t="s">
+      <c r="T25" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="21" t="s">
+      <c r="U25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" s="21" t="s">
+      <c r="V25" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="21" t="s">
+      <c r="W25" t="s">
         <v>46</v>
       </c>
-      <c r="X25" s="21" t="s">
+      <c r="X25" t="s">
         <v>214</v>
       </c>
-      <c r="Y25" s="21" t="s">
+      <c r="Y25" t="s">
         <v>72</v>
       </c>
-      <c r="AA25" s="21" t="s">
+      <c r="AA25" t="s">
         <v>504</v>
       </c>
-      <c r="AB25" s="21">
+      <c r="AB25">
         <v>2</v>
       </c>
-      <c r="AC25" s="21">
+      <c r="AC25">
         <v>2</v>
       </c>
-      <c r="AD25" s="21">
+      <c r="AD25">
         <v>3</v>
       </c>
-      <c r="AG25" s="22" t="s">
+      <c r="AG25" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="AH25" s="21" t="s">
+      <c r="AH25" t="s">
         <v>110</v>
       </c>
-      <c r="AI25" s="21" t="s">
+      <c r="AI25" t="s">
         <v>120</v>
       </c>
-      <c r="AJ25" s="21" t="s">
+      <c r="AJ25" t="s">
         <v>140</v>
       </c>
-      <c r="AK25" s="21" t="s">
+      <c r="AK25" t="s">
         <v>154</v>
       </c>
-      <c r="AN25" s="21" t="s">
+      <c r="AN25" t="s">
         <v>231</v>
       </c>
-      <c r="AP25" s="21" t="s">
+      <c r="AP25" t="s">
         <v>607</v>
       </c>
-      <c r="AR25" s="21" t="s">
+      <c r="AR25" t="s">
         <v>164</v>
       </c>
-      <c r="AS25" s="21" t="s">
+      <c r="AS25" t="s">
         <v>239</v>
       </c>
-      <c r="AV25" s="21" t="s">
+      <c r="AV25" t="s">
         <v>608</v>
       </c>
-      <c r="AW25" s="21" t="s">
+      <c r="AW25" t="s">
         <v>199</v>
       </c>
-      <c r="AX25" s="21" t="s">
+      <c r="AX25" t="s">
         <v>207</v>
       </c>
-      <c r="AY25" s="23" t="s">
+      <c r="AY25" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="AZ25" s="21" t="s">
+      <c r="AZ25" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="26" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>2014</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T26" t="s">
@@ -8073,7 +8064,7 @@
       <c r="AD26">
         <v>3</v>
       </c>
-      <c r="AG26" s="11" t="s">
+      <c r="AG26" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH26" t="s">
@@ -8097,7 +8088,7 @@
       <c r="AS26" t="s">
         <v>239</v>
       </c>
-      <c r="AV26" s="15" t="s">
+      <c r="AV26" t="s">
         <v>507</v>
       </c>
       <c r="AW26" t="s">
@@ -8114,55 +8105,55 @@
       </c>
     </row>
     <row r="27" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F27" s="11">
-        <v>2015</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T27" t="s">
@@ -8198,7 +8189,7 @@
       <c r="AD27">
         <v>3</v>
       </c>
-      <c r="AG27" s="11" t="s">
+      <c r="AG27" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH27" t="s">
@@ -8222,7 +8213,7 @@
       <c r="AS27" t="s">
         <v>239</v>
       </c>
-      <c r="AV27" s="15" t="s">
+      <c r="AV27" t="s">
         <v>507</v>
       </c>
       <c r="AW27" t="s">
@@ -8239,55 +8230,55 @@
       </c>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="11">
-        <v>2016</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T28" t="s">
@@ -8323,7 +8314,7 @@
       <c r="AD28">
         <v>3</v>
       </c>
-      <c r="AG28" s="11" t="s">
+      <c r="AG28" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH28" t="s">
@@ -8350,7 +8341,7 @@
       <c r="AS28" t="s">
         <v>239</v>
       </c>
-      <c r="AV28" s="15" t="s">
+      <c r="AV28" t="s">
         <v>507</v>
       </c>
       <c r="AW28" t="s">
@@ -8367,55 +8358,55 @@
       </c>
     </row>
     <row r="29" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F29" s="11">
-        <v>2017</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="F29" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T29" t="s">
@@ -8451,7 +8442,7 @@
       <c r="AD29">
         <v>3</v>
       </c>
-      <c r="AG29" s="11" t="s">
+      <c r="AG29" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH29" t="s">
@@ -8478,7 +8469,7 @@
       <c r="AT29" t="s">
         <v>188</v>
       </c>
-      <c r="AV29" s="15" t="s">
+      <c r="AV29" t="s">
         <v>507</v>
       </c>
       <c r="AW29" t="s">
@@ -8495,55 +8486,55 @@
       </c>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F30" s="11">
-        <v>2018</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="F30" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O30" s="11" t="s">
+      <c r="O30" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T30" t="s">
@@ -8579,7 +8570,7 @@
       <c r="AD30">
         <v>3</v>
       </c>
-      <c r="AG30" s="11" t="s">
+      <c r="AG30" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH30" t="s">
@@ -8606,7 +8597,7 @@
       <c r="AT30" t="s">
         <v>188</v>
       </c>
-      <c r="AV30" s="15" t="s">
+      <c r="AV30" t="s">
         <v>507</v>
       </c>
       <c r="AW30" t="s">
@@ -8623,55 +8614,55 @@
       </c>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F31" s="11">
-        <v>2019</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T31" t="s">
@@ -8707,7 +8698,7 @@
       <c r="AD31">
         <v>3</v>
       </c>
-      <c r="AG31" s="11" t="s">
+      <c r="AG31" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH31" t="s">
@@ -8737,7 +8728,7 @@
       <c r="AT31" t="s">
         <v>188</v>
       </c>
-      <c r="AV31" s="15" t="s">
+      <c r="AV31" t="s">
         <v>507</v>
       </c>
       <c r="AW31" t="s">
@@ -8754,55 +8745,55 @@
       </c>
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F32" s="11">
-        <v>2020</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="O32" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T32" t="s">
@@ -8838,7 +8829,7 @@
       <c r="AD32">
         <v>3</v>
       </c>
-      <c r="AG32" s="11" t="s">
+      <c r="AG32" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH32" t="s">
@@ -8865,7 +8856,7 @@
       <c r="AT32" t="s">
         <v>192</v>
       </c>
-      <c r="AV32" s="15" t="s">
+      <c r="AV32" t="s">
         <v>507</v>
       </c>
       <c r="AW32" t="s">
@@ -8882,55 +8873,55 @@
       </c>
     </row>
     <row r="33" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F33" s="11">
-        <v>2021</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T33" t="s">
@@ -8966,7 +8957,7 @@
       <c r="AD33">
         <v>3</v>
       </c>
-      <c r="AG33" s="11" t="s">
+      <c r="AG33" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH33" t="s">
@@ -8993,7 +8984,7 @@
       <c r="AT33" t="s">
         <v>192</v>
       </c>
-      <c r="AV33" s="15" t="s">
+      <c r="AV33" t="s">
         <v>507</v>
       </c>
       <c r="AW33" t="s">
@@ -9010,55 +9001,55 @@
       </c>
     </row>
     <row r="34" spans="2:52" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F34" s="11">
-        <v>2022</v>
-      </c>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T34" t="s">
@@ -9094,7 +9085,7 @@
       <c r="AD34">
         <v>3</v>
       </c>
-      <c r="AG34" s="11" t="s">
+      <c r="AG34" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH34" t="s">
@@ -9124,7 +9115,7 @@
       <c r="AT34" t="s">
         <v>192</v>
       </c>
-      <c r="AV34" s="15" t="s">
+      <c r="AV34" t="s">
         <v>507</v>
       </c>
       <c r="AW34" t="s">
@@ -9140,319 +9131,319 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="16" t="s">
+    <row r="35" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B35" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="10">
         <v>2013</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="M35" s="16" t="s">
+      <c r="M35" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="O35" s="16" t="s">
+      <c r="O35" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P35" s="16" t="s">
+      <c r="P35" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q35" s="16" t="s">
+      <c r="Q35" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R35" s="16" t="s">
+      <c r="R35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T35" s="15" t="s">
+      <c r="T35" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="15" t="s">
+      <c r="U35" t="s">
         <v>41</v>
       </c>
-      <c r="V35" s="15" t="s">
+      <c r="V35" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="15" t="s">
+      <c r="W35" t="s">
         <v>41</v>
       </c>
-      <c r="X35" s="15" t="s">
+      <c r="X35" t="s">
         <v>49</v>
       </c>
-      <c r="Y35" s="15" t="s">
+      <c r="Y35" t="s">
         <v>69</v>
       </c>
-      <c r="AA35" s="15" t="s">
+      <c r="AA35" t="s">
         <v>583</v>
       </c>
-      <c r="AB35" s="15">
+      <c r="AB35">
         <v>2</v>
       </c>
-      <c r="AC35" s="15">
+      <c r="AC35">
         <v>2</v>
       </c>
-      <c r="AD35" s="15">
+      <c r="AD35">
         <v>3</v>
       </c>
-      <c r="AG35" s="16" t="s">
+      <c r="AG35" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AH35" s="15" t="s">
+      <c r="AH35" t="s">
         <v>109</v>
       </c>
-      <c r="AI35" s="15" t="s">
+      <c r="AI35" t="s">
         <v>117</v>
       </c>
-      <c r="AJ35" s="15" t="s">
+      <c r="AJ35" t="s">
         <v>138</v>
       </c>
-      <c r="AM35" s="17" t="s">
+      <c r="AM35" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="AN35" s="15" t="s">
+      <c r="AN35" t="s">
         <v>232</v>
       </c>
-      <c r="AO35" s="15" t="s">
+      <c r="AO35" t="s">
         <v>160</v>
       </c>
-      <c r="AP35" s="15" t="s">
+      <c r="AP35" t="s">
         <v>509</v>
       </c>
-      <c r="AR35" s="15" t="s">
+      <c r="AR35" t="s">
         <v>164</v>
       </c>
-      <c r="AS35" s="15" t="s">
+      <c r="AS35" t="s">
         <v>239</v>
       </c>
-      <c r="AU35" s="15" t="s">
+      <c r="AU35" t="s">
         <v>577</v>
       </c>
-      <c r="AV35" s="15" t="s">
+      <c r="AV35" t="s">
         <v>511</v>
       </c>
-      <c r="AW35" s="15" t="s">
+      <c r="AW35" t="s">
         <v>199</v>
       </c>
-      <c r="AX35" s="15" t="s">
+      <c r="AX35" t="s">
         <v>210</v>
       </c>
-      <c r="AY35" s="15" t="s">
+      <c r="AY35" t="s">
         <v>512</v>
       </c>
-      <c r="AZ35" s="15" t="s">
+      <c r="AZ35" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="16" t="s">
+    <row r="36" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="10">
         <v>2013</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="M36" s="16" t="s">
+      <c r="M36" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="O36" s="16" t="s">
+      <c r="O36" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P36" s="16" t="s">
+      <c r="P36" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q36" s="16" t="s">
+      <c r="Q36" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="R36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T36" s="15" t="s">
+      <c r="T36" t="s">
         <v>29</v>
       </c>
-      <c r="U36" s="15" t="s">
+      <c r="U36" t="s">
         <v>46</v>
       </c>
-      <c r="V36" s="15" t="s">
+      <c r="V36" t="s">
         <v>55</v>
       </c>
-      <c r="W36" s="15" t="s">
+      <c r="W36" t="s">
         <v>46</v>
       </c>
-      <c r="X36" s="15" t="s">
+      <c r="X36" t="s">
         <v>214</v>
       </c>
-      <c r="Y36" s="15" t="s">
+      <c r="Y36" t="s">
         <v>69</v>
       </c>
-      <c r="Z36" s="15" t="s">
+      <c r="Z36" t="s">
         <v>514</v>
       </c>
-      <c r="AA36" s="15" t="s">
+      <c r="AA36" t="s">
         <v>513</v>
       </c>
-      <c r="AB36" s="15">
+      <c r="AB36">
         <v>2</v>
       </c>
-      <c r="AC36" s="15">
+      <c r="AC36">
         <v>2</v>
       </c>
-      <c r="AD36" s="15">
+      <c r="AD36">
         <v>3</v>
       </c>
-      <c r="AG36" s="16" t="s">
+      <c r="AG36" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH36" s="15" t="s">
+      <c r="AH36" t="s">
         <v>111</v>
       </c>
-      <c r="AI36" s="15" t="s">
+      <c r="AI36" t="s">
         <v>124</v>
       </c>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="15" t="s">
+      <c r="AM36" s="13"/>
+      <c r="AN36" t="s">
         <v>232</v>
       </c>
-      <c r="AO36" s="15" t="s">
+      <c r="AO36" t="s">
         <v>160</v>
       </c>
-      <c r="AP36" s="15" t="s">
+      <c r="AP36" t="s">
         <v>584</v>
       </c>
-      <c r="AR36" s="15" t="s">
+      <c r="AR36" t="s">
         <v>164</v>
       </c>
-      <c r="AS36" s="15" t="s">
+      <c r="AS36" t="s">
         <v>239</v>
       </c>
-      <c r="AU36" s="15" t="s">
+      <c r="AU36" t="s">
         <v>516</v>
       </c>
-      <c r="AV36" s="15" t="s">
+      <c r="AV36" t="s">
         <v>518</v>
       </c>
-      <c r="AW36" s="15" t="s">
+      <c r="AW36" t="s">
         <v>203</v>
       </c>
-      <c r="AX36" s="15" t="s">
+      <c r="AX36" t="s">
         <v>208</v>
       </c>
-      <c r="AY36" s="15" t="s">
+      <c r="AY36" t="s">
         <v>519</v>
       </c>
-      <c r="AZ36" s="15" t="s">
+      <c r="AZ36" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="37" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>2013</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R37" s="11" t="s">
+      <c r="R37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T37" s="15" t="s">
+      <c r="T37" t="s">
         <v>29</v>
       </c>
       <c r="U37" t="s">
@@ -9485,16 +9476,16 @@
       <c r="AD37">
         <v>3</v>
       </c>
-      <c r="AG37" s="16" t="s">
+      <c r="AG37" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH37" s="15" t="s">
+      <c r="AH37" t="s">
         <v>111</v>
       </c>
       <c r="AI37" t="s">
         <v>124</v>
       </c>
-      <c r="AM37" s="14"/>
+      <c r="AM37" s="13"/>
       <c r="AN37" t="s">
         <v>232</v>
       </c>
@@ -9516,7 +9507,7 @@
       <c r="AU37" t="s">
         <v>517</v>
       </c>
-      <c r="AV37" s="15" t="s">
+      <c r="AV37" t="s">
         <v>518</v>
       </c>
       <c r="AW37" t="s">
@@ -9528,63 +9519,63 @@
       <c r="AY37" t="s">
         <v>520</v>
       </c>
-      <c r="AZ37" s="15" t="s">
+      <c r="AZ37" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="38" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>2013</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T38" s="15" t="s">
+      <c r="T38" t="s">
         <v>29</v>
       </c>
       <c r="U38" t="s">
@@ -9617,16 +9608,16 @@
       <c r="AD38">
         <v>3</v>
       </c>
-      <c r="AG38" s="16" t="s">
+      <c r="AG38" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH38" s="15" t="s">
+      <c r="AH38" t="s">
         <v>111</v>
       </c>
       <c r="AI38" t="s">
         <v>124</v>
       </c>
-      <c r="AM38" s="14"/>
+      <c r="AM38" s="13"/>
       <c r="AN38" t="s">
         <v>232</v>
       </c>
@@ -9645,7 +9636,7 @@
       <c r="AU38" t="s">
         <v>515</v>
       </c>
-      <c r="AV38" s="15" t="s">
+      <c r="AV38" t="s">
         <v>518</v>
       </c>
       <c r="AW38" t="s">
@@ -9657,60 +9648,60 @@
       <c r="AY38" t="s">
         <v>521</v>
       </c>
-      <c r="AZ38" s="15" t="s">
+      <c r="AZ38" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="39" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>2013</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="R39" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T39" t="s">
@@ -9746,7 +9737,7 @@
       <c r="AD39">
         <v>3</v>
       </c>
-      <c r="AG39" s="11" t="s">
+      <c r="AG39" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH39" t="s">
@@ -9758,7 +9749,7 @@
       <c r="AJ39" t="s">
         <v>138</v>
       </c>
-      <c r="AM39" s="14" t="s">
+      <c r="AM39" s="13" t="s">
         <v>524</v>
       </c>
       <c r="AN39" t="s">
@@ -9776,7 +9767,7 @@
       <c r="AS39" t="s">
         <v>239</v>
       </c>
-      <c r="AV39" s="15" t="s">
+      <c r="AV39" t="s">
         <v>525</v>
       </c>
       <c r="AW39" t="s">
@@ -9788,121 +9779,121 @@
       <c r="AY39" t="s">
         <v>526</v>
       </c>
-      <c r="AZ39" s="15" t="s">
+      <c r="AZ39" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="16" t="s">
+    <row r="40" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B40" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="10">
         <v>2013</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="M40" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N40" s="16" t="s">
+      <c r="N40" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="O40" s="16" t="s">
+      <c r="O40" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P40" s="16" t="s">
+      <c r="P40" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q40" s="16" t="s">
+      <c r="Q40" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R40" s="16" t="s">
+      <c r="R40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S40" s="15" t="s">
+      <c r="S40" t="s">
         <v>84</v>
       </c>
-      <c r="AG40" s="16"/>
-      <c r="AM40" s="17"/>
-      <c r="AZ40" s="15" t="s">
+      <c r="AG40" s="10"/>
+      <c r="AM40" s="13"/>
+      <c r="AZ40" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="41" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>2013</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N41" s="11" t="s">
+      <c r="N41" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="O41" s="11" t="s">
+      <c r="O41" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P41" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="Q41" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R41" s="11" t="s">
+      <c r="R41" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T41" t="s">
@@ -9938,7 +9929,7 @@
       <c r="AD41">
         <v>3</v>
       </c>
-      <c r="AG41" s="11" t="s">
+      <c r="AG41" s="10" t="s">
         <v>251</v>
       </c>
       <c r="AH41" t="s">
@@ -9968,7 +9959,7 @@
       <c r="AU41" t="s">
         <v>529</v>
       </c>
-      <c r="AV41" s="15" t="s">
+      <c r="AV41" t="s">
         <v>491</v>
       </c>
       <c r="AW41" t="s">
@@ -9980,60 +9971,60 @@
       <c r="AY41" t="s">
         <v>585</v>
       </c>
-      <c r="AZ41" s="15" t="s">
+      <c r="AZ41" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="42" spans="2:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>2013</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T42" t="s">
@@ -10069,7 +10060,7 @@
       <c r="AD42">
         <v>3</v>
       </c>
-      <c r="AG42" s="11" t="s">
+      <c r="AG42" s="10" t="s">
         <v>251</v>
       </c>
       <c r="AH42" t="s">
@@ -10111,60 +10102,60 @@
       <c r="AY42" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="AZ42" s="15" t="s">
+      <c r="AZ42" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="43" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>2013</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="N43" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="O43" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P43" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="R43" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T43" t="s">
@@ -10200,7 +10191,7 @@
       <c r="AD43">
         <v>3</v>
       </c>
-      <c r="AG43" s="11" t="s">
+      <c r="AG43" s="10" t="s">
         <v>251</v>
       </c>
       <c r="AH43" t="s">
@@ -10242,60 +10233,60 @@
       <c r="AY43" t="s">
         <v>535</v>
       </c>
-      <c r="AZ43" s="15" t="s">
+      <c r="AZ43" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="44" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>2013</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N44" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="O44" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="Q44" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T44" t="s">
@@ -10331,7 +10322,7 @@
       <c r="AD44">
         <v>3</v>
       </c>
-      <c r="AG44" s="11" t="s">
+      <c r="AG44" s="10" t="s">
         <v>251</v>
       </c>
       <c r="AH44" t="s">
@@ -10373,60 +10364,60 @@
       <c r="AY44" t="s">
         <v>536</v>
       </c>
-      <c r="AZ44" s="15" t="s">
+      <c r="AZ44" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="45" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>2013</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N45" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T45" t="s">
@@ -10462,7 +10453,7 @@
       <c r="AD45">
         <v>3</v>
       </c>
-      <c r="AG45" s="11" t="s">
+      <c r="AG45" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH45" t="s">
@@ -10474,7 +10465,7 @@
       <c r="AJ45" t="s">
         <v>138</v>
       </c>
-      <c r="AM45" s="14" t="s">
+      <c r="AM45" s="13" t="s">
         <v>540</v>
       </c>
       <c r="AN45" t="s">
@@ -10507,185 +10498,185 @@
       <c r="AY45" t="s">
         <v>539</v>
       </c>
-      <c r="AZ45" s="15" t="s">
+      <c r="AZ45" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="16" t="s">
+    <row r="46" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B46" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="10">
         <v>2013</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M46" s="16" t="s">
+      <c r="M46" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N46" s="16" t="s">
+      <c r="N46" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O46" s="16" t="s">
+      <c r="O46" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P46" s="16" t="s">
+      <c r="P46" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q46" s="16" t="s">
+      <c r="Q46" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R46" s="16" t="s">
+      <c r="R46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T46" s="15" t="s">
+      <c r="T46" t="s">
         <v>26</v>
       </c>
-      <c r="U46" s="15" t="s">
+      <c r="U46" t="s">
         <v>46</v>
       </c>
-      <c r="V46" s="15" t="s">
+      <c r="V46" t="s">
         <v>57</v>
       </c>
-      <c r="W46" s="15" t="s">
+      <c r="W46" t="s">
         <v>46</v>
       </c>
-      <c r="X46" s="15" t="s">
+      <c r="X46" t="s">
         <v>55</v>
       </c>
-      <c r="Y46" s="15" t="s">
+      <c r="Y46" t="s">
         <v>215</v>
       </c>
-      <c r="Z46" s="15" t="s">
+      <c r="Z46" t="s">
         <v>542</v>
       </c>
-      <c r="AA46" s="15" t="s">
+      <c r="AA46" t="s">
         <v>543</v>
       </c>
-      <c r="AB46" s="15">
+      <c r="AB46">
         <v>2</v>
       </c>
-      <c r="AC46" s="15">
+      <c r="AC46">
         <v>2</v>
       </c>
-      <c r="AD46" s="15">
+      <c r="AD46">
         <v>3</v>
       </c>
-      <c r="AG46" s="16" t="s">
+      <c r="AG46" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH46" s="15" t="s">
+      <c r="AH46" t="s">
         <v>110</v>
       </c>
-      <c r="AI46" s="15" t="s">
+      <c r="AI46" t="s">
         <v>117</v>
       </c>
-      <c r="AN46" s="15" t="s">
+      <c r="AN46" t="s">
         <v>232</v>
       </c>
-      <c r="AO46" s="15" t="s">
+      <c r="AO46" t="s">
         <v>161</v>
       </c>
-      <c r="AP46" s="15" t="s">
+      <c r="AP46" t="s">
         <v>587</v>
       </c>
-      <c r="AR46" s="15" t="s">
+      <c r="AR46" t="s">
         <v>164</v>
       </c>
-      <c r="AS46" s="15" t="s">
+      <c r="AS46" t="s">
         <v>239</v>
       </c>
-      <c r="AV46" s="15" t="s">
+      <c r="AV46" t="s">
         <v>545</v>
       </c>
-      <c r="AW46" s="15" t="s">
+      <c r="AW46" t="s">
         <v>199</v>
       </c>
-      <c r="AX46" s="15" t="s">
+      <c r="AX46" t="s">
         <v>208</v>
       </c>
-      <c r="AY46" s="15" t="s">
+      <c r="AY46" t="s">
         <v>547</v>
       </c>
-      <c r="AZ46" s="15" t="s">
+      <c r="AZ46" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="47" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>2013</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T47" t="s">
@@ -10721,10 +10712,10 @@
       <c r="AD47">
         <v>3</v>
       </c>
-      <c r="AG47" s="16" t="s">
+      <c r="AG47" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH47" s="15" t="s">
+      <c r="AH47" t="s">
         <v>110</v>
       </c>
       <c r="AI47" t="s">
@@ -10757,60 +10748,60 @@
       <c r="AY47" t="s">
         <v>547</v>
       </c>
-      <c r="AZ47" s="15" t="s">
+      <c r="AZ47" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="48" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>2013</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="Q48" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T48" t="s">
@@ -10846,10 +10837,10 @@
       <c r="AD48">
         <v>3</v>
       </c>
-      <c r="AG48" s="16" t="s">
+      <c r="AG48" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH48" s="15" t="s">
+      <c r="AH48" t="s">
         <v>110</v>
       </c>
       <c r="AI48" t="s">
@@ -10885,60 +10876,60 @@
       <c r="AY48" t="s">
         <v>548</v>
       </c>
-      <c r="AZ48" s="15" t="s">
+      <c r="AZ48" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="49" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>2013</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T49" t="s">
@@ -10974,10 +10965,10 @@
       <c r="AD49">
         <v>3</v>
       </c>
-      <c r="AG49" s="16" t="s">
+      <c r="AG49" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH49" s="15" t="s">
+      <c r="AH49" t="s">
         <v>110</v>
       </c>
       <c r="AI49" t="s">
@@ -11010,60 +11001,60 @@
       <c r="AY49" t="s">
         <v>547</v>
       </c>
-      <c r="AZ49" s="15" t="s">
+      <c r="AZ49" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="50" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>2013</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T50" t="s">
@@ -11099,10 +11090,10 @@
       <c r="AD50">
         <v>3</v>
       </c>
-      <c r="AG50" s="16" t="s">
+      <c r="AG50" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH50" s="15" t="s">
+      <c r="AH50" t="s">
         <v>110</v>
       </c>
       <c r="AI50" t="s">
@@ -11138,60 +11129,60 @@
       <c r="AY50" t="s">
         <v>547</v>
       </c>
-      <c r="AZ50" s="15" t="s">
+      <c r="AZ50" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="51" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>2013</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T51" t="s">
@@ -11227,10 +11218,10 @@
       <c r="AD51">
         <v>3</v>
       </c>
-      <c r="AG51" s="16" t="s">
+      <c r="AG51" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH51" s="15" t="s">
+      <c r="AH51" t="s">
         <v>110</v>
       </c>
       <c r="AI51" t="s">
@@ -11266,60 +11257,60 @@
       <c r="AY51" t="s">
         <v>547</v>
       </c>
-      <c r="AZ51" s="15" t="s">
+      <c r="AZ51" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="52" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>2013</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T52" t="s">
@@ -11355,10 +11346,10 @@
       <c r="AD52">
         <v>3</v>
       </c>
-      <c r="AG52" s="16" t="s">
+      <c r="AG52" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH52" s="15" t="s">
+      <c r="AH52" t="s">
         <v>110</v>
       </c>
       <c r="AI52" t="s">
@@ -11397,60 +11388,60 @@
       <c r="AY52" t="s">
         <v>548</v>
       </c>
-      <c r="AZ52" s="15" t="s">
+      <c r="AZ52" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="53" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>2013</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T53" t="s">
@@ -11486,10 +11477,10 @@
       <c r="AD53">
         <v>3</v>
       </c>
-      <c r="AG53" s="16" t="s">
+      <c r="AG53" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH53" s="15" t="s">
+      <c r="AH53" t="s">
         <v>110</v>
       </c>
       <c r="AI53" t="s">
@@ -11525,60 +11516,60 @@
       <c r="AY53" t="s">
         <v>546</v>
       </c>
-      <c r="AZ53" s="15" t="s">
+      <c r="AZ53" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="54" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>2013</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T54" t="s">
@@ -11614,10 +11605,10 @@
       <c r="AD54">
         <v>3</v>
       </c>
-      <c r="AG54" s="16" t="s">
+      <c r="AG54" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH54" s="15" t="s">
+      <c r="AH54" t="s">
         <v>110</v>
       </c>
       <c r="AI54" t="s">
@@ -11653,60 +11644,60 @@
       <c r="AY54" t="s">
         <v>547</v>
       </c>
-      <c r="AZ54" s="15" t="s">
+      <c r="AZ54" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="55" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>2013</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T55" t="s">
@@ -11742,10 +11733,10 @@
       <c r="AD55">
         <v>3</v>
       </c>
-      <c r="AG55" s="16" t="s">
+      <c r="AG55" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH55" s="15" t="s">
+      <c r="AH55" t="s">
         <v>110</v>
       </c>
       <c r="AI55" t="s">
@@ -11781,60 +11772,60 @@
       <c r="AY55" t="s">
         <v>547</v>
       </c>
-      <c r="AZ55" s="15" t="s">
+      <c r="AZ55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="56" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>2013</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T56" t="s">
@@ -11870,10 +11861,10 @@
       <c r="AD56">
         <v>3</v>
       </c>
-      <c r="AG56" s="16" t="s">
+      <c r="AG56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH56" s="15" t="s">
+      <c r="AH56" t="s">
         <v>110</v>
       </c>
       <c r="AI56" t="s">
@@ -11912,60 +11903,60 @@
       <c r="AY56" t="s">
         <v>548</v>
       </c>
-      <c r="AZ56" s="15" t="s">
+      <c r="AZ56" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="57" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>2013</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T57" t="s">
@@ -12001,10 +11992,10 @@
       <c r="AD57">
         <v>3</v>
       </c>
-      <c r="AG57" s="16" t="s">
+      <c r="AG57" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AH57" s="15" t="s">
+      <c r="AH57" t="s">
         <v>110</v>
       </c>
       <c r="AI57" t="s">
@@ -12040,60 +12031,60 @@
       <c r="AY57" t="s">
         <v>547</v>
       </c>
-      <c r="AZ57" s="15" t="s">
+      <c r="AZ57" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="58" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>2013</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T58" t="s">
@@ -12129,7 +12120,7 @@
       <c r="AD58">
         <v>3</v>
       </c>
-      <c r="AG58" s="11" t="s">
+      <c r="AG58" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH58" t="s">
@@ -12141,7 +12132,7 @@
       <c r="AJ58" t="s">
         <v>131</v>
       </c>
-      <c r="AM58" s="14" t="s">
+      <c r="AM58" s="13" t="s">
         <v>554</v>
       </c>
       <c r="AN58" t="s">
@@ -12171,60 +12162,60 @@
       <c r="AY58" t="s">
         <v>552</v>
       </c>
-      <c r="AZ58" s="15" t="s">
+      <c r="AZ58" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="59" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>2013</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T59" t="s">
@@ -12260,7 +12251,7 @@
       <c r="AD59">
         <v>3</v>
       </c>
-      <c r="AG59" s="11" t="s">
+      <c r="AG59" s="10" t="s">
         <v>250</v>
       </c>
       <c r="AH59" t="s">
@@ -12272,7 +12263,7 @@
       <c r="AJ59" t="s">
         <v>131</v>
       </c>
-      <c r="AM59" s="14" t="s">
+      <c r="AM59" s="13" t="s">
         <v>554</v>
       </c>
       <c r="AN59" t="s">
@@ -12302,251 +12293,248 @@
       <c r="AY59" t="s">
         <v>553</v>
       </c>
-      <c r="AZ59" s="15" t="s">
+      <c r="AZ59" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="60" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="16" t="s">
+    <row r="60" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B60" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="10">
         <v>2012</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K60" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="L60" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="M60" s="16" t="s">
+      <c r="M60" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N60" s="16" t="s">
+      <c r="N60" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="O60" s="16" t="s">
+      <c r="O60" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P60" s="16" t="s">
+      <c r="P60" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q60" s="16" t="s">
+      <c r="Q60" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R60" s="16" t="s">
+      <c r="R60" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T60" s="15" t="s">
+      <c r="T60" t="s">
         <v>31</v>
       </c>
-      <c r="U60" s="15" t="s">
+      <c r="U60" t="s">
         <v>46</v>
       </c>
-      <c r="V60" s="15" t="s">
+      <c r="V60" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="15" t="s">
+      <c r="W60" t="s">
         <v>46</v>
       </c>
-      <c r="X60" s="15" t="s">
+      <c r="X60" t="s">
         <v>214</v>
       </c>
-      <c r="Y60" s="15" t="s">
+      <c r="Y60" t="s">
         <v>113</v>
       </c>
-      <c r="Z60" s="15" t="s">
+      <c r="Z60" t="s">
         <v>531</v>
       </c>
-      <c r="AA60" s="15" t="s">
+      <c r="AA60" t="s">
         <v>532</v>
       </c>
-      <c r="AB60" s="15">
+      <c r="AB60">
         <v>2</v>
       </c>
-      <c r="AC60" s="15">
+      <c r="AC60">
         <v>2</v>
       </c>
-      <c r="AD60" s="15">
+      <c r="AD60">
         <v>3</v>
       </c>
-      <c r="AF60" s="15" t="s">
+      <c r="AF60" t="s">
         <v>503</v>
       </c>
-      <c r="AG60" s="16" t="s">
+      <c r="AG60" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AH60" s="15" t="s">
+      <c r="AH60" t="s">
         <v>112</v>
       </c>
-      <c r="AI60" s="15" t="s">
+      <c r="AI60" t="s">
         <v>119</v>
       </c>
-      <c r="AJ60" s="15" t="s">
+      <c r="AJ60" t="s">
         <v>132</v>
       </c>
-      <c r="AM60" s="17" t="s">
+      <c r="AM60" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="AN60" s="15" t="s">
+      <c r="AN60" t="s">
         <v>232</v>
       </c>
-      <c r="AO60" s="15" t="s">
+      <c r="AO60" t="s">
         <v>162</v>
       </c>
-      <c r="AP60" s="15" t="s">
+      <c r="AP60" t="s">
         <v>490</v>
       </c>
-      <c r="AR60" s="15" t="s">
+      <c r="AR60" t="s">
         <v>165</v>
       </c>
-      <c r="AS60" s="15" t="s">
+      <c r="AS60" t="s">
         <v>170</v>
       </c>
-      <c r="AT60" s="15" t="s">
+      <c r="AT60" t="s">
         <v>188</v>
       </c>
-      <c r="AV60" s="15" t="s">
+      <c r="AV60" t="s">
         <v>588</v>
       </c>
-      <c r="AW60" s="15" t="s">
+      <c r="AW60" t="s">
         <v>238</v>
       </c>
-      <c r="AX60" s="15" t="s">
+      <c r="AX60" t="s">
         <v>207</v>
       </c>
-      <c r="AY60" s="15" t="s">
+      <c r="AY60" t="s">
         <v>586</v>
       </c>
-      <c r="AZ60" s="15" t="s">
+      <c r="AZ60" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="61" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="10">
         <v>2012</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I61" s="16" t="s">
+      <c r="I61" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="J61" s="16" t="s">
+      <c r="J61" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K61" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="L61" s="16" t="s">
+      <c r="L61" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="M61" s="16" t="s">
+      <c r="M61" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N61" s="16" t="s">
+      <c r="N61" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="O61" s="16" t="s">
+      <c r="O61" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P61" s="16" t="s">
+      <c r="P61" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q61" s="16" t="s">
+      <c r="Q61" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R61" s="16" t="s">
+      <c r="R61" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T61" s="15" t="s">
+      <c r="T61" t="s">
         <v>31</v>
       </c>
-      <c r="U61" s="15" t="s">
+      <c r="U61" t="s">
         <v>46</v>
       </c>
-      <c r="V61" s="15" t="s">
+      <c r="V61" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="18" t="s">
+      <c r="W61" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="X61" s="15" t="s">
+      <c r="X61" t="s">
         <v>214</v>
       </c>
-      <c r="Y61" s="15" t="s">
+      <c r="Y61" t="s">
         <v>113</v>
       </c>
-      <c r="Z61" s="15" t="s">
+      <c r="Z61" t="s">
         <v>531</v>
       </c>
-      <c r="AA61" s="15" t="s">
+      <c r="AA61" t="s">
         <v>532</v>
       </c>
-      <c r="AB61" s="15">
+      <c r="AB61">
         <v>2</v>
       </c>
-      <c r="AC61" s="15">
+      <c r="AC61">
         <v>2</v>
       </c>
-      <c r="AD61" s="15">
+      <c r="AD61">
         <v>3</v>
       </c>
-      <c r="AE61" s="15"/>
-      <c r="AF61" s="15" t="s">
+      <c r="AF61" t="s">
         <v>503</v>
       </c>
-      <c r="AG61" s="16" t="s">
+      <c r="AG61" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AH61" s="15" t="s">
+      <c r="AH61" t="s">
         <v>112</v>
       </c>
-      <c r="AI61" s="15" t="s">
+      <c r="AI61" t="s">
         <v>119</v>
       </c>
-      <c r="AJ61" s="15" t="s">
+      <c r="AJ61" t="s">
         <v>132</v>
       </c>
-      <c r="AK61" s="15"/>
-      <c r="AL61" s="15"/>
-      <c r="AM61" s="14" t="s">
+      <c r="AM61" s="13" t="s">
         <v>533</v>
       </c>
       <c r="AN61" t="s">
@@ -12567,7 +12555,7 @@
       <c r="AT61" t="s">
         <v>189</v>
       </c>
-      <c r="AV61" s="15" t="s">
+      <c r="AV61" t="s">
         <v>588</v>
       </c>
       <c r="AW61" t="s">
@@ -12576,120 +12564,120 @@
       <c r="AX61" t="s">
         <v>207</v>
       </c>
-      <c r="AY61" s="21" t="s">
+      <c r="AY61" t="s">
         <v>586</v>
       </c>
       <c r="AZ61" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="16" t="s">
+    <row r="62" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B62" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="10">
         <v>2012</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="I62" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="J62" s="16" t="s">
+      <c r="J62" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="K62" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="L62" s="16" t="s">
+      <c r="L62" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M62" s="16" t="s">
+      <c r="M62" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N62" s="16" t="s">
+      <c r="N62" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="O62" s="16" t="s">
+      <c r="O62" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P62" s="16" t="s">
+      <c r="P62" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q62" s="16" t="s">
+      <c r="Q62" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R62" s="16" t="s">
+      <c r="R62" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S62" s="15" t="s">
+      <c r="S62" t="s">
         <v>84</v>
       </c>
-      <c r="AG62" s="16"/>
+      <c r="AG62" s="10"/>
     </row>
     <row r="63" spans="2:52" x14ac:dyDescent="0.35">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>2011</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="R63" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T63" t="s">
@@ -12710,22 +12698,22 @@
       <c r="Y63" t="s">
         <v>69</v>
       </c>
-      <c r="Z63" s="15" t="s">
+      <c r="Z63" t="s">
         <v>555</v>
       </c>
-      <c r="AA63" s="15" t="s">
+      <c r="AA63" t="s">
         <v>556</v>
       </c>
-      <c r="AB63" s="15">
+      <c r="AB63">
         <v>2</v>
       </c>
-      <c r="AC63" s="15">
+      <c r="AC63">
         <v>2</v>
       </c>
-      <c r="AD63" s="15">
+      <c r="AD63">
         <v>3</v>
       </c>
-      <c r="AG63" s="11" t="s">
+      <c r="AG63" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AH63" t="s">
@@ -12737,7 +12725,7 @@
       <c r="AJ63" t="s">
         <v>131</v>
       </c>
-      <c r="AM63" s="14" t="s">
+      <c r="AM63" s="13" t="s">
         <v>557</v>
       </c>
       <c r="AN63" t="s">
@@ -12774,561 +12762,552 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="2:52" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="16" t="s">
+    <row r="64" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B64" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="10">
         <v>2011</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="I64" s="16" t="s">
+      <c r="I64" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J64" s="16" t="s">
+      <c r="J64" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="K64" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="L64" s="16" t="s">
+      <c r="L64" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="M64" s="16" t="s">
+      <c r="M64" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N64" s="16" t="s">
+      <c r="N64" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="O64" s="16" t="s">
+      <c r="O64" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P64" s="16" t="s">
+      <c r="P64" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q64" s="16" t="s">
+      <c r="Q64" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R64" s="16" t="s">
+      <c r="R64" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T64" s="15" t="s">
+      <c r="T64" t="s">
         <v>31</v>
       </c>
-      <c r="U64" s="15" t="s">
+      <c r="U64" t="s">
         <v>46</v>
       </c>
-      <c r="V64" s="15" t="s">
+      <c r="V64" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="15" t="s">
+      <c r="W64" t="s">
         <v>46</v>
       </c>
-      <c r="X64" s="15" t="s">
+      <c r="X64" t="s">
         <v>55</v>
       </c>
-      <c r="Y64" s="15" t="s">
+      <c r="Y64" t="s">
         <v>215</v>
       </c>
-      <c r="Z64" s="15" t="s">
+      <c r="Z64" t="s">
         <v>561</v>
       </c>
-      <c r="AA64" s="15" t="s">
+      <c r="AA64" t="s">
         <v>562</v>
       </c>
-      <c r="AB64" s="15">
+      <c r="AB64">
         <v>2</v>
       </c>
-      <c r="AC64" s="15">
+      <c r="AC64">
         <v>2</v>
       </c>
-      <c r="AD64" s="15">
+      <c r="AD64">
         <v>3</v>
       </c>
-      <c r="AG64" s="11" t="s">
+      <c r="AG64" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AH64" s="15" t="s">
+      <c r="AH64" t="s">
         <v>110</v>
       </c>
-      <c r="AI64" s="15" t="s">
+      <c r="AI64" t="s">
         <v>117</v>
       </c>
-      <c r="AN64" s="15" t="s">
+      <c r="AN64" t="s">
         <v>232</v>
       </c>
-      <c r="AO64" s="15" t="s">
+      <c r="AO64" t="s">
         <v>160</v>
       </c>
-      <c r="AP64" s="15" t="s">
+      <c r="AP64" t="s">
         <v>490</v>
       </c>
-      <c r="AR64" s="15" t="s">
+      <c r="AR64" t="s">
         <v>164</v>
       </c>
-      <c r="AS64" s="15" t="s">
+      <c r="AS64" t="s">
         <v>239</v>
       </c>
-      <c r="AV64" s="15" t="s">
+      <c r="AV64" t="s">
         <v>527</v>
       </c>
-      <c r="AW64" s="15" t="s">
+      <c r="AW64" t="s">
         <v>199</v>
       </c>
-      <c r="AX64" s="15" t="s">
+      <c r="AX64" t="s">
         <v>207</v>
       </c>
-      <c r="AY64" s="15" t="s">
+      <c r="AY64" t="s">
         <v>563</v>
       </c>
-      <c r="AZ64" s="15" t="s">
+      <c r="AZ64" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="16" t="s">
+    <row r="65" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B65" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="10">
         <v>2011</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="I65" s="16" t="s">
+      <c r="I65" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="J65" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="K65" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="L65" s="16" t="s">
+      <c r="L65" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="M65" s="16" t="s">
+      <c r="M65" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N65" s="16" t="s">
+      <c r="N65" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="O65" s="16" t="s">
+      <c r="O65" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P65" s="16" t="s">
+      <c r="P65" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q65" s="16" t="s">
+      <c r="Q65" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R65" s="16" t="s">
+      <c r="R65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T65" s="15" t="s">
+      <c r="T65" t="s">
         <v>31</v>
       </c>
-      <c r="U65" s="15" t="s">
+      <c r="U65" t="s">
         <v>46</v>
       </c>
-      <c r="V65" s="15" t="s">
+      <c r="V65" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="15" t="s">
+      <c r="W65" t="s">
         <v>46</v>
       </c>
-      <c r="X65" s="15" t="s">
+      <c r="X65" t="s">
         <v>55</v>
       </c>
-      <c r="Y65" s="15" t="s">
+      <c r="Y65" t="s">
         <v>215</v>
       </c>
-      <c r="Z65" s="15" t="s">
+      <c r="Z65" t="s">
         <v>561</v>
       </c>
-      <c r="AA65" s="15" t="s">
+      <c r="AA65" t="s">
         <v>562</v>
       </c>
-      <c r="AB65" s="15">
+      <c r="AB65">
         <v>2</v>
       </c>
-      <c r="AC65" s="15">
+      <c r="AC65">
         <v>2</v>
       </c>
-      <c r="AD65" s="15">
+      <c r="AD65">
         <v>3</v>
       </c>
-      <c r="AG65" s="11" t="s">
+      <c r="AG65" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AH65" s="15" t="s">
+      <c r="AH65" t="s">
         <v>110</v>
       </c>
-      <c r="AI65" s="15" t="s">
+      <c r="AI65" t="s">
         <v>118</v>
       </c>
-      <c r="AN65" s="15" t="s">
+      <c r="AN65" t="s">
         <v>232</v>
       </c>
-      <c r="AO65" s="15" t="s">
+      <c r="AO65" t="s">
         <v>160</v>
       </c>
-      <c r="AP65" s="15" t="s">
+      <c r="AP65" t="s">
         <v>490</v>
       </c>
-      <c r="AR65" s="15" t="s">
+      <c r="AR65" t="s">
         <v>164</v>
       </c>
-      <c r="AS65" s="15" t="s">
+      <c r="AS65" t="s">
         <v>239</v>
       </c>
-      <c r="AV65" s="15" t="s">
+      <c r="AV65" t="s">
         <v>527</v>
       </c>
-      <c r="AW65" s="15" t="s">
+      <c r="AW65" t="s">
         <v>199</v>
       </c>
-      <c r="AX65" s="15" t="s">
+      <c r="AX65" t="s">
         <v>207</v>
       </c>
-      <c r="AY65" s="15" t="s">
+      <c r="AY65" t="s">
         <v>563</v>
       </c>
-      <c r="AZ65" s="15" t="s">
+      <c r="AZ65" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="2:53" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="19" t="s">
+    <row r="66" spans="2:52" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="15">
         <v>2011</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="I66" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="K66" s="19" t="s">
+      <c r="K66" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="L66" s="19" t="s">
+      <c r="L66" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="M66" s="19" t="s">
+      <c r="M66" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="N66" s="19" t="s">
+      <c r="N66" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="O66" s="19" t="s">
+      <c r="O66" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="P66" s="19" t="s">
+      <c r="P66" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="Q66" s="19" t="s">
+      <c r="Q66" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="R66" s="19" t="s">
+      <c r="R66" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T66" s="18" t="s">
+      <c r="T66" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="U66" s="18" t="s">
+      <c r="U66" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="V66" s="18" t="s">
+      <c r="V66" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="W66" s="18" t="s">
+      <c r="W66" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="X66" s="18" t="s">
+      <c r="X66" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="Y66" s="18" t="s">
+      <c r="Y66" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="Z66" s="18" t="s">
+      <c r="Z66" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="AA66" s="18" t="s">
+      <c r="AA66" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="AB66" s="18">
+      <c r="AB66" s="14">
         <v>2</v>
       </c>
-      <c r="AC66" s="18">
+      <c r="AC66" s="14">
         <v>2</v>
       </c>
-      <c r="AD66" s="18">
+      <c r="AD66" s="14">
         <v>3</v>
       </c>
-      <c r="AG66" s="19" t="s">
+      <c r="AG66" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="AH66" s="18" t="s">
+      <c r="AH66" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AI66" s="18" t="s">
+      <c r="AI66" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AJ66" s="18" t="s">
+      <c r="AJ66" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AN66" s="18" t="s">
+      <c r="AN66" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="AO66" s="18" t="s">
+      <c r="AO66" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="AP66" s="18" t="s">
+      <c r="AP66" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="AR66" s="18" t="s">
+      <c r="AR66" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="AS66" s="18" t="s">
+      <c r="AS66" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="AV66" s="18" t="s">
+      <c r="AV66" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="AW66" s="18" t="s">
+      <c r="AW66" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="AX66" s="18" t="s">
+      <c r="AX66" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="AY66" s="18" t="s">
+      <c r="AY66" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="AZ66" s="15" t="s">
+      <c r="AZ66" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="16" t="s">
+    <row r="67" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B67" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="10">
         <v>2010</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="I67" s="16" t="s">
+      <c r="I67" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="L67" s="16" t="s">
+      <c r="L67" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="M67" s="16" t="s">
+      <c r="M67" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="N67" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="O67" s="16" t="s">
+      <c r="O67" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P67" s="16" t="s">
+      <c r="P67" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q67" s="16" t="s">
+      <c r="Q67" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R67" s="16" t="s">
+      <c r="R67" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S67" s="15" t="s">
+      <c r="S67" t="s">
         <v>84</v>
       </c>
-      <c r="AG67" s="16"/>
+      <c r="AG67" s="10"/>
     </row>
-    <row r="68" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="16" t="s">
+    <row r="68" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B68" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="10">
         <v>2009</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I68" s="16" t="s">
+      <c r="I68" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="K68" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="L68" s="16" t="s">
+      <c r="L68" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="M68" s="16" t="s">
+      <c r="M68" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N68" s="16" t="s">
+      <c r="N68" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="O68" s="16" t="s">
+      <c r="O68" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P68" s="16" t="s">
+      <c r="P68" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q68" s="16" t="s">
+      <c r="Q68" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R68" s="16" t="s">
+      <c r="R68" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S68" s="15" t="s">
+      <c r="S68" t="s">
         <v>84</v>
       </c>
-      <c r="Z68" s="20"/>
-      <c r="AA68" s="20"/>
-      <c r="AB68" s="20"/>
-      <c r="AC68" s="20"/>
-      <c r="AD68" s="20"/>
-      <c r="AG68" s="16"/>
-      <c r="AM68" s="17"/>
-      <c r="AP68" s="20"/>
-      <c r="AV68" s="20"/>
-      <c r="AY68" s="20"/>
-      <c r="AZ68" s="20" t="s">
+      <c r="AG68" s="10"/>
+      <c r="AM68" s="13"/>
+      <c r="AZ68" t="s">
         <v>473</v>
       </c>
-      <c r="BA68" s="20"/>
     </row>
-    <row r="69" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B69" s="11" t="s">
+    <row r="69" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B69" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <v>2009</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I69" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="L69" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R69" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T69" t="s">
@@ -13349,22 +13328,22 @@
       <c r="Y69" t="s">
         <v>69</v>
       </c>
-      <c r="Z69" s="20" t="s">
+      <c r="Z69" t="s">
         <v>568</v>
       </c>
-      <c r="AA69" s="20" t="s">
+      <c r="AA69" t="s">
         <v>567</v>
       </c>
-      <c r="AB69" s="20">
+      <c r="AB69">
         <v>2</v>
       </c>
-      <c r="AC69" s="20">
+      <c r="AC69">
         <v>2</v>
       </c>
-      <c r="AD69" s="20">
+      <c r="AD69">
         <v>3</v>
       </c>
-      <c r="AG69" s="11" t="s">
+      <c r="AG69" s="10" t="s">
         <v>251</v>
       </c>
       <c r="AH69" t="s">
@@ -13379,7 +13358,7 @@
       <c r="AO69" t="s">
         <v>160</v>
       </c>
-      <c r="AP69" s="20" t="s">
+      <c r="AP69" t="s">
         <v>569</v>
       </c>
       <c r="AR69" t="s">
@@ -13388,7 +13367,7 @@
       <c r="AS69" t="s">
         <v>239</v>
       </c>
-      <c r="AV69" s="20" t="s">
+      <c r="AV69" t="s">
         <v>491</v>
       </c>
       <c r="AW69" t="s">
@@ -13397,63 +13376,63 @@
       <c r="AX69" t="s">
         <v>209</v>
       </c>
-      <c r="AY69" s="15" t="s">
+      <c r="AY69" t="s">
         <v>570</v>
       </c>
-      <c r="AZ69" s="20" t="s">
+      <c r="AZ69" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B70" s="11" t="s">
+    <row r="70" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B70" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>2009</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L70" s="11" t="s">
+      <c r="L70" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T70" t="s">
@@ -13474,22 +13453,22 @@
       <c r="Y70" t="s">
         <v>69</v>
       </c>
-      <c r="Z70" s="20" t="s">
+      <c r="Z70" t="s">
         <v>568</v>
       </c>
-      <c r="AA70" s="20" t="s">
+      <c r="AA70" t="s">
         <v>567</v>
       </c>
-      <c r="AB70" s="20">
+      <c r="AB70">
         <v>2</v>
       </c>
-      <c r="AC70" s="20">
+      <c r="AC70">
         <v>2</v>
       </c>
-      <c r="AD70" s="20">
+      <c r="AD70">
         <v>3</v>
       </c>
-      <c r="AG70" s="11">
+      <c r="AG70" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="AH70" t="s">
@@ -13504,7 +13483,7 @@
       <c r="AO70" t="s">
         <v>160</v>
       </c>
-      <c r="AP70" s="20" t="s">
+      <c r="AP70" t="s">
         <v>569</v>
       </c>
       <c r="AR70" t="s">
@@ -13516,7 +13495,7 @@
       <c r="AT70" t="s">
         <v>181</v>
       </c>
-      <c r="AV70" s="20" t="s">
+      <c r="AV70" t="s">
         <v>491</v>
       </c>
       <c r="AW70" t="s">
@@ -13525,63 +13504,63 @@
       <c r="AX70" t="s">
         <v>209</v>
       </c>
-      <c r="AY70" s="15" t="s">
+      <c r="AY70" t="s">
         <v>570</v>
       </c>
-      <c r="AZ70" s="20" t="s">
+      <c r="AZ70" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="71" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B71" s="11" t="s">
+    <row r="71" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B71" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>2009</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L71" s="11" t="s">
+      <c r="L71" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R71" s="11" t="s">
+      <c r="R71" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T71" t="s">
@@ -13602,22 +13581,22 @@
       <c r="Y71" t="s">
         <v>69</v>
       </c>
-      <c r="Z71" s="20" t="s">
+      <c r="Z71" t="s">
         <v>568</v>
       </c>
-      <c r="AA71" s="20" t="s">
+      <c r="AA71" t="s">
         <v>567</v>
       </c>
-      <c r="AB71" s="20">
+      <c r="AB71">
         <v>2</v>
       </c>
-      <c r="AC71" s="20">
+      <c r="AC71">
         <v>2</v>
       </c>
-      <c r="AD71" s="20">
+      <c r="AD71">
         <v>3</v>
       </c>
-      <c r="AG71" s="11">
+      <c r="AG71" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="AH71" t="s">
@@ -13632,7 +13611,7 @@
       <c r="AO71" t="s">
         <v>160</v>
       </c>
-      <c r="AP71" s="20" t="s">
+      <c r="AP71" t="s">
         <v>569</v>
       </c>
       <c r="AR71" t="s">
@@ -13644,7 +13623,7 @@
       <c r="AT71" t="s">
         <v>192</v>
       </c>
-      <c r="AV71" s="20" t="s">
+      <c r="AV71" t="s">
         <v>491</v>
       </c>
       <c r="AW71" t="s">
@@ -13653,63 +13632,63 @@
       <c r="AX71" t="s">
         <v>209</v>
       </c>
-      <c r="AY71" s="15" t="s">
+      <c r="AY71" t="s">
         <v>570</v>
       </c>
-      <c r="AZ71" s="20" t="s">
+      <c r="AZ71" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B72" s="11" t="s">
+    <row r="72" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B72" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>2009</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="I72" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L72" s="11" t="s">
+      <c r="L72" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T72" t="s">
@@ -13730,22 +13709,22 @@
       <c r="Y72" t="s">
         <v>69</v>
       </c>
-      <c r="Z72" s="20" t="s">
+      <c r="Z72" t="s">
         <v>568</v>
       </c>
-      <c r="AA72" s="20" t="s">
+      <c r="AA72" t="s">
         <v>567</v>
       </c>
-      <c r="AB72" s="20">
+      <c r="AB72">
         <v>2</v>
       </c>
-      <c r="AC72" s="20">
+      <c r="AC72">
         <v>2</v>
       </c>
-      <c r="AD72" s="20">
+      <c r="AD72">
         <v>3</v>
       </c>
-      <c r="AG72" s="11">
+      <c r="AG72" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="AH72" t="s">
@@ -13760,7 +13739,7 @@
       <c r="AO72" t="s">
         <v>160</v>
       </c>
-      <c r="AP72" s="20" t="s">
+      <c r="AP72" t="s">
         <v>569</v>
       </c>
       <c r="AR72" t="s">
@@ -13772,7 +13751,7 @@
       <c r="AT72" t="s">
         <v>194</v>
       </c>
-      <c r="AV72" s="20" t="s">
+      <c r="AV72" t="s">
         <v>491</v>
       </c>
       <c r="AW72" t="s">
@@ -13781,189 +13760,189 @@
       <c r="AX72" t="s">
         <v>209</v>
       </c>
-      <c r="AY72" s="15" t="s">
+      <c r="AY72" t="s">
         <v>570</v>
       </c>
-      <c r="AZ72" s="20" t="s">
+      <c r="AZ72" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="16" t="s">
+    <row r="73" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B73" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="10">
         <v>2009</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="L73" s="16" t="s">
+      <c r="L73" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="M73" s="16" t="s">
+      <c r="M73" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N73" s="16" t="s">
+      <c r="N73" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="O73" s="16" t="s">
+      <c r="O73" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P73" s="16" t="s">
+      <c r="P73" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q73" s="16" t="s">
+      <c r="Q73" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R73" s="16" t="s">
+      <c r="R73" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T73" s="15" t="s">
+      <c r="T73" t="s">
         <v>24</v>
       </c>
-      <c r="U73" s="15" t="s">
+      <c r="U73" t="s">
         <v>46</v>
       </c>
-      <c r="V73" s="15" t="s">
+      <c r="V73" t="s">
         <v>59</v>
       </c>
-      <c r="W73" s="15" t="s">
+      <c r="W73" t="s">
         <v>46</v>
       </c>
-      <c r="X73" s="15" t="s">
+      <c r="X73" t="s">
         <v>214</v>
       </c>
-      <c r="Y73" s="15" t="s">
+      <c r="Y73" t="s">
         <v>69</v>
       </c>
-      <c r="Z73" s="20" t="s">
+      <c r="Z73" t="s">
         <v>574</v>
       </c>
-      <c r="AA73" s="20" t="s">
+      <c r="AA73" t="s">
         <v>112</v>
       </c>
-      <c r="AB73" s="20">
+      <c r="AB73">
         <v>2</v>
       </c>
-      <c r="AC73" s="20">
+      <c r="AC73">
         <v>2</v>
       </c>
-      <c r="AD73" s="20">
+      <c r="AD73">
         <v>3</v>
       </c>
-      <c r="AG73" s="16" t="s">
+      <c r="AG73" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AH73" s="15" t="s">
+      <c r="AH73" t="s">
         <v>112</v>
       </c>
-      <c r="AI73" s="15" t="s">
+      <c r="AI73" t="s">
         <v>116</v>
       </c>
-      <c r="AN73" s="15" t="s">
+      <c r="AN73" t="s">
         <v>232</v>
       </c>
-      <c r="AO73" s="15" t="s">
+      <c r="AO73" t="s">
         <v>162</v>
       </c>
-      <c r="AP73" s="20" t="s">
+      <c r="AP73" t="s">
         <v>490</v>
       </c>
-      <c r="AR73" s="15" t="s">
+      <c r="AR73" t="s">
         <v>165</v>
       </c>
-      <c r="AS73" s="15" t="s">
+      <c r="AS73" t="s">
         <v>170</v>
       </c>
-      <c r="AT73" s="15" t="s">
+      <c r="AT73" t="s">
         <v>188</v>
       </c>
-      <c r="AV73" s="20" t="s">
+      <c r="AV73" t="s">
         <v>575</v>
       </c>
-      <c r="AW73" s="15" t="s">
+      <c r="AW73" t="s">
         <v>238</v>
       </c>
-      <c r="AX73" s="15" t="s">
+      <c r="AX73" t="s">
         <v>207</v>
       </c>
-      <c r="AY73" s="15" t="s">
+      <c r="AY73" t="s">
         <v>576</v>
       </c>
-      <c r="AZ73" s="20" t="s">
+      <c r="AZ73" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="74" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B74" s="11" t="s">
+    <row r="74" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B74" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>2009</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I74" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="L74" s="11" t="s">
+      <c r="L74" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11" t="s">
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T74" t="s">
@@ -13984,25 +13963,25 @@
       <c r="Y74" t="s">
         <v>69</v>
       </c>
-      <c r="Z74" s="20" t="s">
+      <c r="Z74" t="s">
         <v>574</v>
       </c>
-      <c r="AA74" s="20" t="s">
+      <c r="AA74" t="s">
         <v>112</v>
       </c>
-      <c r="AB74" s="20">
+      <c r="AB74">
         <v>2</v>
       </c>
-      <c r="AC74" s="20">
+      <c r="AC74">
         <v>2</v>
       </c>
-      <c r="AD74" s="20">
+      <c r="AD74">
         <v>3</v>
       </c>
-      <c r="AG74" s="16" t="s">
+      <c r="AG74" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AH74" s="15" t="s">
+      <c r="AH74" t="s">
         <v>112</v>
       </c>
       <c r="AI74" t="s">
@@ -14014,7 +13993,7 @@
       <c r="AO74" t="s">
         <v>162</v>
       </c>
-      <c r="AP74" s="20" t="s">
+      <c r="AP74" t="s">
         <v>490</v>
       </c>
       <c r="AR74" t="s">
@@ -14026,7 +14005,7 @@
       <c r="AT74" t="s">
         <v>188</v>
       </c>
-      <c r="AV74" s="20" t="s">
+      <c r="AV74" t="s">
         <v>575</v>
       </c>
       <c r="AW74" t="s">
@@ -14035,501 +14014,491 @@
       <c r="AX74" t="s">
         <v>207</v>
       </c>
-      <c r="AY74" s="15" t="s">
+      <c r="AY74" t="s">
         <v>576</v>
       </c>
-      <c r="AZ74" s="20" t="s">
+      <c r="AZ74" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="75" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="AG75" s="11"/>
-      <c r="AY75" s="23"/>
+    <row r="75" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AY75" s="16"/>
     </row>
-    <row r="76" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
+    <row r="76" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="AY77" s="24"/>
+    <row r="77" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="AG78" s="11"/>
-      <c r="AY78" s="24"/>
+    <row r="78" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="AG78" s="10"/>
     </row>
-    <row r="79" spans="2:53" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="Z79" s="20"/>
-      <c r="AA79" s="20"/>
-      <c r="AB79" s="20"/>
-      <c r="AC79" s="20"/>
-      <c r="AD79" s="20"/>
-      <c r="AG79" s="16"/>
-      <c r="AP79" s="20"/>
-      <c r="AV79" s="20"/>
-      <c r="AZ79" s="20"/>
+    <row r="79" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="AG79" s="10"/>
     </row>
-    <row r="80" spans="2:53" x14ac:dyDescent="0.35">
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="AG80" s="11"/>
+    <row r="80" spans="2:52" x14ac:dyDescent="0.35">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="AG80" s="10"/>
     </row>
     <row r="81" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="AG81" s="11"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="AG81" s="10"/>
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="AG82" s="11"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="AG82" s="10"/>
     </row>
     <row r="83" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="AG83" s="11"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="AG83" s="10"/>
     </row>
     <row r="84" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="AG84" s="11"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="AG84" s="10"/>
     </row>
     <row r="85" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="AG85" s="11"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="AG85" s="10"/>
     </row>
     <row r="86" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="AG86" s="11"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="AG86" s="10"/>
     </row>
     <row r="87" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="AG87" s="11"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="AG87" s="10"/>
     </row>
     <row r="88" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="AG88" s="11"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="AG88" s="10"/>
     </row>
     <row r="89" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="AG89" s="11"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="AG89" s="10"/>
     </row>
     <row r="90" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="AG90" s="11"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="AG90" s="10"/>
     </row>
     <row r="91" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="AG91" s="11"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="AG91" s="10"/>
     </row>
     <row r="92" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="AG92" s="11"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="AG92" s="10"/>
     </row>
     <row r="93" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="AG93" s="11"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="AG93" s="10"/>
     </row>
     <row r="94" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="AG94" s="11"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="AG94" s="10"/>
     </row>
     <row r="95" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="AG95" s="11"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="AG95" s="10"/>
     </row>
     <row r="96" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="AG96" s="11"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="AG96" s="10"/>
     </row>
     <row r="97" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="AG97" s="11"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="AG97" s="10"/>
     </row>
     <row r="98" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="AG98" s="11"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="AG98" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14663,7 +14632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
@@ -14681,70 +14650,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="31" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="29" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="30" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="26" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -15066,7 +15035,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -15454,7 +15423,7 @@
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -15657,7 +15626,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -15677,7 +15646,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -15690,9 +15659,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -15706,7 +15674,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -15714,10 +15682,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -15777,51 +15745,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="26" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="27" t="s">
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -16344,7 +16312,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -16534,7 +16502,7 @@
       <c r="R23" t="s">
         <v>134</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" s="11" t="s">
         <v>467</v>
       </c>
       <c r="AB23" t="s">
@@ -16653,6 +16621,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -16766,22 +16749,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5211D1A-1591-4955-A1EA-0C57E8444393}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16795,27 +16786,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>